--- a/TARJETA PATAYPAMPA/TARJETA DE LIQUIDACION 2013.xlsx
+++ b/TARJETA PATAYPAMPA/TARJETA DE LIQUIDACION 2013.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUPERVISION\Desktop\TARJETA PATAYPAMPA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUPERVISION2020\TARJETA PATAYPAMPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="PRINCIPAL 2013" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Supervisor" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'PRINCIPAL 2013'!$B$9:$AA$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'PRINCIPAL 2013'!$B$8:$AA$8</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="145">
   <si>
     <t>Ejecucion Detallada de Gastos</t>
   </si>
@@ -458,18 +458,27 @@
   </si>
   <si>
     <t>PCS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36 Galones Diesel B5- o/c-n° 1816 -2013
+</t>
+  </si>
+  <si>
+    <t>Servicio de Supervisor de Obra - Correspondiente  al Mes de Diciembre-Cardenas Catalan Jhonny  Wilfredo</t>
+  </si>
+  <si>
+    <t>Servicio de Supervisor de Obra - Retencion Correspondiente  al Mes de Diciembre-Cardenas Catalan Jhonny  Wilfredo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#,##0.00;\-#,##0.00;&quot;&quot;"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="166" formatCode="#,##0.###;\-#,##0.###;&quot;&quot;"/>
-    <numFmt numFmtId="167" formatCode="00"/>
-    <numFmt numFmtId="168" formatCode="0000000000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.###;\-#,##0.###;&quot;&quot;"/>
+    <numFmt numFmtId="166" formatCode="00"/>
+    <numFmt numFmtId="167" formatCode="0000000000"/>
   </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
@@ -640,7 +649,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -690,58 +699,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1090,12 +1047,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -1111,79 +1081,61 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1224,13 +1176,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1240,240 +1189,271 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="21" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="20" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="20" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="19" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="17" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="17" fontId="17" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="17" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="20" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="20" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="21" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="20" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="20" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="21" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="17" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="19" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="19" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="17" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="17" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="18" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="17" fontId="17" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="17" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="17" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="20" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1749,36 +1729,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="B1:AA51"/>
+  <dimension ref="B1:AA50"/>
   <sheetViews>
-    <sheetView topLeftCell="I6" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="3.7109375" style="35" customWidth="1"/>
-    <col min="4" max="4" width="2.7109375" style="35" customWidth="1"/>
-    <col min="5" max="6" width="10.7109375" style="35" hidden="1" customWidth="1"/>
-    <col min="7" max="9" width="12.7109375" style="36" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="29" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" style="29" customWidth="1"/>
+    <col min="4" max="4" width="2.7109375" style="29" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" style="29" hidden="1" customWidth="1"/>
+    <col min="7" max="9" width="12.7109375" style="30" customWidth="1"/>
     <col min="10" max="10" width="9.7109375" customWidth="1"/>
-    <col min="11" max="12" width="15.7109375" style="35" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="35" customWidth="1"/>
-    <col min="14" max="14" width="30.7109375" style="35" customWidth="1"/>
-    <col min="15" max="15" width="3.7109375" style="35" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" style="35" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" style="35" customWidth="1"/>
-    <col min="18" max="19" width="7.7109375" style="35" customWidth="1"/>
-    <col min="20" max="20" width="5.28515625" style="35" customWidth="1"/>
-    <col min="21" max="21" width="5.7109375" style="35" customWidth="1"/>
-    <col min="22" max="22" width="11.28515625" style="35" customWidth="1"/>
+    <col min="11" max="11" width="37.5703125" style="29" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" style="29" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="29" customWidth="1"/>
+    <col min="14" max="14" width="30.7109375" style="29" customWidth="1"/>
+    <col min="15" max="15" width="3.7109375" style="29" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="29" customWidth="1"/>
+    <col min="17" max="17" width="5.7109375" style="29" customWidth="1"/>
+    <col min="18" max="19" width="7.7109375" style="29" customWidth="1"/>
+    <col min="20" max="20" width="5.28515625" style="29" customWidth="1"/>
+    <col min="21" max="21" width="5.7109375" style="29" customWidth="1"/>
+    <col min="22" max="22" width="11.28515625" style="29" customWidth="1"/>
     <col min="23" max="23" width="9.7109375" customWidth="1"/>
-    <col min="24" max="25" width="15.7109375" style="35" customWidth="1"/>
-    <col min="26" max="26" width="30.7109375" style="35" customWidth="1"/>
-    <col min="27" max="27" width="40.7109375" style="35" customWidth="1"/>
+    <col min="24" max="25" width="15.7109375" style="29" customWidth="1"/>
+    <col min="26" max="26" width="30.7109375" style="29" customWidth="1"/>
+    <col min="27" max="27" width="40.7109375" style="29" customWidth="1"/>
     <col min="257" max="257" width="1.7109375" customWidth="1"/>
     <col min="258" max="258" width="10.7109375" customWidth="1"/>
     <col min="259" max="259" width="3.7109375" customWidth="1"/>
@@ -3307,13 +3287,13 @@
       <c r="AA7" s="3"/>
     </row>
     <row r="8" spans="2:27" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="110" t="s">
+      <c r="B8" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="112"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="98"/>
       <c r="G8" s="5" t="s">
         <v>5</v>
       </c>
@@ -3379,1138 +3359,1144 @@
       </c>
     </row>
     <row r="9" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
+      <c r="B9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="9">
+        <v>5000</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="10">
+        <v>41446</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="R9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="T9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="U9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="V9" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="W9" s="10"/>
       <c r="X9" s="8"/>
       <c r="Y9" s="8"/>
       <c r="Z9" s="8"/>
       <c r="AA9" s="12"/>
     </row>
-    <row r="10" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="13" t="s">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="14" t="s">
+      <c r="C10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
+        <v>5000</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0</v>
+      </c>
+      <c r="J10" s="10">
+        <v>41446</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q10" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="R10" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S10" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="T10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="U10" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="V10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="W10" s="10"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="12"/>
+    </row>
+    <row r="11" spans="2:27" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="15">
-        <v>5000</v>
-      </c>
-      <c r="H10" s="15">
+      <c r="G11" s="9">
         <v>0</v>
       </c>
-      <c r="I10" s="15">
+      <c r="H11" s="9">
         <v>0</v>
       </c>
-      <c r="J10" s="16">
-        <v>41446</v>
-      </c>
-      <c r="K10" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="M10" s="14" t="s">
+      <c r="I11" s="9">
+        <v>4500</v>
+      </c>
+      <c r="J11" s="10">
+        <v>41449</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="M11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="N10" s="14" t="s">
+      <c r="N11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="O10" s="17" t="s">
+      <c r="O11" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="P10" s="14" t="s">
+      <c r="P11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="Q10" s="17" t="s">
+      <c r="Q11" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="R10" s="17" t="s">
+      <c r="R11" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="S10" s="17" t="s">
+      <c r="S11" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="T10" s="17" t="s">
+      <c r="T11" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="U10" s="17" t="s">
+      <c r="U11" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="V10" s="17" t="s">
+      <c r="V11" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="W10" s="16"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="18"/>
-    </row>
-    <row r="11" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="15">
-        <v>0</v>
-      </c>
-      <c r="H11" s="15">
-        <v>5000</v>
-      </c>
-      <c r="I11" s="15">
-        <v>0</v>
-      </c>
-      <c r="J11" s="16">
-        <v>41446</v>
-      </c>
-      <c r="K11" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="L11" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="M11" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="N11" s="14" t="s">
+      <c r="W11" s="10">
+        <v>41449</v>
+      </c>
+      <c r="X11" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="O11" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="P11" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q11" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="R11" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="S11" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="T11" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="U11" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="V11" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="W11" s="16"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="14"/>
-      <c r="Z11" s="14"/>
-      <c r="AA11" s="18"/>
+      <c r="AA11" s="12" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="12" spans="2:27" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9">
+        <v>500</v>
+      </c>
+      <c r="J12" s="10">
+        <v>41449</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="O12" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q12" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="R12" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S12" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="T12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="U12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="V12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="W12" s="10">
+        <v>41449</v>
+      </c>
+      <c r="X12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y12" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z12" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA12" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="9">
+        <v>215393</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0</v>
+      </c>
+      <c r="J13" s="10">
+        <v>41460</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="N13" s="8"/>
+      <c r="O13" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q13" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="R13" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S13" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="T13" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="U13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="V13" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="W13" s="10"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="12"/>
+    </row>
+    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F14" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G14" s="9">
         <v>0</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H14" s="9">
+        <v>215393</v>
+      </c>
+      <c r="I14" s="9">
         <v>0</v>
       </c>
-      <c r="I12" s="15">
-        <v>4500</v>
-      </c>
-      <c r="J12" s="16">
-        <v>41449</v>
-      </c>
-      <c r="K12" s="14" t="s">
+      <c r="J14" s="10">
+        <v>41460</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="N14" s="8"/>
+      <c r="O14" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q14" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="R14" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S14" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="T14" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="U14" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="V14" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="W14" s="10"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="12"/>
+    </row>
+    <row r="15" spans="2:27" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="7">
+        <v>3181</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0</v>
+      </c>
+      <c r="I15" s="9">
+        <v>215393</v>
+      </c>
+      <c r="J15" s="10">
+        <v>41463</v>
+      </c>
+      <c r="K15" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="L12" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="M12" s="14" t="s">
+      <c r="L15" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="N15" s="8"/>
+      <c r="O15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q15" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="R15" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S15" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="T15" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="U15" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="V15" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="W15" s="10">
+        <v>41463</v>
+      </c>
+      <c r="X15" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y15" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z15" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA15" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="9">
+        <v>509.4</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0</v>
+      </c>
+      <c r="I16" s="9">
+        <v>0</v>
+      </c>
+      <c r="J16" s="10">
+        <v>41533</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="O16" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="P16" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q16" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="R16" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S16" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="T16" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="U16" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="V16" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="W16" s="10"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="12"/>
+    </row>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9">
+        <v>509.4</v>
+      </c>
+      <c r="I17" s="9">
+        <v>0</v>
+      </c>
+      <c r="J17" s="10">
+        <v>41597</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="O17" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="P17" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q17" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="R17" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S17" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="T17" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="U17" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="V17" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="W17" s="10"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="12"/>
+    </row>
+    <row r="18" spans="2:27" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="B18" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0</v>
+      </c>
+      <c r="I18" s="9">
+        <v>509.4</v>
+      </c>
+      <c r="J18" s="10">
+        <v>41603</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="O18" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="P18" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q18" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="R18" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S18" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="T18" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="U18" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="V18" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="W18" s="10">
+        <v>41603</v>
+      </c>
+      <c r="X18" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y18" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z18" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA18" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="9">
+        <v>4990</v>
+      </c>
+      <c r="H19" s="9">
+        <v>0</v>
+      </c>
+      <c r="I19" s="9">
+        <v>0</v>
+      </c>
+      <c r="J19" s="10">
+        <v>41620</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="M19" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="N12" s="14" t="s">
+      <c r="N19" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="O12" s="17" t="s">
+      <c r="O19" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="P12" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q12" s="17" t="s">
+      <c r="P19" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q19" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="R12" s="17" t="s">
+      <c r="R19" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="S12" s="17" t="s">
+      <c r="S19" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="T12" s="17" t="s">
+      <c r="T19" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="U12" s="17" t="s">
+      <c r="U19" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="V12" s="17" t="s">
+      <c r="V19" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="W12" s="16">
-        <v>41449</v>
-      </c>
-      <c r="X12" s="14" t="s">
+      <c r="W19" s="10"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="12"/>
+    </row>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0</v>
+      </c>
+      <c r="H20" s="9">
+        <v>4990</v>
+      </c>
+      <c r="I20" s="9">
+        <v>0</v>
+      </c>
+      <c r="J20" s="10">
+        <v>41625</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="O20" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="P20" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q20" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="R20" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S20" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="T20" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="U20" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="V20" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="W20" s="10"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="12"/>
+    </row>
+    <row r="21" spans="2:27" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0</v>
+      </c>
+      <c r="I21" s="9">
+        <v>4491</v>
+      </c>
+      <c r="J21" s="10">
+        <v>41628</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="O21" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="P21" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q21" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="R21" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S21" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="T21" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="U21" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="V21" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="W21" s="10">
+        <v>41628</v>
+      </c>
+      <c r="X21" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="Y12" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z12" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA12" s="18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="2:27" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="B13" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="15">
-        <v>0</v>
-      </c>
-      <c r="H13" s="15">
-        <v>0</v>
-      </c>
-      <c r="I13" s="15">
-        <v>500</v>
-      </c>
-      <c r="J13" s="16">
-        <v>41449</v>
-      </c>
-      <c r="K13" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="L13" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="M13" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="N13" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="O13" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="P13" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q13" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="R13" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="S13" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="T13" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="U13" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="V13" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="W13" s="16">
-        <v>41449</v>
-      </c>
-      <c r="X13" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y13" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z13" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA13" s="18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="15">
-        <v>215393</v>
-      </c>
-      <c r="H14" s="15">
-        <v>0</v>
-      </c>
-      <c r="I14" s="15">
-        <v>0</v>
-      </c>
-      <c r="J14" s="16">
-        <v>41460</v>
-      </c>
-      <c r="K14" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="L14" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="M14" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="N14" s="14"/>
-      <c r="O14" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="P14" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q14" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="R14" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="S14" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="T14" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="U14" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="V14" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="W14" s="16"/>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="14"/>
-      <c r="Z14" s="14"/>
-      <c r="AA14" s="18"/>
-    </row>
-    <row r="15" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="15">
-        <v>0</v>
-      </c>
-      <c r="H15" s="15">
-        <v>215393</v>
-      </c>
-      <c r="I15" s="15">
-        <v>0</v>
-      </c>
-      <c r="J15" s="16">
-        <v>41460</v>
-      </c>
-      <c r="K15" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="L15" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="M15" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="N15" s="14"/>
-      <c r="O15" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="P15" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q15" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="R15" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="S15" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="T15" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="U15" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="V15" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="W15" s="16"/>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="14"/>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="18"/>
-    </row>
-    <row r="16" spans="2:27" ht="63.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="15">
-        <v>0</v>
-      </c>
-      <c r="H16" s="15">
-        <v>0</v>
-      </c>
-      <c r="I16" s="15">
-        <v>215393</v>
-      </c>
-      <c r="J16" s="16">
-        <v>41463</v>
-      </c>
-      <c r="K16" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="L16" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="M16" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="N16" s="14"/>
-      <c r="O16" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="P16" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q16" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="R16" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="S16" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="T16" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="U16" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="V16" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="W16" s="16">
-        <v>41463</v>
-      </c>
-      <c r="X16" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y16" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z16" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA16" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="15">
-        <v>509.4</v>
-      </c>
-      <c r="H17" s="15">
-        <v>0</v>
-      </c>
-      <c r="I17" s="15">
-        <v>0</v>
-      </c>
-      <c r="J17" s="16">
-        <v>41533</v>
-      </c>
-      <c r="K17" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="L17" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="M17" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="N17" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="O17" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="P17" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q17" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="R17" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="S17" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="T17" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="U17" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="V17" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="W17" s="16"/>
-      <c r="X17" s="14"/>
-      <c r="Y17" s="14"/>
-      <c r="Z17" s="14"/>
-      <c r="AA17" s="18"/>
-    </row>
-    <row r="18" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="15">
-        <v>0</v>
-      </c>
-      <c r="H18" s="15">
-        <v>509.4</v>
-      </c>
-      <c r="I18" s="15">
-        <v>0</v>
-      </c>
-      <c r="J18" s="16">
-        <v>41597</v>
-      </c>
-      <c r="K18" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="L18" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="M18" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="N18" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="O18" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="P18" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q18" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="R18" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="S18" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="T18" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="U18" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="V18" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="W18" s="16"/>
-      <c r="X18" s="14"/>
-      <c r="Y18" s="14"/>
-      <c r="Z18" s="14"/>
-      <c r="AA18" s="18"/>
-    </row>
-    <row r="19" spans="2:27" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="B19" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="15">
-        <v>0</v>
-      </c>
-      <c r="H19" s="15">
-        <v>0</v>
-      </c>
-      <c r="I19" s="15">
-        <v>509.4</v>
-      </c>
-      <c r="J19" s="16">
-        <v>41603</v>
-      </c>
-      <c r="K19" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="L19" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="M19" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="N19" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="O19" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="P19" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q19" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="R19" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="S19" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="T19" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="U19" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="V19" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="W19" s="16">
-        <v>41603</v>
-      </c>
-      <c r="X19" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y19" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z19" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA19" s="18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="15">
-        <v>4990</v>
-      </c>
-      <c r="H20" s="15">
-        <v>0</v>
-      </c>
-      <c r="I20" s="15">
-        <v>0</v>
-      </c>
-      <c r="J20" s="16">
-        <v>41620</v>
-      </c>
-      <c r="K20" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="L20" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="M20" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="N20" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="O20" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="P20" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q20" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="R20" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="S20" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="T20" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="U20" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="V20" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="W20" s="16"/>
-      <c r="X20" s="14"/>
-      <c r="Y20" s="14"/>
-      <c r="Z20" s="14"/>
-      <c r="AA20" s="18"/>
-    </row>
-    <row r="21" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="15">
-        <v>0</v>
-      </c>
-      <c r="H21" s="15">
-        <v>4990</v>
-      </c>
-      <c r="I21" s="15">
-        <v>0</v>
-      </c>
-      <c r="J21" s="16">
-        <v>41625</v>
-      </c>
-      <c r="K21" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="L21" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="M21" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="N21" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="O21" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="P21" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q21" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="R21" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="S21" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="T21" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="U21" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="V21" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="W21" s="16"/>
-      <c r="X21" s="14"/>
-      <c r="Y21" s="14"/>
-      <c r="Z21" s="14"/>
-      <c r="AA21" s="18"/>
+      <c r="Y21" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z21" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA21" s="12" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="22" spans="2:27" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="14" t="s">
+      <c r="E22" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="9">
         <v>0</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H22" s="9">
         <v>0</v>
       </c>
-      <c r="I22" s="15">
-        <v>4491</v>
-      </c>
-      <c r="J22" s="16">
+      <c r="I22" s="9">
+        <v>499</v>
+      </c>
+      <c r="J22" s="10">
         <v>41628</v>
       </c>
-      <c r="K22" s="14" t="s">
+      <c r="K22" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="L22" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="M22" s="14" t="s">
+      <c r="L22" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M22" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="N22" s="14" t="s">
+      <c r="N22" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="O22" s="17" t="s">
+      <c r="O22" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="P22" s="14" t="s">
+      <c r="P22" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="Q22" s="17" t="s">
+      <c r="Q22" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="R22" s="17" t="s">
+      <c r="R22" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="S22" s="17" t="s">
+      <c r="S22" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="T22" s="17" t="s">
+      <c r="T22" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="U22" s="17" t="s">
+      <c r="U22" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="V22" s="17" t="s">
+      <c r="V22" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="W22" s="16">
+      <c r="W22" s="10">
         <v>41628</v>
       </c>
-      <c r="X22" s="14" t="s">
+      <c r="X22" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="Y22" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z22" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA22" s="18" t="s">
-        <v>91</v>
+      <c r="Y22" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z22" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA22" s="12" t="s">
+        <v>94</v>
       </c>
     </row>
-    <row r="23" spans="2:27" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="B23" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" s="15">
-        <v>0</v>
-      </c>
-      <c r="H23" s="15">
-        <v>0</v>
-      </c>
-      <c r="I23" s="15">
-        <v>499</v>
-      </c>
-      <c r="J23" s="16">
-        <v>41628</v>
-      </c>
-      <c r="K23" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="L23" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="M23" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="N23" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="O23" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="P23" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q23" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="R23" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="S23" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="T23" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="U23" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="V23" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="W23" s="16">
-        <v>41628</v>
-      </c>
-      <c r="X23" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y23" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z23" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA23" s="18" t="s">
-        <v>94</v>
-      </c>
+    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="18"/>
     </row>
     <row r="24" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B24" s="19"/>
+      <c r="B24" s="19" t="s">
+        <v>95</v>
+      </c>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
       <c r="F24" s="20"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
+      <c r="G24" s="21">
+        <f>SUM(G9:G23)</f>
+        <v>225892.4</v>
+      </c>
+      <c r="H24" s="21">
+        <f>SUM(H9:H23)</f>
+        <v>225892.4</v>
+      </c>
+      <c r="I24" s="21">
+        <f>SUM(I9:I23)</f>
+        <v>225892.4</v>
+      </c>
       <c r="J24" s="22"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="23"/>
-      <c r="U24" s="23"/>
-      <c r="V24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="24"/>
+      <c r="U24" s="24"/>
+      <c r="V24" s="24"/>
       <c r="W24" s="22"/>
-      <c r="X24" s="20"/>
-      <c r="Y24" s="20"/>
-      <c r="Z24" s="20"/>
-      <c r="AA24" s="24"/>
+      <c r="X24" s="23"/>
+      <c r="Y24" s="23"/>
+      <c r="Z24" s="23"/>
+      <c r="AA24" s="25"/>
     </row>
     <row r="25" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B25" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="27">
-        <f>SUM(G9:G24)</f>
-        <v>225892.4</v>
-      </c>
-      <c r="H25" s="27">
-        <f>SUM(H9:H24)</f>
-        <v>225892.4</v>
-      </c>
-      <c r="I25" s="27">
-        <f>SUM(I9:I24)</f>
-        <v>225892.4</v>
-      </c>
-      <c r="J25" s="28"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="30"/>
-      <c r="T25" s="30"/>
-      <c r="U25" s="30"/>
-      <c r="V25" s="30"/>
-      <c r="W25" s="28"/>
-      <c r="X25" s="29"/>
-      <c r="Y25" s="29"/>
-      <c r="Z25" s="29"/>
-      <c r="AA25" s="31"/>
+      <c r="B25" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z25" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA25" s="27">
+        <v>0.50255787037037036</v>
+      </c>
     </row>
     <row r="26" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
-        <v>96</v>
-      </c>
+      <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -4533,14 +4519,10 @@
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
-      <c r="Y26" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z26" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA26" s="33">
-        <v>0.50255787037037036</v>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="28" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.25">
@@ -4569,1704 +4551,1488 @@
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
-      <c r="AA27" s="34" t="s">
-        <v>99</v>
-      </c>
+      <c r="AA27" s="3"/>
     </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
-      <c r="AA28" s="3"/>
+    <row r="47" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G47" s="30">
+        <f>SUM(H47:S47)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G48" s="36">
+      <c r="G48" s="30">
         <f>SUM(H48:S48)</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G49" s="36">
+      <c r="G49" s="30">
         <f>SUM(H49:S49)</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G50" s="36">
-        <f>SUM(H50:S50)</f>
+      <c r="G50" s="30">
+        <f>SUM(G46:G49)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G51" s="36">
-        <f>SUM(G47:G50)</f>
+      <c r="H50" s="30">
+        <f>SUM(H46:H49)</f>
         <v>0</v>
       </c>
-      <c r="H51" s="36">
-        <f>SUM(H47:H50)</f>
+      <c r="I50" s="30">
+        <f t="shared" ref="I50:S50" si="0">SUM(I46:I49)</f>
         <v>0</v>
       </c>
-      <c r="I51" s="36">
-        <f t="shared" ref="I51:S51" si="0">SUM(I47:I50)</f>
-        <v>0</v>
-      </c>
-      <c r="J51" s="36">
+      <c r="J50" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K51" s="36">
+      <c r="K50" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L51" s="36">
+      <c r="L50" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M51" s="36">
+      <c r="M50" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N51" s="36">
+      <c r="N50" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O51" s="36">
+      <c r="O50" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P51" s="36">
+      <c r="P50" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q51" s="36">
+      <c r="Q50" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R51" s="36">
+      <c r="R50" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S51" s="36">
+      <c r="S50" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B9:AA23">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="GG"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="20">
-      <filters>
-        <filter val="2.6.8.1.4.2"/>
-        <filter val="2.6.8.1.4.3"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="B8:AA8">
+    <filterColumn colId="0" showButton="0"/>
+    <filterColumn colId="1" showButton="0"/>
+    <filterColumn colId="2" showButton="0"/>
+    <filterColumn colId="3" showButton="0"/>
   </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="B8:F8"/>
   </mergeCells>
+  <conditionalFormatting sqref="C9:C22">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="GC">
+      <formula>NOT(ISERROR(SEARCH("GC",C9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:V22"/>
+  <dimension ref="A2:P21"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="14.5703125" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" customWidth="1"/>
-    <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="11" width="17.140625" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" customWidth="1"/>
-    <col min="13" max="13" width="17" customWidth="1"/>
-    <col min="14" max="14" width="18.42578125" customWidth="1"/>
-    <col min="15" max="15" width="18" customWidth="1"/>
-    <col min="16" max="16" width="17.5703125" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" customWidth="1"/>
-    <col min="19" max="19" width="15.7109375" customWidth="1"/>
-    <col min="20" max="20" width="16.42578125" customWidth="1"/>
-    <col min="21" max="21" width="83.85546875" customWidth="1"/>
-    <col min="263" max="263" width="14.5703125" customWidth="1"/>
-    <col min="264" max="264" width="15.7109375" customWidth="1"/>
-    <col min="265" max="265" width="18.140625" customWidth="1"/>
-    <col min="266" max="266" width="17" customWidth="1"/>
-    <col min="267" max="267" width="17.140625" customWidth="1"/>
-    <col min="268" max="268" width="18.5703125" customWidth="1"/>
-    <col min="269" max="269" width="17" customWidth="1"/>
-    <col min="270" max="270" width="18.42578125" customWidth="1"/>
-    <col min="271" max="271" width="18" customWidth="1"/>
-    <col min="272" max="272" width="17.5703125" customWidth="1"/>
-    <col min="273" max="273" width="15.7109375" customWidth="1"/>
-    <col min="276" max="276" width="16.42578125" customWidth="1"/>
-    <col min="277" max="277" width="83.85546875" customWidth="1"/>
-    <col min="519" max="519" width="14.5703125" customWidth="1"/>
-    <col min="520" max="520" width="15.7109375" customWidth="1"/>
-    <col min="521" max="521" width="18.140625" customWidth="1"/>
-    <col min="522" max="522" width="17" customWidth="1"/>
-    <col min="523" max="523" width="17.140625" customWidth="1"/>
-    <col min="524" max="524" width="18.5703125" customWidth="1"/>
-    <col min="525" max="525" width="17" customWidth="1"/>
-    <col min="526" max="526" width="18.42578125" customWidth="1"/>
-    <col min="527" max="527" width="18" customWidth="1"/>
-    <col min="528" max="528" width="17.5703125" customWidth="1"/>
-    <col min="529" max="529" width="15.7109375" customWidth="1"/>
-    <col min="532" max="532" width="16.42578125" customWidth="1"/>
-    <col min="533" max="533" width="83.85546875" customWidth="1"/>
-    <col min="775" max="775" width="14.5703125" customWidth="1"/>
-    <col min="776" max="776" width="15.7109375" customWidth="1"/>
-    <col min="777" max="777" width="18.140625" customWidth="1"/>
-    <col min="778" max="778" width="17" customWidth="1"/>
-    <col min="779" max="779" width="17.140625" customWidth="1"/>
-    <col min="780" max="780" width="18.5703125" customWidth="1"/>
-    <col min="781" max="781" width="17" customWidth="1"/>
-    <col min="782" max="782" width="18.42578125" customWidth="1"/>
-    <col min="783" max="783" width="18" customWidth="1"/>
-    <col min="784" max="784" width="17.5703125" customWidth="1"/>
-    <col min="785" max="785" width="15.7109375" customWidth="1"/>
-    <col min="788" max="788" width="16.42578125" customWidth="1"/>
-    <col min="789" max="789" width="83.85546875" customWidth="1"/>
-    <col min="1031" max="1031" width="14.5703125" customWidth="1"/>
-    <col min="1032" max="1032" width="15.7109375" customWidth="1"/>
-    <col min="1033" max="1033" width="18.140625" customWidth="1"/>
-    <col min="1034" max="1034" width="17" customWidth="1"/>
-    <col min="1035" max="1035" width="17.140625" customWidth="1"/>
-    <col min="1036" max="1036" width="18.5703125" customWidth="1"/>
-    <col min="1037" max="1037" width="17" customWidth="1"/>
-    <col min="1038" max="1038" width="18.42578125" customWidth="1"/>
-    <col min="1039" max="1039" width="18" customWidth="1"/>
-    <col min="1040" max="1040" width="17.5703125" customWidth="1"/>
-    <col min="1041" max="1041" width="15.7109375" customWidth="1"/>
-    <col min="1044" max="1044" width="16.42578125" customWidth="1"/>
-    <col min="1045" max="1045" width="83.85546875" customWidth="1"/>
-    <col min="1287" max="1287" width="14.5703125" customWidth="1"/>
-    <col min="1288" max="1288" width="15.7109375" customWidth="1"/>
-    <col min="1289" max="1289" width="18.140625" customWidth="1"/>
-    <col min="1290" max="1290" width="17" customWidth="1"/>
-    <col min="1291" max="1291" width="17.140625" customWidth="1"/>
-    <col min="1292" max="1292" width="18.5703125" customWidth="1"/>
-    <col min="1293" max="1293" width="17" customWidth="1"/>
-    <col min="1294" max="1294" width="18.42578125" customWidth="1"/>
-    <col min="1295" max="1295" width="18" customWidth="1"/>
-    <col min="1296" max="1296" width="17.5703125" customWidth="1"/>
-    <col min="1297" max="1297" width="15.7109375" customWidth="1"/>
-    <col min="1300" max="1300" width="16.42578125" customWidth="1"/>
-    <col min="1301" max="1301" width="83.85546875" customWidth="1"/>
-    <col min="1543" max="1543" width="14.5703125" customWidth="1"/>
-    <col min="1544" max="1544" width="15.7109375" customWidth="1"/>
-    <col min="1545" max="1545" width="18.140625" customWidth="1"/>
-    <col min="1546" max="1546" width="17" customWidth="1"/>
-    <col min="1547" max="1547" width="17.140625" customWidth="1"/>
-    <col min="1548" max="1548" width="18.5703125" customWidth="1"/>
-    <col min="1549" max="1549" width="17" customWidth="1"/>
-    <col min="1550" max="1550" width="18.42578125" customWidth="1"/>
-    <col min="1551" max="1551" width="18" customWidth="1"/>
-    <col min="1552" max="1552" width="17.5703125" customWidth="1"/>
-    <col min="1553" max="1553" width="15.7109375" customWidth="1"/>
-    <col min="1556" max="1556" width="16.42578125" customWidth="1"/>
-    <col min="1557" max="1557" width="83.85546875" customWidth="1"/>
-    <col min="1799" max="1799" width="14.5703125" customWidth="1"/>
-    <col min="1800" max="1800" width="15.7109375" customWidth="1"/>
-    <col min="1801" max="1801" width="18.140625" customWidth="1"/>
-    <col min="1802" max="1802" width="17" customWidth="1"/>
-    <col min="1803" max="1803" width="17.140625" customWidth="1"/>
-    <col min="1804" max="1804" width="18.5703125" customWidth="1"/>
-    <col min="1805" max="1805" width="17" customWidth="1"/>
-    <col min="1806" max="1806" width="18.42578125" customWidth="1"/>
-    <col min="1807" max="1807" width="18" customWidth="1"/>
-    <col min="1808" max="1808" width="17.5703125" customWidth="1"/>
-    <col min="1809" max="1809" width="15.7109375" customWidth="1"/>
-    <col min="1812" max="1812" width="16.42578125" customWidth="1"/>
-    <col min="1813" max="1813" width="83.85546875" customWidth="1"/>
-    <col min="2055" max="2055" width="14.5703125" customWidth="1"/>
-    <col min="2056" max="2056" width="15.7109375" customWidth="1"/>
-    <col min="2057" max="2057" width="18.140625" customWidth="1"/>
-    <col min="2058" max="2058" width="17" customWidth="1"/>
-    <col min="2059" max="2059" width="17.140625" customWidth="1"/>
-    <col min="2060" max="2060" width="18.5703125" customWidth="1"/>
-    <col min="2061" max="2061" width="17" customWidth="1"/>
-    <col min="2062" max="2062" width="18.42578125" customWidth="1"/>
-    <col min="2063" max="2063" width="18" customWidth="1"/>
-    <col min="2064" max="2064" width="17.5703125" customWidth="1"/>
-    <col min="2065" max="2065" width="15.7109375" customWidth="1"/>
-    <col min="2068" max="2068" width="16.42578125" customWidth="1"/>
-    <col min="2069" max="2069" width="83.85546875" customWidth="1"/>
-    <col min="2311" max="2311" width="14.5703125" customWidth="1"/>
-    <col min="2312" max="2312" width="15.7109375" customWidth="1"/>
-    <col min="2313" max="2313" width="18.140625" customWidth="1"/>
-    <col min="2314" max="2314" width="17" customWidth="1"/>
-    <col min="2315" max="2315" width="17.140625" customWidth="1"/>
-    <col min="2316" max="2316" width="18.5703125" customWidth="1"/>
-    <col min="2317" max="2317" width="17" customWidth="1"/>
-    <col min="2318" max="2318" width="18.42578125" customWidth="1"/>
-    <col min="2319" max="2319" width="18" customWidth="1"/>
-    <col min="2320" max="2320" width="17.5703125" customWidth="1"/>
-    <col min="2321" max="2321" width="15.7109375" customWidth="1"/>
-    <col min="2324" max="2324" width="16.42578125" customWidth="1"/>
-    <col min="2325" max="2325" width="83.85546875" customWidth="1"/>
-    <col min="2567" max="2567" width="14.5703125" customWidth="1"/>
-    <col min="2568" max="2568" width="15.7109375" customWidth="1"/>
-    <col min="2569" max="2569" width="18.140625" customWidth="1"/>
-    <col min="2570" max="2570" width="17" customWidth="1"/>
-    <col min="2571" max="2571" width="17.140625" customWidth="1"/>
-    <col min="2572" max="2572" width="18.5703125" customWidth="1"/>
-    <col min="2573" max="2573" width="17" customWidth="1"/>
-    <col min="2574" max="2574" width="18.42578125" customWidth="1"/>
-    <col min="2575" max="2575" width="18" customWidth="1"/>
-    <col min="2576" max="2576" width="17.5703125" customWidth="1"/>
-    <col min="2577" max="2577" width="15.7109375" customWidth="1"/>
-    <col min="2580" max="2580" width="16.42578125" customWidth="1"/>
-    <col min="2581" max="2581" width="83.85546875" customWidth="1"/>
-    <col min="2823" max="2823" width="14.5703125" customWidth="1"/>
-    <col min="2824" max="2824" width="15.7109375" customWidth="1"/>
-    <col min="2825" max="2825" width="18.140625" customWidth="1"/>
-    <col min="2826" max="2826" width="17" customWidth="1"/>
-    <col min="2827" max="2827" width="17.140625" customWidth="1"/>
-    <col min="2828" max="2828" width="18.5703125" customWidth="1"/>
-    <col min="2829" max="2829" width="17" customWidth="1"/>
-    <col min="2830" max="2830" width="18.42578125" customWidth="1"/>
-    <col min="2831" max="2831" width="18" customWidth="1"/>
-    <col min="2832" max="2832" width="17.5703125" customWidth="1"/>
-    <col min="2833" max="2833" width="15.7109375" customWidth="1"/>
-    <col min="2836" max="2836" width="16.42578125" customWidth="1"/>
-    <col min="2837" max="2837" width="83.85546875" customWidth="1"/>
-    <col min="3079" max="3079" width="14.5703125" customWidth="1"/>
-    <col min="3080" max="3080" width="15.7109375" customWidth="1"/>
-    <col min="3081" max="3081" width="18.140625" customWidth="1"/>
-    <col min="3082" max="3082" width="17" customWidth="1"/>
-    <col min="3083" max="3083" width="17.140625" customWidth="1"/>
-    <col min="3084" max="3084" width="18.5703125" customWidth="1"/>
-    <col min="3085" max="3085" width="17" customWidth="1"/>
-    <col min="3086" max="3086" width="18.42578125" customWidth="1"/>
-    <col min="3087" max="3087" width="18" customWidth="1"/>
-    <col min="3088" max="3088" width="17.5703125" customWidth="1"/>
-    <col min="3089" max="3089" width="15.7109375" customWidth="1"/>
-    <col min="3092" max="3092" width="16.42578125" customWidth="1"/>
-    <col min="3093" max="3093" width="83.85546875" customWidth="1"/>
-    <col min="3335" max="3335" width="14.5703125" customWidth="1"/>
-    <col min="3336" max="3336" width="15.7109375" customWidth="1"/>
-    <col min="3337" max="3337" width="18.140625" customWidth="1"/>
-    <col min="3338" max="3338" width="17" customWidth="1"/>
-    <col min="3339" max="3339" width="17.140625" customWidth="1"/>
-    <col min="3340" max="3340" width="18.5703125" customWidth="1"/>
-    <col min="3341" max="3341" width="17" customWidth="1"/>
-    <col min="3342" max="3342" width="18.42578125" customWidth="1"/>
-    <col min="3343" max="3343" width="18" customWidth="1"/>
-    <col min="3344" max="3344" width="17.5703125" customWidth="1"/>
-    <col min="3345" max="3345" width="15.7109375" customWidth="1"/>
-    <col min="3348" max="3348" width="16.42578125" customWidth="1"/>
-    <col min="3349" max="3349" width="83.85546875" customWidth="1"/>
-    <col min="3591" max="3591" width="14.5703125" customWidth="1"/>
-    <col min="3592" max="3592" width="15.7109375" customWidth="1"/>
-    <col min="3593" max="3593" width="18.140625" customWidth="1"/>
-    <col min="3594" max="3594" width="17" customWidth="1"/>
-    <col min="3595" max="3595" width="17.140625" customWidth="1"/>
-    <col min="3596" max="3596" width="18.5703125" customWidth="1"/>
-    <col min="3597" max="3597" width="17" customWidth="1"/>
-    <col min="3598" max="3598" width="18.42578125" customWidth="1"/>
-    <col min="3599" max="3599" width="18" customWidth="1"/>
-    <col min="3600" max="3600" width="17.5703125" customWidth="1"/>
-    <col min="3601" max="3601" width="15.7109375" customWidth="1"/>
-    <col min="3604" max="3604" width="16.42578125" customWidth="1"/>
-    <col min="3605" max="3605" width="83.85546875" customWidth="1"/>
-    <col min="3847" max="3847" width="14.5703125" customWidth="1"/>
-    <col min="3848" max="3848" width="15.7109375" customWidth="1"/>
-    <col min="3849" max="3849" width="18.140625" customWidth="1"/>
-    <col min="3850" max="3850" width="17" customWidth="1"/>
-    <col min="3851" max="3851" width="17.140625" customWidth="1"/>
-    <col min="3852" max="3852" width="18.5703125" customWidth="1"/>
-    <col min="3853" max="3853" width="17" customWidth="1"/>
-    <col min="3854" max="3854" width="18.42578125" customWidth="1"/>
-    <col min="3855" max="3855" width="18" customWidth="1"/>
-    <col min="3856" max="3856" width="17.5703125" customWidth="1"/>
-    <col min="3857" max="3857" width="15.7109375" customWidth="1"/>
-    <col min="3860" max="3860" width="16.42578125" customWidth="1"/>
-    <col min="3861" max="3861" width="83.85546875" customWidth="1"/>
-    <col min="4103" max="4103" width="14.5703125" customWidth="1"/>
-    <col min="4104" max="4104" width="15.7109375" customWidth="1"/>
-    <col min="4105" max="4105" width="18.140625" customWidth="1"/>
-    <col min="4106" max="4106" width="17" customWidth="1"/>
-    <col min="4107" max="4107" width="17.140625" customWidth="1"/>
-    <col min="4108" max="4108" width="18.5703125" customWidth="1"/>
-    <col min="4109" max="4109" width="17" customWidth="1"/>
-    <col min="4110" max="4110" width="18.42578125" customWidth="1"/>
-    <col min="4111" max="4111" width="18" customWidth="1"/>
-    <col min="4112" max="4112" width="17.5703125" customWidth="1"/>
-    <col min="4113" max="4113" width="15.7109375" customWidth="1"/>
-    <col min="4116" max="4116" width="16.42578125" customWidth="1"/>
-    <col min="4117" max="4117" width="83.85546875" customWidth="1"/>
-    <col min="4359" max="4359" width="14.5703125" customWidth="1"/>
-    <col min="4360" max="4360" width="15.7109375" customWidth="1"/>
-    <col min="4361" max="4361" width="18.140625" customWidth="1"/>
-    <col min="4362" max="4362" width="17" customWidth="1"/>
-    <col min="4363" max="4363" width="17.140625" customWidth="1"/>
-    <col min="4364" max="4364" width="18.5703125" customWidth="1"/>
-    <col min="4365" max="4365" width="17" customWidth="1"/>
-    <col min="4366" max="4366" width="18.42578125" customWidth="1"/>
-    <col min="4367" max="4367" width="18" customWidth="1"/>
-    <col min="4368" max="4368" width="17.5703125" customWidth="1"/>
-    <col min="4369" max="4369" width="15.7109375" customWidth="1"/>
-    <col min="4372" max="4372" width="16.42578125" customWidth="1"/>
-    <col min="4373" max="4373" width="83.85546875" customWidth="1"/>
-    <col min="4615" max="4615" width="14.5703125" customWidth="1"/>
-    <col min="4616" max="4616" width="15.7109375" customWidth="1"/>
-    <col min="4617" max="4617" width="18.140625" customWidth="1"/>
-    <col min="4618" max="4618" width="17" customWidth="1"/>
-    <col min="4619" max="4619" width="17.140625" customWidth="1"/>
-    <col min="4620" max="4620" width="18.5703125" customWidth="1"/>
-    <col min="4621" max="4621" width="17" customWidth="1"/>
-    <col min="4622" max="4622" width="18.42578125" customWidth="1"/>
-    <col min="4623" max="4623" width="18" customWidth="1"/>
-    <col min="4624" max="4624" width="17.5703125" customWidth="1"/>
-    <col min="4625" max="4625" width="15.7109375" customWidth="1"/>
-    <col min="4628" max="4628" width="16.42578125" customWidth="1"/>
-    <col min="4629" max="4629" width="83.85546875" customWidth="1"/>
-    <col min="4871" max="4871" width="14.5703125" customWidth="1"/>
-    <col min="4872" max="4872" width="15.7109375" customWidth="1"/>
-    <col min="4873" max="4873" width="18.140625" customWidth="1"/>
-    <col min="4874" max="4874" width="17" customWidth="1"/>
-    <col min="4875" max="4875" width="17.140625" customWidth="1"/>
-    <col min="4876" max="4876" width="18.5703125" customWidth="1"/>
-    <col min="4877" max="4877" width="17" customWidth="1"/>
-    <col min="4878" max="4878" width="18.42578125" customWidth="1"/>
-    <col min="4879" max="4879" width="18" customWidth="1"/>
-    <col min="4880" max="4880" width="17.5703125" customWidth="1"/>
-    <col min="4881" max="4881" width="15.7109375" customWidth="1"/>
-    <col min="4884" max="4884" width="16.42578125" customWidth="1"/>
-    <col min="4885" max="4885" width="83.85546875" customWidth="1"/>
-    <col min="5127" max="5127" width="14.5703125" customWidth="1"/>
-    <col min="5128" max="5128" width="15.7109375" customWidth="1"/>
-    <col min="5129" max="5129" width="18.140625" customWidth="1"/>
-    <col min="5130" max="5130" width="17" customWidth="1"/>
-    <col min="5131" max="5131" width="17.140625" customWidth="1"/>
-    <col min="5132" max="5132" width="18.5703125" customWidth="1"/>
-    <col min="5133" max="5133" width="17" customWidth="1"/>
-    <col min="5134" max="5134" width="18.42578125" customWidth="1"/>
-    <col min="5135" max="5135" width="18" customWidth="1"/>
-    <col min="5136" max="5136" width="17.5703125" customWidth="1"/>
-    <col min="5137" max="5137" width="15.7109375" customWidth="1"/>
-    <col min="5140" max="5140" width="16.42578125" customWidth="1"/>
-    <col min="5141" max="5141" width="83.85546875" customWidth="1"/>
-    <col min="5383" max="5383" width="14.5703125" customWidth="1"/>
-    <col min="5384" max="5384" width="15.7109375" customWidth="1"/>
-    <col min="5385" max="5385" width="18.140625" customWidth="1"/>
-    <col min="5386" max="5386" width="17" customWidth="1"/>
-    <col min="5387" max="5387" width="17.140625" customWidth="1"/>
-    <col min="5388" max="5388" width="18.5703125" customWidth="1"/>
-    <col min="5389" max="5389" width="17" customWidth="1"/>
-    <col min="5390" max="5390" width="18.42578125" customWidth="1"/>
-    <col min="5391" max="5391" width="18" customWidth="1"/>
-    <col min="5392" max="5392" width="17.5703125" customWidth="1"/>
-    <col min="5393" max="5393" width="15.7109375" customWidth="1"/>
-    <col min="5396" max="5396" width="16.42578125" customWidth="1"/>
-    <col min="5397" max="5397" width="83.85546875" customWidth="1"/>
-    <col min="5639" max="5639" width="14.5703125" customWidth="1"/>
-    <col min="5640" max="5640" width="15.7109375" customWidth="1"/>
-    <col min="5641" max="5641" width="18.140625" customWidth="1"/>
-    <col min="5642" max="5642" width="17" customWidth="1"/>
-    <col min="5643" max="5643" width="17.140625" customWidth="1"/>
-    <col min="5644" max="5644" width="18.5703125" customWidth="1"/>
-    <col min="5645" max="5645" width="17" customWidth="1"/>
-    <col min="5646" max="5646" width="18.42578125" customWidth="1"/>
-    <col min="5647" max="5647" width="18" customWidth="1"/>
-    <col min="5648" max="5648" width="17.5703125" customWidth="1"/>
-    <col min="5649" max="5649" width="15.7109375" customWidth="1"/>
-    <col min="5652" max="5652" width="16.42578125" customWidth="1"/>
-    <col min="5653" max="5653" width="83.85546875" customWidth="1"/>
-    <col min="5895" max="5895" width="14.5703125" customWidth="1"/>
-    <col min="5896" max="5896" width="15.7109375" customWidth="1"/>
-    <col min="5897" max="5897" width="18.140625" customWidth="1"/>
-    <col min="5898" max="5898" width="17" customWidth="1"/>
-    <col min="5899" max="5899" width="17.140625" customWidth="1"/>
-    <col min="5900" max="5900" width="18.5703125" customWidth="1"/>
-    <col min="5901" max="5901" width="17" customWidth="1"/>
-    <col min="5902" max="5902" width="18.42578125" customWidth="1"/>
-    <col min="5903" max="5903" width="18" customWidth="1"/>
-    <col min="5904" max="5904" width="17.5703125" customWidth="1"/>
-    <col min="5905" max="5905" width="15.7109375" customWidth="1"/>
-    <col min="5908" max="5908" width="16.42578125" customWidth="1"/>
-    <col min="5909" max="5909" width="83.85546875" customWidth="1"/>
-    <col min="6151" max="6151" width="14.5703125" customWidth="1"/>
-    <col min="6152" max="6152" width="15.7109375" customWidth="1"/>
-    <col min="6153" max="6153" width="18.140625" customWidth="1"/>
-    <col min="6154" max="6154" width="17" customWidth="1"/>
-    <col min="6155" max="6155" width="17.140625" customWidth="1"/>
-    <col min="6156" max="6156" width="18.5703125" customWidth="1"/>
-    <col min="6157" max="6157" width="17" customWidth="1"/>
-    <col min="6158" max="6158" width="18.42578125" customWidth="1"/>
-    <col min="6159" max="6159" width="18" customWidth="1"/>
-    <col min="6160" max="6160" width="17.5703125" customWidth="1"/>
-    <col min="6161" max="6161" width="15.7109375" customWidth="1"/>
-    <col min="6164" max="6164" width="16.42578125" customWidth="1"/>
-    <col min="6165" max="6165" width="83.85546875" customWidth="1"/>
-    <col min="6407" max="6407" width="14.5703125" customWidth="1"/>
-    <col min="6408" max="6408" width="15.7109375" customWidth="1"/>
-    <col min="6409" max="6409" width="18.140625" customWidth="1"/>
-    <col min="6410" max="6410" width="17" customWidth="1"/>
-    <col min="6411" max="6411" width="17.140625" customWidth="1"/>
-    <col min="6412" max="6412" width="18.5703125" customWidth="1"/>
-    <col min="6413" max="6413" width="17" customWidth="1"/>
-    <col min="6414" max="6414" width="18.42578125" customWidth="1"/>
-    <col min="6415" max="6415" width="18" customWidth="1"/>
-    <col min="6416" max="6416" width="17.5703125" customWidth="1"/>
-    <col min="6417" max="6417" width="15.7109375" customWidth="1"/>
-    <col min="6420" max="6420" width="16.42578125" customWidth="1"/>
-    <col min="6421" max="6421" width="83.85546875" customWidth="1"/>
-    <col min="6663" max="6663" width="14.5703125" customWidth="1"/>
-    <col min="6664" max="6664" width="15.7109375" customWidth="1"/>
-    <col min="6665" max="6665" width="18.140625" customWidth="1"/>
-    <col min="6666" max="6666" width="17" customWidth="1"/>
-    <col min="6667" max="6667" width="17.140625" customWidth="1"/>
-    <col min="6668" max="6668" width="18.5703125" customWidth="1"/>
-    <col min="6669" max="6669" width="17" customWidth="1"/>
-    <col min="6670" max="6670" width="18.42578125" customWidth="1"/>
-    <col min="6671" max="6671" width="18" customWidth="1"/>
-    <col min="6672" max="6672" width="17.5703125" customWidth="1"/>
-    <col min="6673" max="6673" width="15.7109375" customWidth="1"/>
-    <col min="6676" max="6676" width="16.42578125" customWidth="1"/>
-    <col min="6677" max="6677" width="83.85546875" customWidth="1"/>
-    <col min="6919" max="6919" width="14.5703125" customWidth="1"/>
-    <col min="6920" max="6920" width="15.7109375" customWidth="1"/>
-    <col min="6921" max="6921" width="18.140625" customWidth="1"/>
-    <col min="6922" max="6922" width="17" customWidth="1"/>
-    <col min="6923" max="6923" width="17.140625" customWidth="1"/>
-    <col min="6924" max="6924" width="18.5703125" customWidth="1"/>
-    <col min="6925" max="6925" width="17" customWidth="1"/>
-    <col min="6926" max="6926" width="18.42578125" customWidth="1"/>
-    <col min="6927" max="6927" width="18" customWidth="1"/>
-    <col min="6928" max="6928" width="17.5703125" customWidth="1"/>
-    <col min="6929" max="6929" width="15.7109375" customWidth="1"/>
-    <col min="6932" max="6932" width="16.42578125" customWidth="1"/>
-    <col min="6933" max="6933" width="83.85546875" customWidth="1"/>
-    <col min="7175" max="7175" width="14.5703125" customWidth="1"/>
-    <col min="7176" max="7176" width="15.7109375" customWidth="1"/>
-    <col min="7177" max="7177" width="18.140625" customWidth="1"/>
-    <col min="7178" max="7178" width="17" customWidth="1"/>
-    <col min="7179" max="7179" width="17.140625" customWidth="1"/>
-    <col min="7180" max="7180" width="18.5703125" customWidth="1"/>
-    <col min="7181" max="7181" width="17" customWidth="1"/>
-    <col min="7182" max="7182" width="18.42578125" customWidth="1"/>
-    <col min="7183" max="7183" width="18" customWidth="1"/>
-    <col min="7184" max="7184" width="17.5703125" customWidth="1"/>
-    <col min="7185" max="7185" width="15.7109375" customWidth="1"/>
-    <col min="7188" max="7188" width="16.42578125" customWidth="1"/>
-    <col min="7189" max="7189" width="83.85546875" customWidth="1"/>
-    <col min="7431" max="7431" width="14.5703125" customWidth="1"/>
-    <col min="7432" max="7432" width="15.7109375" customWidth="1"/>
-    <col min="7433" max="7433" width="18.140625" customWidth="1"/>
-    <col min="7434" max="7434" width="17" customWidth="1"/>
-    <col min="7435" max="7435" width="17.140625" customWidth="1"/>
-    <col min="7436" max="7436" width="18.5703125" customWidth="1"/>
-    <col min="7437" max="7437" width="17" customWidth="1"/>
-    <col min="7438" max="7438" width="18.42578125" customWidth="1"/>
-    <col min="7439" max="7439" width="18" customWidth="1"/>
-    <col min="7440" max="7440" width="17.5703125" customWidth="1"/>
-    <col min="7441" max="7441" width="15.7109375" customWidth="1"/>
-    <col min="7444" max="7444" width="16.42578125" customWidth="1"/>
-    <col min="7445" max="7445" width="83.85546875" customWidth="1"/>
-    <col min="7687" max="7687" width="14.5703125" customWidth="1"/>
-    <col min="7688" max="7688" width="15.7109375" customWidth="1"/>
-    <col min="7689" max="7689" width="18.140625" customWidth="1"/>
-    <col min="7690" max="7690" width="17" customWidth="1"/>
-    <col min="7691" max="7691" width="17.140625" customWidth="1"/>
-    <col min="7692" max="7692" width="18.5703125" customWidth="1"/>
-    <col min="7693" max="7693" width="17" customWidth="1"/>
-    <col min="7694" max="7694" width="18.42578125" customWidth="1"/>
-    <col min="7695" max="7695" width="18" customWidth="1"/>
-    <col min="7696" max="7696" width="17.5703125" customWidth="1"/>
-    <col min="7697" max="7697" width="15.7109375" customWidth="1"/>
-    <col min="7700" max="7700" width="16.42578125" customWidth="1"/>
-    <col min="7701" max="7701" width="83.85546875" customWidth="1"/>
-    <col min="7943" max="7943" width="14.5703125" customWidth="1"/>
-    <col min="7944" max="7944" width="15.7109375" customWidth="1"/>
-    <col min="7945" max="7945" width="18.140625" customWidth="1"/>
-    <col min="7946" max="7946" width="17" customWidth="1"/>
-    <col min="7947" max="7947" width="17.140625" customWidth="1"/>
-    <col min="7948" max="7948" width="18.5703125" customWidth="1"/>
-    <col min="7949" max="7949" width="17" customWidth="1"/>
-    <col min="7950" max="7950" width="18.42578125" customWidth="1"/>
-    <col min="7951" max="7951" width="18" customWidth="1"/>
-    <col min="7952" max="7952" width="17.5703125" customWidth="1"/>
-    <col min="7953" max="7953" width="15.7109375" customWidth="1"/>
-    <col min="7956" max="7956" width="16.42578125" customWidth="1"/>
-    <col min="7957" max="7957" width="83.85546875" customWidth="1"/>
-    <col min="8199" max="8199" width="14.5703125" customWidth="1"/>
-    <col min="8200" max="8200" width="15.7109375" customWidth="1"/>
-    <col min="8201" max="8201" width="18.140625" customWidth="1"/>
-    <col min="8202" max="8202" width="17" customWidth="1"/>
-    <col min="8203" max="8203" width="17.140625" customWidth="1"/>
-    <col min="8204" max="8204" width="18.5703125" customWidth="1"/>
-    <col min="8205" max="8205" width="17" customWidth="1"/>
-    <col min="8206" max="8206" width="18.42578125" customWidth="1"/>
-    <col min="8207" max="8207" width="18" customWidth="1"/>
-    <col min="8208" max="8208" width="17.5703125" customWidth="1"/>
-    <col min="8209" max="8209" width="15.7109375" customWidth="1"/>
-    <col min="8212" max="8212" width="16.42578125" customWidth="1"/>
-    <col min="8213" max="8213" width="83.85546875" customWidth="1"/>
-    <col min="8455" max="8455" width="14.5703125" customWidth="1"/>
-    <col min="8456" max="8456" width="15.7109375" customWidth="1"/>
-    <col min="8457" max="8457" width="18.140625" customWidth="1"/>
-    <col min="8458" max="8458" width="17" customWidth="1"/>
-    <col min="8459" max="8459" width="17.140625" customWidth="1"/>
-    <col min="8460" max="8460" width="18.5703125" customWidth="1"/>
-    <col min="8461" max="8461" width="17" customWidth="1"/>
-    <col min="8462" max="8462" width="18.42578125" customWidth="1"/>
-    <col min="8463" max="8463" width="18" customWidth="1"/>
-    <col min="8464" max="8464" width="17.5703125" customWidth="1"/>
-    <col min="8465" max="8465" width="15.7109375" customWidth="1"/>
-    <col min="8468" max="8468" width="16.42578125" customWidth="1"/>
-    <col min="8469" max="8469" width="83.85546875" customWidth="1"/>
-    <col min="8711" max="8711" width="14.5703125" customWidth="1"/>
-    <col min="8712" max="8712" width="15.7109375" customWidth="1"/>
-    <col min="8713" max="8713" width="18.140625" customWidth="1"/>
-    <col min="8714" max="8714" width="17" customWidth="1"/>
-    <col min="8715" max="8715" width="17.140625" customWidth="1"/>
-    <col min="8716" max="8716" width="18.5703125" customWidth="1"/>
-    <col min="8717" max="8717" width="17" customWidth="1"/>
-    <col min="8718" max="8718" width="18.42578125" customWidth="1"/>
-    <col min="8719" max="8719" width="18" customWidth="1"/>
-    <col min="8720" max="8720" width="17.5703125" customWidth="1"/>
-    <col min="8721" max="8721" width="15.7109375" customWidth="1"/>
-    <col min="8724" max="8724" width="16.42578125" customWidth="1"/>
-    <col min="8725" max="8725" width="83.85546875" customWidth="1"/>
-    <col min="8967" max="8967" width="14.5703125" customWidth="1"/>
-    <col min="8968" max="8968" width="15.7109375" customWidth="1"/>
-    <col min="8969" max="8969" width="18.140625" customWidth="1"/>
-    <col min="8970" max="8970" width="17" customWidth="1"/>
-    <col min="8971" max="8971" width="17.140625" customWidth="1"/>
-    <col min="8972" max="8972" width="18.5703125" customWidth="1"/>
-    <col min="8973" max="8973" width="17" customWidth="1"/>
-    <col min="8974" max="8974" width="18.42578125" customWidth="1"/>
-    <col min="8975" max="8975" width="18" customWidth="1"/>
-    <col min="8976" max="8976" width="17.5703125" customWidth="1"/>
-    <col min="8977" max="8977" width="15.7109375" customWidth="1"/>
-    <col min="8980" max="8980" width="16.42578125" customWidth="1"/>
-    <col min="8981" max="8981" width="83.85546875" customWidth="1"/>
-    <col min="9223" max="9223" width="14.5703125" customWidth="1"/>
-    <col min="9224" max="9224" width="15.7109375" customWidth="1"/>
-    <col min="9225" max="9225" width="18.140625" customWidth="1"/>
-    <col min="9226" max="9226" width="17" customWidth="1"/>
-    <col min="9227" max="9227" width="17.140625" customWidth="1"/>
-    <col min="9228" max="9228" width="18.5703125" customWidth="1"/>
-    <col min="9229" max="9229" width="17" customWidth="1"/>
-    <col min="9230" max="9230" width="18.42578125" customWidth="1"/>
-    <col min="9231" max="9231" width="18" customWidth="1"/>
-    <col min="9232" max="9232" width="17.5703125" customWidth="1"/>
-    <col min="9233" max="9233" width="15.7109375" customWidth="1"/>
-    <col min="9236" max="9236" width="16.42578125" customWidth="1"/>
-    <col min="9237" max="9237" width="83.85546875" customWidth="1"/>
-    <col min="9479" max="9479" width="14.5703125" customWidth="1"/>
-    <col min="9480" max="9480" width="15.7109375" customWidth="1"/>
-    <col min="9481" max="9481" width="18.140625" customWidth="1"/>
-    <col min="9482" max="9482" width="17" customWidth="1"/>
-    <col min="9483" max="9483" width="17.140625" customWidth="1"/>
-    <col min="9484" max="9484" width="18.5703125" customWidth="1"/>
-    <col min="9485" max="9485" width="17" customWidth="1"/>
-    <col min="9486" max="9486" width="18.42578125" customWidth="1"/>
-    <col min="9487" max="9487" width="18" customWidth="1"/>
-    <col min="9488" max="9488" width="17.5703125" customWidth="1"/>
-    <col min="9489" max="9489" width="15.7109375" customWidth="1"/>
-    <col min="9492" max="9492" width="16.42578125" customWidth="1"/>
-    <col min="9493" max="9493" width="83.85546875" customWidth="1"/>
-    <col min="9735" max="9735" width="14.5703125" customWidth="1"/>
-    <col min="9736" max="9736" width="15.7109375" customWidth="1"/>
-    <col min="9737" max="9737" width="18.140625" customWidth="1"/>
-    <col min="9738" max="9738" width="17" customWidth="1"/>
-    <col min="9739" max="9739" width="17.140625" customWidth="1"/>
-    <col min="9740" max="9740" width="18.5703125" customWidth="1"/>
-    <col min="9741" max="9741" width="17" customWidth="1"/>
-    <col min="9742" max="9742" width="18.42578125" customWidth="1"/>
-    <col min="9743" max="9743" width="18" customWidth="1"/>
-    <col min="9744" max="9744" width="17.5703125" customWidth="1"/>
-    <col min="9745" max="9745" width="15.7109375" customWidth="1"/>
-    <col min="9748" max="9748" width="16.42578125" customWidth="1"/>
-    <col min="9749" max="9749" width="83.85546875" customWidth="1"/>
-    <col min="9991" max="9991" width="14.5703125" customWidth="1"/>
-    <col min="9992" max="9992" width="15.7109375" customWidth="1"/>
-    <col min="9993" max="9993" width="18.140625" customWidth="1"/>
-    <col min="9994" max="9994" width="17" customWidth="1"/>
-    <col min="9995" max="9995" width="17.140625" customWidth="1"/>
-    <col min="9996" max="9996" width="18.5703125" customWidth="1"/>
-    <col min="9997" max="9997" width="17" customWidth="1"/>
-    <col min="9998" max="9998" width="18.42578125" customWidth="1"/>
-    <col min="9999" max="9999" width="18" customWidth="1"/>
-    <col min="10000" max="10000" width="17.5703125" customWidth="1"/>
-    <col min="10001" max="10001" width="15.7109375" customWidth="1"/>
-    <col min="10004" max="10004" width="16.42578125" customWidth="1"/>
-    <col min="10005" max="10005" width="83.85546875" customWidth="1"/>
-    <col min="10247" max="10247" width="14.5703125" customWidth="1"/>
-    <col min="10248" max="10248" width="15.7109375" customWidth="1"/>
-    <col min="10249" max="10249" width="18.140625" customWidth="1"/>
-    <col min="10250" max="10250" width="17" customWidth="1"/>
-    <col min="10251" max="10251" width="17.140625" customWidth="1"/>
-    <col min="10252" max="10252" width="18.5703125" customWidth="1"/>
-    <col min="10253" max="10253" width="17" customWidth="1"/>
-    <col min="10254" max="10254" width="18.42578125" customWidth="1"/>
-    <col min="10255" max="10255" width="18" customWidth="1"/>
-    <col min="10256" max="10256" width="17.5703125" customWidth="1"/>
-    <col min="10257" max="10257" width="15.7109375" customWidth="1"/>
-    <col min="10260" max="10260" width="16.42578125" customWidth="1"/>
-    <col min="10261" max="10261" width="83.85546875" customWidth="1"/>
-    <col min="10503" max="10503" width="14.5703125" customWidth="1"/>
-    <col min="10504" max="10504" width="15.7109375" customWidth="1"/>
-    <col min="10505" max="10505" width="18.140625" customWidth="1"/>
-    <col min="10506" max="10506" width="17" customWidth="1"/>
-    <col min="10507" max="10507" width="17.140625" customWidth="1"/>
-    <col min="10508" max="10508" width="18.5703125" customWidth="1"/>
-    <col min="10509" max="10509" width="17" customWidth="1"/>
-    <col min="10510" max="10510" width="18.42578125" customWidth="1"/>
-    <col min="10511" max="10511" width="18" customWidth="1"/>
-    <col min="10512" max="10512" width="17.5703125" customWidth="1"/>
-    <col min="10513" max="10513" width="15.7109375" customWidth="1"/>
-    <col min="10516" max="10516" width="16.42578125" customWidth="1"/>
-    <col min="10517" max="10517" width="83.85546875" customWidth="1"/>
-    <col min="10759" max="10759" width="14.5703125" customWidth="1"/>
-    <col min="10760" max="10760" width="15.7109375" customWidth="1"/>
-    <col min="10761" max="10761" width="18.140625" customWidth="1"/>
-    <col min="10762" max="10762" width="17" customWidth="1"/>
-    <col min="10763" max="10763" width="17.140625" customWidth="1"/>
-    <col min="10764" max="10764" width="18.5703125" customWidth="1"/>
-    <col min="10765" max="10765" width="17" customWidth="1"/>
-    <col min="10766" max="10766" width="18.42578125" customWidth="1"/>
-    <col min="10767" max="10767" width="18" customWidth="1"/>
-    <col min="10768" max="10768" width="17.5703125" customWidth="1"/>
-    <col min="10769" max="10769" width="15.7109375" customWidth="1"/>
-    <col min="10772" max="10772" width="16.42578125" customWidth="1"/>
-    <col min="10773" max="10773" width="83.85546875" customWidth="1"/>
-    <col min="11015" max="11015" width="14.5703125" customWidth="1"/>
-    <col min="11016" max="11016" width="15.7109375" customWidth="1"/>
-    <col min="11017" max="11017" width="18.140625" customWidth="1"/>
-    <col min="11018" max="11018" width="17" customWidth="1"/>
-    <col min="11019" max="11019" width="17.140625" customWidth="1"/>
-    <col min="11020" max="11020" width="18.5703125" customWidth="1"/>
-    <col min="11021" max="11021" width="17" customWidth="1"/>
-    <col min="11022" max="11022" width="18.42578125" customWidth="1"/>
-    <col min="11023" max="11023" width="18" customWidth="1"/>
-    <col min="11024" max="11024" width="17.5703125" customWidth="1"/>
-    <col min="11025" max="11025" width="15.7109375" customWidth="1"/>
-    <col min="11028" max="11028" width="16.42578125" customWidth="1"/>
-    <col min="11029" max="11029" width="83.85546875" customWidth="1"/>
-    <col min="11271" max="11271" width="14.5703125" customWidth="1"/>
-    <col min="11272" max="11272" width="15.7109375" customWidth="1"/>
-    <col min="11273" max="11273" width="18.140625" customWidth="1"/>
-    <col min="11274" max="11274" width="17" customWidth="1"/>
-    <col min="11275" max="11275" width="17.140625" customWidth="1"/>
-    <col min="11276" max="11276" width="18.5703125" customWidth="1"/>
-    <col min="11277" max="11277" width="17" customWidth="1"/>
-    <col min="11278" max="11278" width="18.42578125" customWidth="1"/>
-    <col min="11279" max="11279" width="18" customWidth="1"/>
-    <col min="11280" max="11280" width="17.5703125" customWidth="1"/>
-    <col min="11281" max="11281" width="15.7109375" customWidth="1"/>
-    <col min="11284" max="11284" width="16.42578125" customWidth="1"/>
-    <col min="11285" max="11285" width="83.85546875" customWidth="1"/>
-    <col min="11527" max="11527" width="14.5703125" customWidth="1"/>
-    <col min="11528" max="11528" width="15.7109375" customWidth="1"/>
-    <col min="11529" max="11529" width="18.140625" customWidth="1"/>
-    <col min="11530" max="11530" width="17" customWidth="1"/>
-    <col min="11531" max="11531" width="17.140625" customWidth="1"/>
-    <col min="11532" max="11532" width="18.5703125" customWidth="1"/>
-    <col min="11533" max="11533" width="17" customWidth="1"/>
-    <col min="11534" max="11534" width="18.42578125" customWidth="1"/>
-    <col min="11535" max="11535" width="18" customWidth="1"/>
-    <col min="11536" max="11536" width="17.5703125" customWidth="1"/>
-    <col min="11537" max="11537" width="15.7109375" customWidth="1"/>
-    <col min="11540" max="11540" width="16.42578125" customWidth="1"/>
-    <col min="11541" max="11541" width="83.85546875" customWidth="1"/>
-    <col min="11783" max="11783" width="14.5703125" customWidth="1"/>
-    <col min="11784" max="11784" width="15.7109375" customWidth="1"/>
-    <col min="11785" max="11785" width="18.140625" customWidth="1"/>
-    <col min="11786" max="11786" width="17" customWidth="1"/>
-    <col min="11787" max="11787" width="17.140625" customWidth="1"/>
-    <col min="11788" max="11788" width="18.5703125" customWidth="1"/>
-    <col min="11789" max="11789" width="17" customWidth="1"/>
-    <col min="11790" max="11790" width="18.42578125" customWidth="1"/>
-    <col min="11791" max="11791" width="18" customWidth="1"/>
-    <col min="11792" max="11792" width="17.5703125" customWidth="1"/>
-    <col min="11793" max="11793" width="15.7109375" customWidth="1"/>
-    <col min="11796" max="11796" width="16.42578125" customWidth="1"/>
-    <col min="11797" max="11797" width="83.85546875" customWidth="1"/>
-    <col min="12039" max="12039" width="14.5703125" customWidth="1"/>
-    <col min="12040" max="12040" width="15.7109375" customWidth="1"/>
-    <col min="12041" max="12041" width="18.140625" customWidth="1"/>
-    <col min="12042" max="12042" width="17" customWidth="1"/>
-    <col min="12043" max="12043" width="17.140625" customWidth="1"/>
-    <col min="12044" max="12044" width="18.5703125" customWidth="1"/>
-    <col min="12045" max="12045" width="17" customWidth="1"/>
-    <col min="12046" max="12046" width="18.42578125" customWidth="1"/>
-    <col min="12047" max="12047" width="18" customWidth="1"/>
-    <col min="12048" max="12048" width="17.5703125" customWidth="1"/>
-    <col min="12049" max="12049" width="15.7109375" customWidth="1"/>
-    <col min="12052" max="12052" width="16.42578125" customWidth="1"/>
-    <col min="12053" max="12053" width="83.85546875" customWidth="1"/>
-    <col min="12295" max="12295" width="14.5703125" customWidth="1"/>
-    <col min="12296" max="12296" width="15.7109375" customWidth="1"/>
-    <col min="12297" max="12297" width="18.140625" customWidth="1"/>
-    <col min="12298" max="12298" width="17" customWidth="1"/>
-    <col min="12299" max="12299" width="17.140625" customWidth="1"/>
-    <col min="12300" max="12300" width="18.5703125" customWidth="1"/>
-    <col min="12301" max="12301" width="17" customWidth="1"/>
-    <col min="12302" max="12302" width="18.42578125" customWidth="1"/>
-    <col min="12303" max="12303" width="18" customWidth="1"/>
-    <col min="12304" max="12304" width="17.5703125" customWidth="1"/>
-    <col min="12305" max="12305" width="15.7109375" customWidth="1"/>
-    <col min="12308" max="12308" width="16.42578125" customWidth="1"/>
-    <col min="12309" max="12309" width="83.85546875" customWidth="1"/>
-    <col min="12551" max="12551" width="14.5703125" customWidth="1"/>
-    <col min="12552" max="12552" width="15.7109375" customWidth="1"/>
-    <col min="12553" max="12553" width="18.140625" customWidth="1"/>
-    <col min="12554" max="12554" width="17" customWidth="1"/>
-    <col min="12555" max="12555" width="17.140625" customWidth="1"/>
-    <col min="12556" max="12556" width="18.5703125" customWidth="1"/>
-    <col min="12557" max="12557" width="17" customWidth="1"/>
-    <col min="12558" max="12558" width="18.42578125" customWidth="1"/>
-    <col min="12559" max="12559" width="18" customWidth="1"/>
-    <col min="12560" max="12560" width="17.5703125" customWidth="1"/>
-    <col min="12561" max="12561" width="15.7109375" customWidth="1"/>
-    <col min="12564" max="12564" width="16.42578125" customWidth="1"/>
-    <col min="12565" max="12565" width="83.85546875" customWidth="1"/>
-    <col min="12807" max="12807" width="14.5703125" customWidth="1"/>
-    <col min="12808" max="12808" width="15.7109375" customWidth="1"/>
-    <col min="12809" max="12809" width="18.140625" customWidth="1"/>
-    <col min="12810" max="12810" width="17" customWidth="1"/>
-    <col min="12811" max="12811" width="17.140625" customWidth="1"/>
-    <col min="12812" max="12812" width="18.5703125" customWidth="1"/>
-    <col min="12813" max="12813" width="17" customWidth="1"/>
-    <col min="12814" max="12814" width="18.42578125" customWidth="1"/>
-    <col min="12815" max="12815" width="18" customWidth="1"/>
-    <col min="12816" max="12816" width="17.5703125" customWidth="1"/>
-    <col min="12817" max="12817" width="15.7109375" customWidth="1"/>
-    <col min="12820" max="12820" width="16.42578125" customWidth="1"/>
-    <col min="12821" max="12821" width="83.85546875" customWidth="1"/>
-    <col min="13063" max="13063" width="14.5703125" customWidth="1"/>
-    <col min="13064" max="13064" width="15.7109375" customWidth="1"/>
-    <col min="13065" max="13065" width="18.140625" customWidth="1"/>
-    <col min="13066" max="13066" width="17" customWidth="1"/>
-    <col min="13067" max="13067" width="17.140625" customWidth="1"/>
-    <col min="13068" max="13068" width="18.5703125" customWidth="1"/>
-    <col min="13069" max="13069" width="17" customWidth="1"/>
-    <col min="13070" max="13070" width="18.42578125" customWidth="1"/>
-    <col min="13071" max="13071" width="18" customWidth="1"/>
-    <col min="13072" max="13072" width="17.5703125" customWidth="1"/>
-    <col min="13073" max="13073" width="15.7109375" customWidth="1"/>
-    <col min="13076" max="13076" width="16.42578125" customWidth="1"/>
-    <col min="13077" max="13077" width="83.85546875" customWidth="1"/>
-    <col min="13319" max="13319" width="14.5703125" customWidth="1"/>
-    <col min="13320" max="13320" width="15.7109375" customWidth="1"/>
-    <col min="13321" max="13321" width="18.140625" customWidth="1"/>
-    <col min="13322" max="13322" width="17" customWidth="1"/>
-    <col min="13323" max="13323" width="17.140625" customWidth="1"/>
-    <col min="13324" max="13324" width="18.5703125" customWidth="1"/>
-    <col min="13325" max="13325" width="17" customWidth="1"/>
-    <col min="13326" max="13326" width="18.42578125" customWidth="1"/>
-    <col min="13327" max="13327" width="18" customWidth="1"/>
-    <col min="13328" max="13328" width="17.5703125" customWidth="1"/>
-    <col min="13329" max="13329" width="15.7109375" customWidth="1"/>
-    <col min="13332" max="13332" width="16.42578125" customWidth="1"/>
-    <col min="13333" max="13333" width="83.85546875" customWidth="1"/>
-    <col min="13575" max="13575" width="14.5703125" customWidth="1"/>
-    <col min="13576" max="13576" width="15.7109375" customWidth="1"/>
-    <col min="13577" max="13577" width="18.140625" customWidth="1"/>
-    <col min="13578" max="13578" width="17" customWidth="1"/>
-    <col min="13579" max="13579" width="17.140625" customWidth="1"/>
-    <col min="13580" max="13580" width="18.5703125" customWidth="1"/>
-    <col min="13581" max="13581" width="17" customWidth="1"/>
-    <col min="13582" max="13582" width="18.42578125" customWidth="1"/>
-    <col min="13583" max="13583" width="18" customWidth="1"/>
-    <col min="13584" max="13584" width="17.5703125" customWidth="1"/>
-    <col min="13585" max="13585" width="15.7109375" customWidth="1"/>
-    <col min="13588" max="13588" width="16.42578125" customWidth="1"/>
-    <col min="13589" max="13589" width="83.85546875" customWidth="1"/>
-    <col min="13831" max="13831" width="14.5703125" customWidth="1"/>
-    <col min="13832" max="13832" width="15.7109375" customWidth="1"/>
-    <col min="13833" max="13833" width="18.140625" customWidth="1"/>
-    <col min="13834" max="13834" width="17" customWidth="1"/>
-    <col min="13835" max="13835" width="17.140625" customWidth="1"/>
-    <col min="13836" max="13836" width="18.5703125" customWidth="1"/>
-    <col min="13837" max="13837" width="17" customWidth="1"/>
-    <col min="13838" max="13838" width="18.42578125" customWidth="1"/>
-    <col min="13839" max="13839" width="18" customWidth="1"/>
-    <col min="13840" max="13840" width="17.5703125" customWidth="1"/>
-    <col min="13841" max="13841" width="15.7109375" customWidth="1"/>
-    <col min="13844" max="13844" width="16.42578125" customWidth="1"/>
-    <col min="13845" max="13845" width="83.85546875" customWidth="1"/>
-    <col min="14087" max="14087" width="14.5703125" customWidth="1"/>
-    <col min="14088" max="14088" width="15.7109375" customWidth="1"/>
-    <col min="14089" max="14089" width="18.140625" customWidth="1"/>
-    <col min="14090" max="14090" width="17" customWidth="1"/>
-    <col min="14091" max="14091" width="17.140625" customWidth="1"/>
-    <col min="14092" max="14092" width="18.5703125" customWidth="1"/>
-    <col min="14093" max="14093" width="17" customWidth="1"/>
-    <col min="14094" max="14094" width="18.42578125" customWidth="1"/>
-    <col min="14095" max="14095" width="18" customWidth="1"/>
-    <col min="14096" max="14096" width="17.5703125" customWidth="1"/>
-    <col min="14097" max="14097" width="15.7109375" customWidth="1"/>
-    <col min="14100" max="14100" width="16.42578125" customWidth="1"/>
-    <col min="14101" max="14101" width="83.85546875" customWidth="1"/>
-    <col min="14343" max="14343" width="14.5703125" customWidth="1"/>
-    <col min="14344" max="14344" width="15.7109375" customWidth="1"/>
-    <col min="14345" max="14345" width="18.140625" customWidth="1"/>
-    <col min="14346" max="14346" width="17" customWidth="1"/>
-    <col min="14347" max="14347" width="17.140625" customWidth="1"/>
-    <col min="14348" max="14348" width="18.5703125" customWidth="1"/>
-    <col min="14349" max="14349" width="17" customWidth="1"/>
-    <col min="14350" max="14350" width="18.42578125" customWidth="1"/>
-    <col min="14351" max="14351" width="18" customWidth="1"/>
-    <col min="14352" max="14352" width="17.5703125" customWidth="1"/>
-    <col min="14353" max="14353" width="15.7109375" customWidth="1"/>
-    <col min="14356" max="14356" width="16.42578125" customWidth="1"/>
-    <col min="14357" max="14357" width="83.85546875" customWidth="1"/>
-    <col min="14599" max="14599" width="14.5703125" customWidth="1"/>
-    <col min="14600" max="14600" width="15.7109375" customWidth="1"/>
-    <col min="14601" max="14601" width="18.140625" customWidth="1"/>
-    <col min="14602" max="14602" width="17" customWidth="1"/>
-    <col min="14603" max="14603" width="17.140625" customWidth="1"/>
-    <col min="14604" max="14604" width="18.5703125" customWidth="1"/>
-    <col min="14605" max="14605" width="17" customWidth="1"/>
-    <col min="14606" max="14606" width="18.42578125" customWidth="1"/>
-    <col min="14607" max="14607" width="18" customWidth="1"/>
-    <col min="14608" max="14608" width="17.5703125" customWidth="1"/>
-    <col min="14609" max="14609" width="15.7109375" customWidth="1"/>
-    <col min="14612" max="14612" width="16.42578125" customWidth="1"/>
-    <col min="14613" max="14613" width="83.85546875" customWidth="1"/>
-    <col min="14855" max="14855" width="14.5703125" customWidth="1"/>
-    <col min="14856" max="14856" width="15.7109375" customWidth="1"/>
-    <col min="14857" max="14857" width="18.140625" customWidth="1"/>
-    <col min="14858" max="14858" width="17" customWidth="1"/>
-    <col min="14859" max="14859" width="17.140625" customWidth="1"/>
-    <col min="14860" max="14860" width="18.5703125" customWidth="1"/>
-    <col min="14861" max="14861" width="17" customWidth="1"/>
-    <col min="14862" max="14862" width="18.42578125" customWidth="1"/>
-    <col min="14863" max="14863" width="18" customWidth="1"/>
-    <col min="14864" max="14864" width="17.5703125" customWidth="1"/>
-    <col min="14865" max="14865" width="15.7109375" customWidth="1"/>
-    <col min="14868" max="14868" width="16.42578125" customWidth="1"/>
-    <col min="14869" max="14869" width="83.85546875" customWidth="1"/>
-    <col min="15111" max="15111" width="14.5703125" customWidth="1"/>
-    <col min="15112" max="15112" width="15.7109375" customWidth="1"/>
-    <col min="15113" max="15113" width="18.140625" customWidth="1"/>
-    <col min="15114" max="15114" width="17" customWidth="1"/>
-    <col min="15115" max="15115" width="17.140625" customWidth="1"/>
-    <col min="15116" max="15116" width="18.5703125" customWidth="1"/>
-    <col min="15117" max="15117" width="17" customWidth="1"/>
-    <col min="15118" max="15118" width="18.42578125" customWidth="1"/>
-    <col min="15119" max="15119" width="18" customWidth="1"/>
-    <col min="15120" max="15120" width="17.5703125" customWidth="1"/>
-    <col min="15121" max="15121" width="15.7109375" customWidth="1"/>
-    <col min="15124" max="15124" width="16.42578125" customWidth="1"/>
-    <col min="15125" max="15125" width="83.85546875" customWidth="1"/>
-    <col min="15367" max="15367" width="14.5703125" customWidth="1"/>
-    <col min="15368" max="15368" width="15.7109375" customWidth="1"/>
-    <col min="15369" max="15369" width="18.140625" customWidth="1"/>
-    <col min="15370" max="15370" width="17" customWidth="1"/>
-    <col min="15371" max="15371" width="17.140625" customWidth="1"/>
-    <col min="15372" max="15372" width="18.5703125" customWidth="1"/>
-    <col min="15373" max="15373" width="17" customWidth="1"/>
-    <col min="15374" max="15374" width="18.42578125" customWidth="1"/>
-    <col min="15375" max="15375" width="18" customWidth="1"/>
-    <col min="15376" max="15376" width="17.5703125" customWidth="1"/>
-    <col min="15377" max="15377" width="15.7109375" customWidth="1"/>
-    <col min="15380" max="15380" width="16.42578125" customWidth="1"/>
-    <col min="15381" max="15381" width="83.85546875" customWidth="1"/>
-    <col min="15623" max="15623" width="14.5703125" customWidth="1"/>
-    <col min="15624" max="15624" width="15.7109375" customWidth="1"/>
-    <col min="15625" max="15625" width="18.140625" customWidth="1"/>
-    <col min="15626" max="15626" width="17" customWidth="1"/>
-    <col min="15627" max="15627" width="17.140625" customWidth="1"/>
-    <col min="15628" max="15628" width="18.5703125" customWidth="1"/>
-    <col min="15629" max="15629" width="17" customWidth="1"/>
-    <col min="15630" max="15630" width="18.42578125" customWidth="1"/>
-    <col min="15631" max="15631" width="18" customWidth="1"/>
-    <col min="15632" max="15632" width="17.5703125" customWidth="1"/>
-    <col min="15633" max="15633" width="15.7109375" customWidth="1"/>
-    <col min="15636" max="15636" width="16.42578125" customWidth="1"/>
-    <col min="15637" max="15637" width="83.85546875" customWidth="1"/>
-    <col min="15879" max="15879" width="14.5703125" customWidth="1"/>
-    <col min="15880" max="15880" width="15.7109375" customWidth="1"/>
-    <col min="15881" max="15881" width="18.140625" customWidth="1"/>
-    <col min="15882" max="15882" width="17" customWidth="1"/>
-    <col min="15883" max="15883" width="17.140625" customWidth="1"/>
-    <col min="15884" max="15884" width="18.5703125" customWidth="1"/>
-    <col min="15885" max="15885" width="17" customWidth="1"/>
-    <col min="15886" max="15886" width="18.42578125" customWidth="1"/>
-    <col min="15887" max="15887" width="18" customWidth="1"/>
-    <col min="15888" max="15888" width="17.5703125" customWidth="1"/>
-    <col min="15889" max="15889" width="15.7109375" customWidth="1"/>
-    <col min="15892" max="15892" width="16.42578125" customWidth="1"/>
-    <col min="15893" max="15893" width="83.85546875" customWidth="1"/>
-    <col min="16135" max="16135" width="14.5703125" customWidth="1"/>
-    <col min="16136" max="16136" width="15.7109375" customWidth="1"/>
-    <col min="16137" max="16137" width="18.140625" customWidth="1"/>
-    <col min="16138" max="16138" width="17" customWidth="1"/>
-    <col min="16139" max="16139" width="17.140625" customWidth="1"/>
-    <col min="16140" max="16140" width="18.5703125" customWidth="1"/>
-    <col min="16141" max="16141" width="17" customWidth="1"/>
-    <col min="16142" max="16142" width="18.42578125" customWidth="1"/>
-    <col min="16143" max="16143" width="18" customWidth="1"/>
-    <col min="16144" max="16144" width="17.5703125" customWidth="1"/>
-    <col min="16145" max="16145" width="15.7109375" customWidth="1"/>
-    <col min="16148" max="16148" width="16.42578125" customWidth="1"/>
-    <col min="16149" max="16149" width="83.85546875" customWidth="1"/>
+    <col min="8" max="14" width="19.7109375" customWidth="1"/>
+    <col min="15" max="15" width="83.85546875" customWidth="1"/>
+    <col min="257" max="257" width="14.5703125" customWidth="1"/>
+    <col min="258" max="258" width="15.7109375" customWidth="1"/>
+    <col min="259" max="259" width="18.140625" customWidth="1"/>
+    <col min="260" max="260" width="17" customWidth="1"/>
+    <col min="261" max="261" width="17.140625" customWidth="1"/>
+    <col min="262" max="262" width="18.5703125" customWidth="1"/>
+    <col min="263" max="263" width="17" customWidth="1"/>
+    <col min="264" max="264" width="18.42578125" customWidth="1"/>
+    <col min="265" max="265" width="18" customWidth="1"/>
+    <col min="266" max="266" width="17.5703125" customWidth="1"/>
+    <col min="267" max="267" width="15.7109375" customWidth="1"/>
+    <col min="270" max="270" width="16.42578125" customWidth="1"/>
+    <col min="271" max="271" width="83.85546875" customWidth="1"/>
+    <col min="513" max="513" width="14.5703125" customWidth="1"/>
+    <col min="514" max="514" width="15.7109375" customWidth="1"/>
+    <col min="515" max="515" width="18.140625" customWidth="1"/>
+    <col min="516" max="516" width="17" customWidth="1"/>
+    <col min="517" max="517" width="17.140625" customWidth="1"/>
+    <col min="518" max="518" width="18.5703125" customWidth="1"/>
+    <col min="519" max="519" width="17" customWidth="1"/>
+    <col min="520" max="520" width="18.42578125" customWidth="1"/>
+    <col min="521" max="521" width="18" customWidth="1"/>
+    <col min="522" max="522" width="17.5703125" customWidth="1"/>
+    <col min="523" max="523" width="15.7109375" customWidth="1"/>
+    <col min="526" max="526" width="16.42578125" customWidth="1"/>
+    <col min="527" max="527" width="83.85546875" customWidth="1"/>
+    <col min="769" max="769" width="14.5703125" customWidth="1"/>
+    <col min="770" max="770" width="15.7109375" customWidth="1"/>
+    <col min="771" max="771" width="18.140625" customWidth="1"/>
+    <col min="772" max="772" width="17" customWidth="1"/>
+    <col min="773" max="773" width="17.140625" customWidth="1"/>
+    <col min="774" max="774" width="18.5703125" customWidth="1"/>
+    <col min="775" max="775" width="17" customWidth="1"/>
+    <col min="776" max="776" width="18.42578125" customWidth="1"/>
+    <col min="777" max="777" width="18" customWidth="1"/>
+    <col min="778" max="778" width="17.5703125" customWidth="1"/>
+    <col min="779" max="779" width="15.7109375" customWidth="1"/>
+    <col min="782" max="782" width="16.42578125" customWidth="1"/>
+    <col min="783" max="783" width="83.85546875" customWidth="1"/>
+    <col min="1025" max="1025" width="14.5703125" customWidth="1"/>
+    <col min="1026" max="1026" width="15.7109375" customWidth="1"/>
+    <col min="1027" max="1027" width="18.140625" customWidth="1"/>
+    <col min="1028" max="1028" width="17" customWidth="1"/>
+    <col min="1029" max="1029" width="17.140625" customWidth="1"/>
+    <col min="1030" max="1030" width="18.5703125" customWidth="1"/>
+    <col min="1031" max="1031" width="17" customWidth="1"/>
+    <col min="1032" max="1032" width="18.42578125" customWidth="1"/>
+    <col min="1033" max="1033" width="18" customWidth="1"/>
+    <col min="1034" max="1034" width="17.5703125" customWidth="1"/>
+    <col min="1035" max="1035" width="15.7109375" customWidth="1"/>
+    <col min="1038" max="1038" width="16.42578125" customWidth="1"/>
+    <col min="1039" max="1039" width="83.85546875" customWidth="1"/>
+    <col min="1281" max="1281" width="14.5703125" customWidth="1"/>
+    <col min="1282" max="1282" width="15.7109375" customWidth="1"/>
+    <col min="1283" max="1283" width="18.140625" customWidth="1"/>
+    <col min="1284" max="1284" width="17" customWidth="1"/>
+    <col min="1285" max="1285" width="17.140625" customWidth="1"/>
+    <col min="1286" max="1286" width="18.5703125" customWidth="1"/>
+    <col min="1287" max="1287" width="17" customWidth="1"/>
+    <col min="1288" max="1288" width="18.42578125" customWidth="1"/>
+    <col min="1289" max="1289" width="18" customWidth="1"/>
+    <col min="1290" max="1290" width="17.5703125" customWidth="1"/>
+    <col min="1291" max="1291" width="15.7109375" customWidth="1"/>
+    <col min="1294" max="1294" width="16.42578125" customWidth="1"/>
+    <col min="1295" max="1295" width="83.85546875" customWidth="1"/>
+    <col min="1537" max="1537" width="14.5703125" customWidth="1"/>
+    <col min="1538" max="1538" width="15.7109375" customWidth="1"/>
+    <col min="1539" max="1539" width="18.140625" customWidth="1"/>
+    <col min="1540" max="1540" width="17" customWidth="1"/>
+    <col min="1541" max="1541" width="17.140625" customWidth="1"/>
+    <col min="1542" max="1542" width="18.5703125" customWidth="1"/>
+    <col min="1543" max="1543" width="17" customWidth="1"/>
+    <col min="1544" max="1544" width="18.42578125" customWidth="1"/>
+    <col min="1545" max="1545" width="18" customWidth="1"/>
+    <col min="1546" max="1546" width="17.5703125" customWidth="1"/>
+    <col min="1547" max="1547" width="15.7109375" customWidth="1"/>
+    <col min="1550" max="1550" width="16.42578125" customWidth="1"/>
+    <col min="1551" max="1551" width="83.85546875" customWidth="1"/>
+    <col min="1793" max="1793" width="14.5703125" customWidth="1"/>
+    <col min="1794" max="1794" width="15.7109375" customWidth="1"/>
+    <col min="1795" max="1795" width="18.140625" customWidth="1"/>
+    <col min="1796" max="1796" width="17" customWidth="1"/>
+    <col min="1797" max="1797" width="17.140625" customWidth="1"/>
+    <col min="1798" max="1798" width="18.5703125" customWidth="1"/>
+    <col min="1799" max="1799" width="17" customWidth="1"/>
+    <col min="1800" max="1800" width="18.42578125" customWidth="1"/>
+    <col min="1801" max="1801" width="18" customWidth="1"/>
+    <col min="1802" max="1802" width="17.5703125" customWidth="1"/>
+    <col min="1803" max="1803" width="15.7109375" customWidth="1"/>
+    <col min="1806" max="1806" width="16.42578125" customWidth="1"/>
+    <col min="1807" max="1807" width="83.85546875" customWidth="1"/>
+    <col min="2049" max="2049" width="14.5703125" customWidth="1"/>
+    <col min="2050" max="2050" width="15.7109375" customWidth="1"/>
+    <col min="2051" max="2051" width="18.140625" customWidth="1"/>
+    <col min="2052" max="2052" width="17" customWidth="1"/>
+    <col min="2053" max="2053" width="17.140625" customWidth="1"/>
+    <col min="2054" max="2054" width="18.5703125" customWidth="1"/>
+    <col min="2055" max="2055" width="17" customWidth="1"/>
+    <col min="2056" max="2056" width="18.42578125" customWidth="1"/>
+    <col min="2057" max="2057" width="18" customWidth="1"/>
+    <col min="2058" max="2058" width="17.5703125" customWidth="1"/>
+    <col min="2059" max="2059" width="15.7109375" customWidth="1"/>
+    <col min="2062" max="2062" width="16.42578125" customWidth="1"/>
+    <col min="2063" max="2063" width="83.85546875" customWidth="1"/>
+    <col min="2305" max="2305" width="14.5703125" customWidth="1"/>
+    <col min="2306" max="2306" width="15.7109375" customWidth="1"/>
+    <col min="2307" max="2307" width="18.140625" customWidth="1"/>
+    <col min="2308" max="2308" width="17" customWidth="1"/>
+    <col min="2309" max="2309" width="17.140625" customWidth="1"/>
+    <col min="2310" max="2310" width="18.5703125" customWidth="1"/>
+    <col min="2311" max="2311" width="17" customWidth="1"/>
+    <col min="2312" max="2312" width="18.42578125" customWidth="1"/>
+    <col min="2313" max="2313" width="18" customWidth="1"/>
+    <col min="2314" max="2314" width="17.5703125" customWidth="1"/>
+    <col min="2315" max="2315" width="15.7109375" customWidth="1"/>
+    <col min="2318" max="2318" width="16.42578125" customWidth="1"/>
+    <col min="2319" max="2319" width="83.85546875" customWidth="1"/>
+    <col min="2561" max="2561" width="14.5703125" customWidth="1"/>
+    <col min="2562" max="2562" width="15.7109375" customWidth="1"/>
+    <col min="2563" max="2563" width="18.140625" customWidth="1"/>
+    <col min="2564" max="2564" width="17" customWidth="1"/>
+    <col min="2565" max="2565" width="17.140625" customWidth="1"/>
+    <col min="2566" max="2566" width="18.5703125" customWidth="1"/>
+    <col min="2567" max="2567" width="17" customWidth="1"/>
+    <col min="2568" max="2568" width="18.42578125" customWidth="1"/>
+    <col min="2569" max="2569" width="18" customWidth="1"/>
+    <col min="2570" max="2570" width="17.5703125" customWidth="1"/>
+    <col min="2571" max="2571" width="15.7109375" customWidth="1"/>
+    <col min="2574" max="2574" width="16.42578125" customWidth="1"/>
+    <col min="2575" max="2575" width="83.85546875" customWidth="1"/>
+    <col min="2817" max="2817" width="14.5703125" customWidth="1"/>
+    <col min="2818" max="2818" width="15.7109375" customWidth="1"/>
+    <col min="2819" max="2819" width="18.140625" customWidth="1"/>
+    <col min="2820" max="2820" width="17" customWidth="1"/>
+    <col min="2821" max="2821" width="17.140625" customWidth="1"/>
+    <col min="2822" max="2822" width="18.5703125" customWidth="1"/>
+    <col min="2823" max="2823" width="17" customWidth="1"/>
+    <col min="2824" max="2824" width="18.42578125" customWidth="1"/>
+    <col min="2825" max="2825" width="18" customWidth="1"/>
+    <col min="2826" max="2826" width="17.5703125" customWidth="1"/>
+    <col min="2827" max="2827" width="15.7109375" customWidth="1"/>
+    <col min="2830" max="2830" width="16.42578125" customWidth="1"/>
+    <col min="2831" max="2831" width="83.85546875" customWidth="1"/>
+    <col min="3073" max="3073" width="14.5703125" customWidth="1"/>
+    <col min="3074" max="3074" width="15.7109375" customWidth="1"/>
+    <col min="3075" max="3075" width="18.140625" customWidth="1"/>
+    <col min="3076" max="3076" width="17" customWidth="1"/>
+    <col min="3077" max="3077" width="17.140625" customWidth="1"/>
+    <col min="3078" max="3078" width="18.5703125" customWidth="1"/>
+    <col min="3079" max="3079" width="17" customWidth="1"/>
+    <col min="3080" max="3080" width="18.42578125" customWidth="1"/>
+    <col min="3081" max="3081" width="18" customWidth="1"/>
+    <col min="3082" max="3082" width="17.5703125" customWidth="1"/>
+    <col min="3083" max="3083" width="15.7109375" customWidth="1"/>
+    <col min="3086" max="3086" width="16.42578125" customWidth="1"/>
+    <col min="3087" max="3087" width="83.85546875" customWidth="1"/>
+    <col min="3329" max="3329" width="14.5703125" customWidth="1"/>
+    <col min="3330" max="3330" width="15.7109375" customWidth="1"/>
+    <col min="3331" max="3331" width="18.140625" customWidth="1"/>
+    <col min="3332" max="3332" width="17" customWidth="1"/>
+    <col min="3333" max="3333" width="17.140625" customWidth="1"/>
+    <col min="3334" max="3334" width="18.5703125" customWidth="1"/>
+    <col min="3335" max="3335" width="17" customWidth="1"/>
+    <col min="3336" max="3336" width="18.42578125" customWidth="1"/>
+    <col min="3337" max="3337" width="18" customWidth="1"/>
+    <col min="3338" max="3338" width="17.5703125" customWidth="1"/>
+    <col min="3339" max="3339" width="15.7109375" customWidth="1"/>
+    <col min="3342" max="3342" width="16.42578125" customWidth="1"/>
+    <col min="3343" max="3343" width="83.85546875" customWidth="1"/>
+    <col min="3585" max="3585" width="14.5703125" customWidth="1"/>
+    <col min="3586" max="3586" width="15.7109375" customWidth="1"/>
+    <col min="3587" max="3587" width="18.140625" customWidth="1"/>
+    <col min="3588" max="3588" width="17" customWidth="1"/>
+    <col min="3589" max="3589" width="17.140625" customWidth="1"/>
+    <col min="3590" max="3590" width="18.5703125" customWidth="1"/>
+    <col min="3591" max="3591" width="17" customWidth="1"/>
+    <col min="3592" max="3592" width="18.42578125" customWidth="1"/>
+    <col min="3593" max="3593" width="18" customWidth="1"/>
+    <col min="3594" max="3594" width="17.5703125" customWidth="1"/>
+    <col min="3595" max="3595" width="15.7109375" customWidth="1"/>
+    <col min="3598" max="3598" width="16.42578125" customWidth="1"/>
+    <col min="3599" max="3599" width="83.85546875" customWidth="1"/>
+    <col min="3841" max="3841" width="14.5703125" customWidth="1"/>
+    <col min="3842" max="3842" width="15.7109375" customWidth="1"/>
+    <col min="3843" max="3843" width="18.140625" customWidth="1"/>
+    <col min="3844" max="3844" width="17" customWidth="1"/>
+    <col min="3845" max="3845" width="17.140625" customWidth="1"/>
+    <col min="3846" max="3846" width="18.5703125" customWidth="1"/>
+    <col min="3847" max="3847" width="17" customWidth="1"/>
+    <col min="3848" max="3848" width="18.42578125" customWidth="1"/>
+    <col min="3849" max="3849" width="18" customWidth="1"/>
+    <col min="3850" max="3850" width="17.5703125" customWidth="1"/>
+    <col min="3851" max="3851" width="15.7109375" customWidth="1"/>
+    <col min="3854" max="3854" width="16.42578125" customWidth="1"/>
+    <col min="3855" max="3855" width="83.85546875" customWidth="1"/>
+    <col min="4097" max="4097" width="14.5703125" customWidth="1"/>
+    <col min="4098" max="4098" width="15.7109375" customWidth="1"/>
+    <col min="4099" max="4099" width="18.140625" customWidth="1"/>
+    <col min="4100" max="4100" width="17" customWidth="1"/>
+    <col min="4101" max="4101" width="17.140625" customWidth="1"/>
+    <col min="4102" max="4102" width="18.5703125" customWidth="1"/>
+    <col min="4103" max="4103" width="17" customWidth="1"/>
+    <col min="4104" max="4104" width="18.42578125" customWidth="1"/>
+    <col min="4105" max="4105" width="18" customWidth="1"/>
+    <col min="4106" max="4106" width="17.5703125" customWidth="1"/>
+    <col min="4107" max="4107" width="15.7109375" customWidth="1"/>
+    <col min="4110" max="4110" width="16.42578125" customWidth="1"/>
+    <col min="4111" max="4111" width="83.85546875" customWidth="1"/>
+    <col min="4353" max="4353" width="14.5703125" customWidth="1"/>
+    <col min="4354" max="4354" width="15.7109375" customWidth="1"/>
+    <col min="4355" max="4355" width="18.140625" customWidth="1"/>
+    <col min="4356" max="4356" width="17" customWidth="1"/>
+    <col min="4357" max="4357" width="17.140625" customWidth="1"/>
+    <col min="4358" max="4358" width="18.5703125" customWidth="1"/>
+    <col min="4359" max="4359" width="17" customWidth="1"/>
+    <col min="4360" max="4360" width="18.42578125" customWidth="1"/>
+    <col min="4361" max="4361" width="18" customWidth="1"/>
+    <col min="4362" max="4362" width="17.5703125" customWidth="1"/>
+    <col min="4363" max="4363" width="15.7109375" customWidth="1"/>
+    <col min="4366" max="4366" width="16.42578125" customWidth="1"/>
+    <col min="4367" max="4367" width="83.85546875" customWidth="1"/>
+    <col min="4609" max="4609" width="14.5703125" customWidth="1"/>
+    <col min="4610" max="4610" width="15.7109375" customWidth="1"/>
+    <col min="4611" max="4611" width="18.140625" customWidth="1"/>
+    <col min="4612" max="4612" width="17" customWidth="1"/>
+    <col min="4613" max="4613" width="17.140625" customWidth="1"/>
+    <col min="4614" max="4614" width="18.5703125" customWidth="1"/>
+    <col min="4615" max="4615" width="17" customWidth="1"/>
+    <col min="4616" max="4616" width="18.42578125" customWidth="1"/>
+    <col min="4617" max="4617" width="18" customWidth="1"/>
+    <col min="4618" max="4618" width="17.5703125" customWidth="1"/>
+    <col min="4619" max="4619" width="15.7109375" customWidth="1"/>
+    <col min="4622" max="4622" width="16.42578125" customWidth="1"/>
+    <col min="4623" max="4623" width="83.85546875" customWidth="1"/>
+    <col min="4865" max="4865" width="14.5703125" customWidth="1"/>
+    <col min="4866" max="4866" width="15.7109375" customWidth="1"/>
+    <col min="4867" max="4867" width="18.140625" customWidth="1"/>
+    <col min="4868" max="4868" width="17" customWidth="1"/>
+    <col min="4869" max="4869" width="17.140625" customWidth="1"/>
+    <col min="4870" max="4870" width="18.5703125" customWidth="1"/>
+    <col min="4871" max="4871" width="17" customWidth="1"/>
+    <col min="4872" max="4872" width="18.42578125" customWidth="1"/>
+    <col min="4873" max="4873" width="18" customWidth="1"/>
+    <col min="4874" max="4874" width="17.5703125" customWidth="1"/>
+    <col min="4875" max="4875" width="15.7109375" customWidth="1"/>
+    <col min="4878" max="4878" width="16.42578125" customWidth="1"/>
+    <col min="4879" max="4879" width="83.85546875" customWidth="1"/>
+    <col min="5121" max="5121" width="14.5703125" customWidth="1"/>
+    <col min="5122" max="5122" width="15.7109375" customWidth="1"/>
+    <col min="5123" max="5123" width="18.140625" customWidth="1"/>
+    <col min="5124" max="5124" width="17" customWidth="1"/>
+    <col min="5125" max="5125" width="17.140625" customWidth="1"/>
+    <col min="5126" max="5126" width="18.5703125" customWidth="1"/>
+    <col min="5127" max="5127" width="17" customWidth="1"/>
+    <col min="5128" max="5128" width="18.42578125" customWidth="1"/>
+    <col min="5129" max="5129" width="18" customWidth="1"/>
+    <col min="5130" max="5130" width="17.5703125" customWidth="1"/>
+    <col min="5131" max="5131" width="15.7109375" customWidth="1"/>
+    <col min="5134" max="5134" width="16.42578125" customWidth="1"/>
+    <col min="5135" max="5135" width="83.85546875" customWidth="1"/>
+    <col min="5377" max="5377" width="14.5703125" customWidth="1"/>
+    <col min="5378" max="5378" width="15.7109375" customWidth="1"/>
+    <col min="5379" max="5379" width="18.140625" customWidth="1"/>
+    <col min="5380" max="5380" width="17" customWidth="1"/>
+    <col min="5381" max="5381" width="17.140625" customWidth="1"/>
+    <col min="5382" max="5382" width="18.5703125" customWidth="1"/>
+    <col min="5383" max="5383" width="17" customWidth="1"/>
+    <col min="5384" max="5384" width="18.42578125" customWidth="1"/>
+    <col min="5385" max="5385" width="18" customWidth="1"/>
+    <col min="5386" max="5386" width="17.5703125" customWidth="1"/>
+    <col min="5387" max="5387" width="15.7109375" customWidth="1"/>
+    <col min="5390" max="5390" width="16.42578125" customWidth="1"/>
+    <col min="5391" max="5391" width="83.85546875" customWidth="1"/>
+    <col min="5633" max="5633" width="14.5703125" customWidth="1"/>
+    <col min="5634" max="5634" width="15.7109375" customWidth="1"/>
+    <col min="5635" max="5635" width="18.140625" customWidth="1"/>
+    <col min="5636" max="5636" width="17" customWidth="1"/>
+    <col min="5637" max="5637" width="17.140625" customWidth="1"/>
+    <col min="5638" max="5638" width="18.5703125" customWidth="1"/>
+    <col min="5639" max="5639" width="17" customWidth="1"/>
+    <col min="5640" max="5640" width="18.42578125" customWidth="1"/>
+    <col min="5641" max="5641" width="18" customWidth="1"/>
+    <col min="5642" max="5642" width="17.5703125" customWidth="1"/>
+    <col min="5643" max="5643" width="15.7109375" customWidth="1"/>
+    <col min="5646" max="5646" width="16.42578125" customWidth="1"/>
+    <col min="5647" max="5647" width="83.85546875" customWidth="1"/>
+    <col min="5889" max="5889" width="14.5703125" customWidth="1"/>
+    <col min="5890" max="5890" width="15.7109375" customWidth="1"/>
+    <col min="5891" max="5891" width="18.140625" customWidth="1"/>
+    <col min="5892" max="5892" width="17" customWidth="1"/>
+    <col min="5893" max="5893" width="17.140625" customWidth="1"/>
+    <col min="5894" max="5894" width="18.5703125" customWidth="1"/>
+    <col min="5895" max="5895" width="17" customWidth="1"/>
+    <col min="5896" max="5896" width="18.42578125" customWidth="1"/>
+    <col min="5897" max="5897" width="18" customWidth="1"/>
+    <col min="5898" max="5898" width="17.5703125" customWidth="1"/>
+    <col min="5899" max="5899" width="15.7109375" customWidth="1"/>
+    <col min="5902" max="5902" width="16.42578125" customWidth="1"/>
+    <col min="5903" max="5903" width="83.85546875" customWidth="1"/>
+    <col min="6145" max="6145" width="14.5703125" customWidth="1"/>
+    <col min="6146" max="6146" width="15.7109375" customWidth="1"/>
+    <col min="6147" max="6147" width="18.140625" customWidth="1"/>
+    <col min="6148" max="6148" width="17" customWidth="1"/>
+    <col min="6149" max="6149" width="17.140625" customWidth="1"/>
+    <col min="6150" max="6150" width="18.5703125" customWidth="1"/>
+    <col min="6151" max="6151" width="17" customWidth="1"/>
+    <col min="6152" max="6152" width="18.42578125" customWidth="1"/>
+    <col min="6153" max="6153" width="18" customWidth="1"/>
+    <col min="6154" max="6154" width="17.5703125" customWidth="1"/>
+    <col min="6155" max="6155" width="15.7109375" customWidth="1"/>
+    <col min="6158" max="6158" width="16.42578125" customWidth="1"/>
+    <col min="6159" max="6159" width="83.85546875" customWidth="1"/>
+    <col min="6401" max="6401" width="14.5703125" customWidth="1"/>
+    <col min="6402" max="6402" width="15.7109375" customWidth="1"/>
+    <col min="6403" max="6403" width="18.140625" customWidth="1"/>
+    <col min="6404" max="6404" width="17" customWidth="1"/>
+    <col min="6405" max="6405" width="17.140625" customWidth="1"/>
+    <col min="6406" max="6406" width="18.5703125" customWidth="1"/>
+    <col min="6407" max="6407" width="17" customWidth="1"/>
+    <col min="6408" max="6408" width="18.42578125" customWidth="1"/>
+    <col min="6409" max="6409" width="18" customWidth="1"/>
+    <col min="6410" max="6410" width="17.5703125" customWidth="1"/>
+    <col min="6411" max="6411" width="15.7109375" customWidth="1"/>
+    <col min="6414" max="6414" width="16.42578125" customWidth="1"/>
+    <col min="6415" max="6415" width="83.85546875" customWidth="1"/>
+    <col min="6657" max="6657" width="14.5703125" customWidth="1"/>
+    <col min="6658" max="6658" width="15.7109375" customWidth="1"/>
+    <col min="6659" max="6659" width="18.140625" customWidth="1"/>
+    <col min="6660" max="6660" width="17" customWidth="1"/>
+    <col min="6661" max="6661" width="17.140625" customWidth="1"/>
+    <col min="6662" max="6662" width="18.5703125" customWidth="1"/>
+    <col min="6663" max="6663" width="17" customWidth="1"/>
+    <col min="6664" max="6664" width="18.42578125" customWidth="1"/>
+    <col min="6665" max="6665" width="18" customWidth="1"/>
+    <col min="6666" max="6666" width="17.5703125" customWidth="1"/>
+    <col min="6667" max="6667" width="15.7109375" customWidth="1"/>
+    <col min="6670" max="6670" width="16.42578125" customWidth="1"/>
+    <col min="6671" max="6671" width="83.85546875" customWidth="1"/>
+    <col min="6913" max="6913" width="14.5703125" customWidth="1"/>
+    <col min="6914" max="6914" width="15.7109375" customWidth="1"/>
+    <col min="6915" max="6915" width="18.140625" customWidth="1"/>
+    <col min="6916" max="6916" width="17" customWidth="1"/>
+    <col min="6917" max="6917" width="17.140625" customWidth="1"/>
+    <col min="6918" max="6918" width="18.5703125" customWidth="1"/>
+    <col min="6919" max="6919" width="17" customWidth="1"/>
+    <col min="6920" max="6920" width="18.42578125" customWidth="1"/>
+    <col min="6921" max="6921" width="18" customWidth="1"/>
+    <col min="6922" max="6922" width="17.5703125" customWidth="1"/>
+    <col min="6923" max="6923" width="15.7109375" customWidth="1"/>
+    <col min="6926" max="6926" width="16.42578125" customWidth="1"/>
+    <col min="6927" max="6927" width="83.85546875" customWidth="1"/>
+    <col min="7169" max="7169" width="14.5703125" customWidth="1"/>
+    <col min="7170" max="7170" width="15.7109375" customWidth="1"/>
+    <col min="7171" max="7171" width="18.140625" customWidth="1"/>
+    <col min="7172" max="7172" width="17" customWidth="1"/>
+    <col min="7173" max="7173" width="17.140625" customWidth="1"/>
+    <col min="7174" max="7174" width="18.5703125" customWidth="1"/>
+    <col min="7175" max="7175" width="17" customWidth="1"/>
+    <col min="7176" max="7176" width="18.42578125" customWidth="1"/>
+    <col min="7177" max="7177" width="18" customWidth="1"/>
+    <col min="7178" max="7178" width="17.5703125" customWidth="1"/>
+    <col min="7179" max="7179" width="15.7109375" customWidth="1"/>
+    <col min="7182" max="7182" width="16.42578125" customWidth="1"/>
+    <col min="7183" max="7183" width="83.85546875" customWidth="1"/>
+    <col min="7425" max="7425" width="14.5703125" customWidth="1"/>
+    <col min="7426" max="7426" width="15.7109375" customWidth="1"/>
+    <col min="7427" max="7427" width="18.140625" customWidth="1"/>
+    <col min="7428" max="7428" width="17" customWidth="1"/>
+    <col min="7429" max="7429" width="17.140625" customWidth="1"/>
+    <col min="7430" max="7430" width="18.5703125" customWidth="1"/>
+    <col min="7431" max="7431" width="17" customWidth="1"/>
+    <col min="7432" max="7432" width="18.42578125" customWidth="1"/>
+    <col min="7433" max="7433" width="18" customWidth="1"/>
+    <col min="7434" max="7434" width="17.5703125" customWidth="1"/>
+    <col min="7435" max="7435" width="15.7109375" customWidth="1"/>
+    <col min="7438" max="7438" width="16.42578125" customWidth="1"/>
+    <col min="7439" max="7439" width="83.85546875" customWidth="1"/>
+    <col min="7681" max="7681" width="14.5703125" customWidth="1"/>
+    <col min="7682" max="7682" width="15.7109375" customWidth="1"/>
+    <col min="7683" max="7683" width="18.140625" customWidth="1"/>
+    <col min="7684" max="7684" width="17" customWidth="1"/>
+    <col min="7685" max="7685" width="17.140625" customWidth="1"/>
+    <col min="7686" max="7686" width="18.5703125" customWidth="1"/>
+    <col min="7687" max="7687" width="17" customWidth="1"/>
+    <col min="7688" max="7688" width="18.42578125" customWidth="1"/>
+    <col min="7689" max="7689" width="18" customWidth="1"/>
+    <col min="7690" max="7690" width="17.5703125" customWidth="1"/>
+    <col min="7691" max="7691" width="15.7109375" customWidth="1"/>
+    <col min="7694" max="7694" width="16.42578125" customWidth="1"/>
+    <col min="7695" max="7695" width="83.85546875" customWidth="1"/>
+    <col min="7937" max="7937" width="14.5703125" customWidth="1"/>
+    <col min="7938" max="7938" width="15.7109375" customWidth="1"/>
+    <col min="7939" max="7939" width="18.140625" customWidth="1"/>
+    <col min="7940" max="7940" width="17" customWidth="1"/>
+    <col min="7941" max="7941" width="17.140625" customWidth="1"/>
+    <col min="7942" max="7942" width="18.5703125" customWidth="1"/>
+    <col min="7943" max="7943" width="17" customWidth="1"/>
+    <col min="7944" max="7944" width="18.42578125" customWidth="1"/>
+    <col min="7945" max="7945" width="18" customWidth="1"/>
+    <col min="7946" max="7946" width="17.5703125" customWidth="1"/>
+    <col min="7947" max="7947" width="15.7109375" customWidth="1"/>
+    <col min="7950" max="7950" width="16.42578125" customWidth="1"/>
+    <col min="7951" max="7951" width="83.85546875" customWidth="1"/>
+    <col min="8193" max="8193" width="14.5703125" customWidth="1"/>
+    <col min="8194" max="8194" width="15.7109375" customWidth="1"/>
+    <col min="8195" max="8195" width="18.140625" customWidth="1"/>
+    <col min="8196" max="8196" width="17" customWidth="1"/>
+    <col min="8197" max="8197" width="17.140625" customWidth="1"/>
+    <col min="8198" max="8198" width="18.5703125" customWidth="1"/>
+    <col min="8199" max="8199" width="17" customWidth="1"/>
+    <col min="8200" max="8200" width="18.42578125" customWidth="1"/>
+    <col min="8201" max="8201" width="18" customWidth="1"/>
+    <col min="8202" max="8202" width="17.5703125" customWidth="1"/>
+    <col min="8203" max="8203" width="15.7109375" customWidth="1"/>
+    <col min="8206" max="8206" width="16.42578125" customWidth="1"/>
+    <col min="8207" max="8207" width="83.85546875" customWidth="1"/>
+    <col min="8449" max="8449" width="14.5703125" customWidth="1"/>
+    <col min="8450" max="8450" width="15.7109375" customWidth="1"/>
+    <col min="8451" max="8451" width="18.140625" customWidth="1"/>
+    <col min="8452" max="8452" width="17" customWidth="1"/>
+    <col min="8453" max="8453" width="17.140625" customWidth="1"/>
+    <col min="8454" max="8454" width="18.5703125" customWidth="1"/>
+    <col min="8455" max="8455" width="17" customWidth="1"/>
+    <col min="8456" max="8456" width="18.42578125" customWidth="1"/>
+    <col min="8457" max="8457" width="18" customWidth="1"/>
+    <col min="8458" max="8458" width="17.5703125" customWidth="1"/>
+    <col min="8459" max="8459" width="15.7109375" customWidth="1"/>
+    <col min="8462" max="8462" width="16.42578125" customWidth="1"/>
+    <col min="8463" max="8463" width="83.85546875" customWidth="1"/>
+    <col min="8705" max="8705" width="14.5703125" customWidth="1"/>
+    <col min="8706" max="8706" width="15.7109375" customWidth="1"/>
+    <col min="8707" max="8707" width="18.140625" customWidth="1"/>
+    <col min="8708" max="8708" width="17" customWidth="1"/>
+    <col min="8709" max="8709" width="17.140625" customWidth="1"/>
+    <col min="8710" max="8710" width="18.5703125" customWidth="1"/>
+    <col min="8711" max="8711" width="17" customWidth="1"/>
+    <col min="8712" max="8712" width="18.42578125" customWidth="1"/>
+    <col min="8713" max="8713" width="18" customWidth="1"/>
+    <col min="8714" max="8714" width="17.5703125" customWidth="1"/>
+    <col min="8715" max="8715" width="15.7109375" customWidth="1"/>
+    <col min="8718" max="8718" width="16.42578125" customWidth="1"/>
+    <col min="8719" max="8719" width="83.85546875" customWidth="1"/>
+    <col min="8961" max="8961" width="14.5703125" customWidth="1"/>
+    <col min="8962" max="8962" width="15.7109375" customWidth="1"/>
+    <col min="8963" max="8963" width="18.140625" customWidth="1"/>
+    <col min="8964" max="8964" width="17" customWidth="1"/>
+    <col min="8965" max="8965" width="17.140625" customWidth="1"/>
+    <col min="8966" max="8966" width="18.5703125" customWidth="1"/>
+    <col min="8967" max="8967" width="17" customWidth="1"/>
+    <col min="8968" max="8968" width="18.42578125" customWidth="1"/>
+    <col min="8969" max="8969" width="18" customWidth="1"/>
+    <col min="8970" max="8970" width="17.5703125" customWidth="1"/>
+    <col min="8971" max="8971" width="15.7109375" customWidth="1"/>
+    <col min="8974" max="8974" width="16.42578125" customWidth="1"/>
+    <col min="8975" max="8975" width="83.85546875" customWidth="1"/>
+    <col min="9217" max="9217" width="14.5703125" customWidth="1"/>
+    <col min="9218" max="9218" width="15.7109375" customWidth="1"/>
+    <col min="9219" max="9219" width="18.140625" customWidth="1"/>
+    <col min="9220" max="9220" width="17" customWidth="1"/>
+    <col min="9221" max="9221" width="17.140625" customWidth="1"/>
+    <col min="9222" max="9222" width="18.5703125" customWidth="1"/>
+    <col min="9223" max="9223" width="17" customWidth="1"/>
+    <col min="9224" max="9224" width="18.42578125" customWidth="1"/>
+    <col min="9225" max="9225" width="18" customWidth="1"/>
+    <col min="9226" max="9226" width="17.5703125" customWidth="1"/>
+    <col min="9227" max="9227" width="15.7109375" customWidth="1"/>
+    <col min="9230" max="9230" width="16.42578125" customWidth="1"/>
+    <col min="9231" max="9231" width="83.85546875" customWidth="1"/>
+    <col min="9473" max="9473" width="14.5703125" customWidth="1"/>
+    <col min="9474" max="9474" width="15.7109375" customWidth="1"/>
+    <col min="9475" max="9475" width="18.140625" customWidth="1"/>
+    <col min="9476" max="9476" width="17" customWidth="1"/>
+    <col min="9477" max="9477" width="17.140625" customWidth="1"/>
+    <col min="9478" max="9478" width="18.5703125" customWidth="1"/>
+    <col min="9479" max="9479" width="17" customWidth="1"/>
+    <col min="9480" max="9480" width="18.42578125" customWidth="1"/>
+    <col min="9481" max="9481" width="18" customWidth="1"/>
+    <col min="9482" max="9482" width="17.5703125" customWidth="1"/>
+    <col min="9483" max="9483" width="15.7109375" customWidth="1"/>
+    <col min="9486" max="9486" width="16.42578125" customWidth="1"/>
+    <col min="9487" max="9487" width="83.85546875" customWidth="1"/>
+    <col min="9729" max="9729" width="14.5703125" customWidth="1"/>
+    <col min="9730" max="9730" width="15.7109375" customWidth="1"/>
+    <col min="9731" max="9731" width="18.140625" customWidth="1"/>
+    <col min="9732" max="9732" width="17" customWidth="1"/>
+    <col min="9733" max="9733" width="17.140625" customWidth="1"/>
+    <col min="9734" max="9734" width="18.5703125" customWidth="1"/>
+    <col min="9735" max="9735" width="17" customWidth="1"/>
+    <col min="9736" max="9736" width="18.42578125" customWidth="1"/>
+    <col min="9737" max="9737" width="18" customWidth="1"/>
+    <col min="9738" max="9738" width="17.5703125" customWidth="1"/>
+    <col min="9739" max="9739" width="15.7109375" customWidth="1"/>
+    <col min="9742" max="9742" width="16.42578125" customWidth="1"/>
+    <col min="9743" max="9743" width="83.85546875" customWidth="1"/>
+    <col min="9985" max="9985" width="14.5703125" customWidth="1"/>
+    <col min="9986" max="9986" width="15.7109375" customWidth="1"/>
+    <col min="9987" max="9987" width="18.140625" customWidth="1"/>
+    <col min="9988" max="9988" width="17" customWidth="1"/>
+    <col min="9989" max="9989" width="17.140625" customWidth="1"/>
+    <col min="9990" max="9990" width="18.5703125" customWidth="1"/>
+    <col min="9991" max="9991" width="17" customWidth="1"/>
+    <col min="9992" max="9992" width="18.42578125" customWidth="1"/>
+    <col min="9993" max="9993" width="18" customWidth="1"/>
+    <col min="9994" max="9994" width="17.5703125" customWidth="1"/>
+    <col min="9995" max="9995" width="15.7109375" customWidth="1"/>
+    <col min="9998" max="9998" width="16.42578125" customWidth="1"/>
+    <col min="9999" max="9999" width="83.85546875" customWidth="1"/>
+    <col min="10241" max="10241" width="14.5703125" customWidth="1"/>
+    <col min="10242" max="10242" width="15.7109375" customWidth="1"/>
+    <col min="10243" max="10243" width="18.140625" customWidth="1"/>
+    <col min="10244" max="10244" width="17" customWidth="1"/>
+    <col min="10245" max="10245" width="17.140625" customWidth="1"/>
+    <col min="10246" max="10246" width="18.5703125" customWidth="1"/>
+    <col min="10247" max="10247" width="17" customWidth="1"/>
+    <col min="10248" max="10248" width="18.42578125" customWidth="1"/>
+    <col min="10249" max="10249" width="18" customWidth="1"/>
+    <col min="10250" max="10250" width="17.5703125" customWidth="1"/>
+    <col min="10251" max="10251" width="15.7109375" customWidth="1"/>
+    <col min="10254" max="10254" width="16.42578125" customWidth="1"/>
+    <col min="10255" max="10255" width="83.85546875" customWidth="1"/>
+    <col min="10497" max="10497" width="14.5703125" customWidth="1"/>
+    <col min="10498" max="10498" width="15.7109375" customWidth="1"/>
+    <col min="10499" max="10499" width="18.140625" customWidth="1"/>
+    <col min="10500" max="10500" width="17" customWidth="1"/>
+    <col min="10501" max="10501" width="17.140625" customWidth="1"/>
+    <col min="10502" max="10502" width="18.5703125" customWidth="1"/>
+    <col min="10503" max="10503" width="17" customWidth="1"/>
+    <col min="10504" max="10504" width="18.42578125" customWidth="1"/>
+    <col min="10505" max="10505" width="18" customWidth="1"/>
+    <col min="10506" max="10506" width="17.5703125" customWidth="1"/>
+    <col min="10507" max="10507" width="15.7109375" customWidth="1"/>
+    <col min="10510" max="10510" width="16.42578125" customWidth="1"/>
+    <col min="10511" max="10511" width="83.85546875" customWidth="1"/>
+    <col min="10753" max="10753" width="14.5703125" customWidth="1"/>
+    <col min="10754" max="10754" width="15.7109375" customWidth="1"/>
+    <col min="10755" max="10755" width="18.140625" customWidth="1"/>
+    <col min="10756" max="10756" width="17" customWidth="1"/>
+    <col min="10757" max="10757" width="17.140625" customWidth="1"/>
+    <col min="10758" max="10758" width="18.5703125" customWidth="1"/>
+    <col min="10759" max="10759" width="17" customWidth="1"/>
+    <col min="10760" max="10760" width="18.42578125" customWidth="1"/>
+    <col min="10761" max="10761" width="18" customWidth="1"/>
+    <col min="10762" max="10762" width="17.5703125" customWidth="1"/>
+    <col min="10763" max="10763" width="15.7109375" customWidth="1"/>
+    <col min="10766" max="10766" width="16.42578125" customWidth="1"/>
+    <col min="10767" max="10767" width="83.85546875" customWidth="1"/>
+    <col min="11009" max="11009" width="14.5703125" customWidth="1"/>
+    <col min="11010" max="11010" width="15.7109375" customWidth="1"/>
+    <col min="11011" max="11011" width="18.140625" customWidth="1"/>
+    <col min="11012" max="11012" width="17" customWidth="1"/>
+    <col min="11013" max="11013" width="17.140625" customWidth="1"/>
+    <col min="11014" max="11014" width="18.5703125" customWidth="1"/>
+    <col min="11015" max="11015" width="17" customWidth="1"/>
+    <col min="11016" max="11016" width="18.42578125" customWidth="1"/>
+    <col min="11017" max="11017" width="18" customWidth="1"/>
+    <col min="11018" max="11018" width="17.5703125" customWidth="1"/>
+    <col min="11019" max="11019" width="15.7109375" customWidth="1"/>
+    <col min="11022" max="11022" width="16.42578125" customWidth="1"/>
+    <col min="11023" max="11023" width="83.85546875" customWidth="1"/>
+    <col min="11265" max="11265" width="14.5703125" customWidth="1"/>
+    <col min="11266" max="11266" width="15.7109375" customWidth="1"/>
+    <col min="11267" max="11267" width="18.140625" customWidth="1"/>
+    <col min="11268" max="11268" width="17" customWidth="1"/>
+    <col min="11269" max="11269" width="17.140625" customWidth="1"/>
+    <col min="11270" max="11270" width="18.5703125" customWidth="1"/>
+    <col min="11271" max="11271" width="17" customWidth="1"/>
+    <col min="11272" max="11272" width="18.42578125" customWidth="1"/>
+    <col min="11273" max="11273" width="18" customWidth="1"/>
+    <col min="11274" max="11274" width="17.5703125" customWidth="1"/>
+    <col min="11275" max="11275" width="15.7109375" customWidth="1"/>
+    <col min="11278" max="11278" width="16.42578125" customWidth="1"/>
+    <col min="11279" max="11279" width="83.85546875" customWidth="1"/>
+    <col min="11521" max="11521" width="14.5703125" customWidth="1"/>
+    <col min="11522" max="11522" width="15.7109375" customWidth="1"/>
+    <col min="11523" max="11523" width="18.140625" customWidth="1"/>
+    <col min="11524" max="11524" width="17" customWidth="1"/>
+    <col min="11525" max="11525" width="17.140625" customWidth="1"/>
+    <col min="11526" max="11526" width="18.5703125" customWidth="1"/>
+    <col min="11527" max="11527" width="17" customWidth="1"/>
+    <col min="11528" max="11528" width="18.42578125" customWidth="1"/>
+    <col min="11529" max="11529" width="18" customWidth="1"/>
+    <col min="11530" max="11530" width="17.5703125" customWidth="1"/>
+    <col min="11531" max="11531" width="15.7109375" customWidth="1"/>
+    <col min="11534" max="11534" width="16.42578125" customWidth="1"/>
+    <col min="11535" max="11535" width="83.85546875" customWidth="1"/>
+    <col min="11777" max="11777" width="14.5703125" customWidth="1"/>
+    <col min="11778" max="11778" width="15.7109375" customWidth="1"/>
+    <col min="11779" max="11779" width="18.140625" customWidth="1"/>
+    <col min="11780" max="11780" width="17" customWidth="1"/>
+    <col min="11781" max="11781" width="17.140625" customWidth="1"/>
+    <col min="11782" max="11782" width="18.5703125" customWidth="1"/>
+    <col min="11783" max="11783" width="17" customWidth="1"/>
+    <col min="11784" max="11784" width="18.42578125" customWidth="1"/>
+    <col min="11785" max="11785" width="18" customWidth="1"/>
+    <col min="11786" max="11786" width="17.5703125" customWidth="1"/>
+    <col min="11787" max="11787" width="15.7109375" customWidth="1"/>
+    <col min="11790" max="11790" width="16.42578125" customWidth="1"/>
+    <col min="11791" max="11791" width="83.85546875" customWidth="1"/>
+    <col min="12033" max="12033" width="14.5703125" customWidth="1"/>
+    <col min="12034" max="12034" width="15.7109375" customWidth="1"/>
+    <col min="12035" max="12035" width="18.140625" customWidth="1"/>
+    <col min="12036" max="12036" width="17" customWidth="1"/>
+    <col min="12037" max="12037" width="17.140625" customWidth="1"/>
+    <col min="12038" max="12038" width="18.5703125" customWidth="1"/>
+    <col min="12039" max="12039" width="17" customWidth="1"/>
+    <col min="12040" max="12040" width="18.42578125" customWidth="1"/>
+    <col min="12041" max="12041" width="18" customWidth="1"/>
+    <col min="12042" max="12042" width="17.5703125" customWidth="1"/>
+    <col min="12043" max="12043" width="15.7109375" customWidth="1"/>
+    <col min="12046" max="12046" width="16.42578125" customWidth="1"/>
+    <col min="12047" max="12047" width="83.85546875" customWidth="1"/>
+    <col min="12289" max="12289" width="14.5703125" customWidth="1"/>
+    <col min="12290" max="12290" width="15.7109375" customWidth="1"/>
+    <col min="12291" max="12291" width="18.140625" customWidth="1"/>
+    <col min="12292" max="12292" width="17" customWidth="1"/>
+    <col min="12293" max="12293" width="17.140625" customWidth="1"/>
+    <col min="12294" max="12294" width="18.5703125" customWidth="1"/>
+    <col min="12295" max="12295" width="17" customWidth="1"/>
+    <col min="12296" max="12296" width="18.42578125" customWidth="1"/>
+    <col min="12297" max="12297" width="18" customWidth="1"/>
+    <col min="12298" max="12298" width="17.5703125" customWidth="1"/>
+    <col min="12299" max="12299" width="15.7109375" customWidth="1"/>
+    <col min="12302" max="12302" width="16.42578125" customWidth="1"/>
+    <col min="12303" max="12303" width="83.85546875" customWidth="1"/>
+    <col min="12545" max="12545" width="14.5703125" customWidth="1"/>
+    <col min="12546" max="12546" width="15.7109375" customWidth="1"/>
+    <col min="12547" max="12547" width="18.140625" customWidth="1"/>
+    <col min="12548" max="12548" width="17" customWidth="1"/>
+    <col min="12549" max="12549" width="17.140625" customWidth="1"/>
+    <col min="12550" max="12550" width="18.5703125" customWidth="1"/>
+    <col min="12551" max="12551" width="17" customWidth="1"/>
+    <col min="12552" max="12552" width="18.42578125" customWidth="1"/>
+    <col min="12553" max="12553" width="18" customWidth="1"/>
+    <col min="12554" max="12554" width="17.5703125" customWidth="1"/>
+    <col min="12555" max="12555" width="15.7109375" customWidth="1"/>
+    <col min="12558" max="12558" width="16.42578125" customWidth="1"/>
+    <col min="12559" max="12559" width="83.85546875" customWidth="1"/>
+    <col min="12801" max="12801" width="14.5703125" customWidth="1"/>
+    <col min="12802" max="12802" width="15.7109375" customWidth="1"/>
+    <col min="12803" max="12803" width="18.140625" customWidth="1"/>
+    <col min="12804" max="12804" width="17" customWidth="1"/>
+    <col min="12805" max="12805" width="17.140625" customWidth="1"/>
+    <col min="12806" max="12806" width="18.5703125" customWidth="1"/>
+    <col min="12807" max="12807" width="17" customWidth="1"/>
+    <col min="12808" max="12808" width="18.42578125" customWidth="1"/>
+    <col min="12809" max="12809" width="18" customWidth="1"/>
+    <col min="12810" max="12810" width="17.5703125" customWidth="1"/>
+    <col min="12811" max="12811" width="15.7109375" customWidth="1"/>
+    <col min="12814" max="12814" width="16.42578125" customWidth="1"/>
+    <col min="12815" max="12815" width="83.85546875" customWidth="1"/>
+    <col min="13057" max="13057" width="14.5703125" customWidth="1"/>
+    <col min="13058" max="13058" width="15.7109375" customWidth="1"/>
+    <col min="13059" max="13059" width="18.140625" customWidth="1"/>
+    <col min="13060" max="13060" width="17" customWidth="1"/>
+    <col min="13061" max="13061" width="17.140625" customWidth="1"/>
+    <col min="13062" max="13062" width="18.5703125" customWidth="1"/>
+    <col min="13063" max="13063" width="17" customWidth="1"/>
+    <col min="13064" max="13064" width="18.42578125" customWidth="1"/>
+    <col min="13065" max="13065" width="18" customWidth="1"/>
+    <col min="13066" max="13066" width="17.5703125" customWidth="1"/>
+    <col min="13067" max="13067" width="15.7109375" customWidth="1"/>
+    <col min="13070" max="13070" width="16.42578125" customWidth="1"/>
+    <col min="13071" max="13071" width="83.85546875" customWidth="1"/>
+    <col min="13313" max="13313" width="14.5703125" customWidth="1"/>
+    <col min="13314" max="13314" width="15.7109375" customWidth="1"/>
+    <col min="13315" max="13315" width="18.140625" customWidth="1"/>
+    <col min="13316" max="13316" width="17" customWidth="1"/>
+    <col min="13317" max="13317" width="17.140625" customWidth="1"/>
+    <col min="13318" max="13318" width="18.5703125" customWidth="1"/>
+    <col min="13319" max="13319" width="17" customWidth="1"/>
+    <col min="13320" max="13320" width="18.42578125" customWidth="1"/>
+    <col min="13321" max="13321" width="18" customWidth="1"/>
+    <col min="13322" max="13322" width="17.5703125" customWidth="1"/>
+    <col min="13323" max="13323" width="15.7109375" customWidth="1"/>
+    <col min="13326" max="13326" width="16.42578125" customWidth="1"/>
+    <col min="13327" max="13327" width="83.85546875" customWidth="1"/>
+    <col min="13569" max="13569" width="14.5703125" customWidth="1"/>
+    <col min="13570" max="13570" width="15.7109375" customWidth="1"/>
+    <col min="13571" max="13571" width="18.140625" customWidth="1"/>
+    <col min="13572" max="13572" width="17" customWidth="1"/>
+    <col min="13573" max="13573" width="17.140625" customWidth="1"/>
+    <col min="13574" max="13574" width="18.5703125" customWidth="1"/>
+    <col min="13575" max="13575" width="17" customWidth="1"/>
+    <col min="13576" max="13576" width="18.42578125" customWidth="1"/>
+    <col min="13577" max="13577" width="18" customWidth="1"/>
+    <col min="13578" max="13578" width="17.5703125" customWidth="1"/>
+    <col min="13579" max="13579" width="15.7109375" customWidth="1"/>
+    <col min="13582" max="13582" width="16.42578125" customWidth="1"/>
+    <col min="13583" max="13583" width="83.85546875" customWidth="1"/>
+    <col min="13825" max="13825" width="14.5703125" customWidth="1"/>
+    <col min="13826" max="13826" width="15.7109375" customWidth="1"/>
+    <col min="13827" max="13827" width="18.140625" customWidth="1"/>
+    <col min="13828" max="13828" width="17" customWidth="1"/>
+    <col min="13829" max="13829" width="17.140625" customWidth="1"/>
+    <col min="13830" max="13830" width="18.5703125" customWidth="1"/>
+    <col min="13831" max="13831" width="17" customWidth="1"/>
+    <col min="13832" max="13832" width="18.42578125" customWidth="1"/>
+    <col min="13833" max="13833" width="18" customWidth="1"/>
+    <col min="13834" max="13834" width="17.5703125" customWidth="1"/>
+    <col min="13835" max="13835" width="15.7109375" customWidth="1"/>
+    <col min="13838" max="13838" width="16.42578125" customWidth="1"/>
+    <col min="13839" max="13839" width="83.85546875" customWidth="1"/>
+    <col min="14081" max="14081" width="14.5703125" customWidth="1"/>
+    <col min="14082" max="14082" width="15.7109375" customWidth="1"/>
+    <col min="14083" max="14083" width="18.140625" customWidth="1"/>
+    <col min="14084" max="14084" width="17" customWidth="1"/>
+    <col min="14085" max="14085" width="17.140625" customWidth="1"/>
+    <col min="14086" max="14086" width="18.5703125" customWidth="1"/>
+    <col min="14087" max="14087" width="17" customWidth="1"/>
+    <col min="14088" max="14088" width="18.42578125" customWidth="1"/>
+    <col min="14089" max="14089" width="18" customWidth="1"/>
+    <col min="14090" max="14090" width="17.5703125" customWidth="1"/>
+    <col min="14091" max="14091" width="15.7109375" customWidth="1"/>
+    <col min="14094" max="14094" width="16.42578125" customWidth="1"/>
+    <col min="14095" max="14095" width="83.85546875" customWidth="1"/>
+    <col min="14337" max="14337" width="14.5703125" customWidth="1"/>
+    <col min="14338" max="14338" width="15.7109375" customWidth="1"/>
+    <col min="14339" max="14339" width="18.140625" customWidth="1"/>
+    <col min="14340" max="14340" width="17" customWidth="1"/>
+    <col min="14341" max="14341" width="17.140625" customWidth="1"/>
+    <col min="14342" max="14342" width="18.5703125" customWidth="1"/>
+    <col min="14343" max="14343" width="17" customWidth="1"/>
+    <col min="14344" max="14344" width="18.42578125" customWidth="1"/>
+    <col min="14345" max="14345" width="18" customWidth="1"/>
+    <col min="14346" max="14346" width="17.5703125" customWidth="1"/>
+    <col min="14347" max="14347" width="15.7109375" customWidth="1"/>
+    <col min="14350" max="14350" width="16.42578125" customWidth="1"/>
+    <col min="14351" max="14351" width="83.85546875" customWidth="1"/>
+    <col min="14593" max="14593" width="14.5703125" customWidth="1"/>
+    <col min="14594" max="14594" width="15.7109375" customWidth="1"/>
+    <col min="14595" max="14595" width="18.140625" customWidth="1"/>
+    <col min="14596" max="14596" width="17" customWidth="1"/>
+    <col min="14597" max="14597" width="17.140625" customWidth="1"/>
+    <col min="14598" max="14598" width="18.5703125" customWidth="1"/>
+    <col min="14599" max="14599" width="17" customWidth="1"/>
+    <col min="14600" max="14600" width="18.42578125" customWidth="1"/>
+    <col min="14601" max="14601" width="18" customWidth="1"/>
+    <col min="14602" max="14602" width="17.5703125" customWidth="1"/>
+    <col min="14603" max="14603" width="15.7109375" customWidth="1"/>
+    <col min="14606" max="14606" width="16.42578125" customWidth="1"/>
+    <col min="14607" max="14607" width="83.85546875" customWidth="1"/>
+    <col min="14849" max="14849" width="14.5703125" customWidth="1"/>
+    <col min="14850" max="14850" width="15.7109375" customWidth="1"/>
+    <col min="14851" max="14851" width="18.140625" customWidth="1"/>
+    <col min="14852" max="14852" width="17" customWidth="1"/>
+    <col min="14853" max="14853" width="17.140625" customWidth="1"/>
+    <col min="14854" max="14854" width="18.5703125" customWidth="1"/>
+    <col min="14855" max="14855" width="17" customWidth="1"/>
+    <col min="14856" max="14856" width="18.42578125" customWidth="1"/>
+    <col min="14857" max="14857" width="18" customWidth="1"/>
+    <col min="14858" max="14858" width="17.5703125" customWidth="1"/>
+    <col min="14859" max="14859" width="15.7109375" customWidth="1"/>
+    <col min="14862" max="14862" width="16.42578125" customWidth="1"/>
+    <col min="14863" max="14863" width="83.85546875" customWidth="1"/>
+    <col min="15105" max="15105" width="14.5703125" customWidth="1"/>
+    <col min="15106" max="15106" width="15.7109375" customWidth="1"/>
+    <col min="15107" max="15107" width="18.140625" customWidth="1"/>
+    <col min="15108" max="15108" width="17" customWidth="1"/>
+    <col min="15109" max="15109" width="17.140625" customWidth="1"/>
+    <col min="15110" max="15110" width="18.5703125" customWidth="1"/>
+    <col min="15111" max="15111" width="17" customWidth="1"/>
+    <col min="15112" max="15112" width="18.42578125" customWidth="1"/>
+    <col min="15113" max="15113" width="18" customWidth="1"/>
+    <col min="15114" max="15114" width="17.5703125" customWidth="1"/>
+    <col min="15115" max="15115" width="15.7109375" customWidth="1"/>
+    <col min="15118" max="15118" width="16.42578125" customWidth="1"/>
+    <col min="15119" max="15119" width="83.85546875" customWidth="1"/>
+    <col min="15361" max="15361" width="14.5703125" customWidth="1"/>
+    <col min="15362" max="15362" width="15.7109375" customWidth="1"/>
+    <col min="15363" max="15363" width="18.140625" customWidth="1"/>
+    <col min="15364" max="15364" width="17" customWidth="1"/>
+    <col min="15365" max="15365" width="17.140625" customWidth="1"/>
+    <col min="15366" max="15366" width="18.5703125" customWidth="1"/>
+    <col min="15367" max="15367" width="17" customWidth="1"/>
+    <col min="15368" max="15368" width="18.42578125" customWidth="1"/>
+    <col min="15369" max="15369" width="18" customWidth="1"/>
+    <col min="15370" max="15370" width="17.5703125" customWidth="1"/>
+    <col min="15371" max="15371" width="15.7109375" customWidth="1"/>
+    <col min="15374" max="15374" width="16.42578125" customWidth="1"/>
+    <col min="15375" max="15375" width="83.85546875" customWidth="1"/>
+    <col min="15617" max="15617" width="14.5703125" customWidth="1"/>
+    <col min="15618" max="15618" width="15.7109375" customWidth="1"/>
+    <col min="15619" max="15619" width="18.140625" customWidth="1"/>
+    <col min="15620" max="15620" width="17" customWidth="1"/>
+    <col min="15621" max="15621" width="17.140625" customWidth="1"/>
+    <col min="15622" max="15622" width="18.5703125" customWidth="1"/>
+    <col min="15623" max="15623" width="17" customWidth="1"/>
+    <col min="15624" max="15624" width="18.42578125" customWidth="1"/>
+    <col min="15625" max="15625" width="18" customWidth="1"/>
+    <col min="15626" max="15626" width="17.5703125" customWidth="1"/>
+    <col min="15627" max="15627" width="15.7109375" customWidth="1"/>
+    <col min="15630" max="15630" width="16.42578125" customWidth="1"/>
+    <col min="15631" max="15631" width="83.85546875" customWidth="1"/>
+    <col min="15873" max="15873" width="14.5703125" customWidth="1"/>
+    <col min="15874" max="15874" width="15.7109375" customWidth="1"/>
+    <col min="15875" max="15875" width="18.140625" customWidth="1"/>
+    <col min="15876" max="15876" width="17" customWidth="1"/>
+    <col min="15877" max="15877" width="17.140625" customWidth="1"/>
+    <col min="15878" max="15878" width="18.5703125" customWidth="1"/>
+    <col min="15879" max="15879" width="17" customWidth="1"/>
+    <col min="15880" max="15880" width="18.42578125" customWidth="1"/>
+    <col min="15881" max="15881" width="18" customWidth="1"/>
+    <col min="15882" max="15882" width="17.5703125" customWidth="1"/>
+    <col min="15883" max="15883" width="15.7109375" customWidth="1"/>
+    <col min="15886" max="15886" width="16.42578125" customWidth="1"/>
+    <col min="15887" max="15887" width="83.85546875" customWidth="1"/>
+    <col min="16129" max="16129" width="14.5703125" customWidth="1"/>
+    <col min="16130" max="16130" width="15.7109375" customWidth="1"/>
+    <col min="16131" max="16131" width="18.140625" customWidth="1"/>
+    <col min="16132" max="16132" width="17" customWidth="1"/>
+    <col min="16133" max="16133" width="17.140625" customWidth="1"/>
+    <col min="16134" max="16134" width="18.5703125" customWidth="1"/>
+    <col min="16135" max="16135" width="17" customWidth="1"/>
+    <col min="16136" max="16136" width="18.42578125" customWidth="1"/>
+    <col min="16137" max="16137" width="18" customWidth="1"/>
+    <col min="16138" max="16138" width="17.5703125" customWidth="1"/>
+    <col min="16139" max="16139" width="15.7109375" customWidth="1"/>
+    <col min="16142" max="16142" width="16.42578125" customWidth="1"/>
+    <col min="16143" max="16143" width="83.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="114"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="114"/>
-      <c r="Q2" s="114"/>
-      <c r="R2" s="114"/>
-      <c r="S2" s="114"/>
-      <c r="T2" s="114"/>
-      <c r="U2" s="114"/>
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
     </row>
-    <row r="3" spans="1:22" ht="27" x14ac:dyDescent="0.25">
-      <c r="A3" s="115" t="s">
+    <row r="3" spans="1:16" ht="27" x14ac:dyDescent="0.25">
+      <c r="A3" s="112" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="115"/>
-      <c r="O3" s="115"/>
-      <c r="P3" s="115"/>
-      <c r="Q3" s="115"/>
-      <c r="R3" s="115"/>
-      <c r="S3" s="115"/>
-      <c r="T3" s="115"/>
-      <c r="U3" s="115"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="112"/>
+      <c r="M3" s="112"/>
+      <c r="N3" s="112"/>
+      <c r="O3" s="112"/>
     </row>
-    <row r="4" spans="1:22" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="37"/>
-      <c r="U4" s="37"/>
+    <row r="4" spans="1:16" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
     </row>
-    <row r="5" spans="1:22" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="116" t="s">
+    <row r="5" spans="1:16" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="113" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="116"/>
-      <c r="K5" s="116"/>
-      <c r="L5" s="116"/>
-      <c r="M5" s="116"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="116"/>
-      <c r="P5" s="116"/>
-      <c r="Q5" s="116"/>
-      <c r="R5" s="116"/>
-      <c r="S5" s="116"/>
-      <c r="T5" s="116"/>
-      <c r="U5" s="116"/>
+      <c r="B5" s="113"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="113"/>
+      <c r="K5" s="113"/>
+      <c r="L5" s="113"/>
+      <c r="M5" s="113"/>
+      <c r="N5" s="113"/>
+      <c r="O5" s="113"/>
     </row>
-    <row r="6" spans="1:22" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="37"/>
-      <c r="U6" s="37"/>
+    <row r="6" spans="1:16" ht="18" x14ac:dyDescent="0.25">
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
     </row>
-    <row r="7" spans="1:22" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="39" t="s">
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
     </row>
-    <row r="8" spans="1:22" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
+    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="113" t="s">
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="110" t="s">
         <v>131</v>
       </c>
-      <c r="E8" s="113"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="113"/>
-      <c r="H8" s="113"/>
-      <c r="I8" s="113"/>
-      <c r="J8" s="113"/>
-      <c r="K8" s="113"/>
-      <c r="L8" s="113"/>
-      <c r="M8" s="113"/>
-      <c r="N8" s="113"/>
-      <c r="O8" s="113"/>
-      <c r="P8" s="113"/>
-      <c r="Q8" s="113"/>
-      <c r="R8" s="113"/>
-      <c r="S8" s="113"/>
-      <c r="T8" s="113"/>
-      <c r="U8" s="44"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="110"/>
+      <c r="L8" s="110"/>
+      <c r="M8" s="110"/>
+      <c r="N8" s="110"/>
+      <c r="O8" s="38"/>
     </row>
-    <row r="9" spans="1:22" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
+    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="113" t="s">
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="110" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="113"/>
-      <c r="F9" s="113"/>
-      <c r="G9" s="113"/>
-      <c r="H9" s="113"/>
-      <c r="I9" s="113"/>
-      <c r="J9" s="113"/>
-      <c r="K9" s="113"/>
-      <c r="L9" s="113"/>
-      <c r="M9" s="113"/>
-      <c r="N9" s="113"/>
-      <c r="O9" s="113"/>
-      <c r="P9" s="113"/>
-      <c r="Q9" s="113"/>
-      <c r="R9" s="113"/>
-      <c r="S9" s="113"/>
-      <c r="T9" s="113"/>
-      <c r="U9" s="44"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="110"/>
+      <c r="L9" s="110"/>
+      <c r="M9" s="110"/>
+      <c r="N9" s="110"/>
+      <c r="O9" s="38"/>
     </row>
-    <row r="10" spans="1:22" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
+    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45" t="s">
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="44"/>
-      <c r="U10" s="44"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
     </row>
-    <row r="11" spans="1:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="41"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="41"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="47">
+    <row r="11" spans="1:16" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="35"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="41">
         <v>2013</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="124" t="s">
+    <row r="12" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="106" t="s">
         <v>107</v>
       </c>
-      <c r="B12" s="126" t="s">
+      <c r="B12" s="108" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="126"/>
-      <c r="D12" s="126"/>
-      <c r="E12" s="127" t="s">
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="109" t="s">
         <v>109</v>
       </c>
-      <c r="F12" s="127" t="s">
+      <c r="F12" s="109" t="s">
         <v>110</v>
       </c>
-      <c r="G12" s="119" t="s">
+      <c r="G12" s="101" t="s">
         <v>111</v>
       </c>
-      <c r="H12" s="117" t="s">
+      <c r="H12" s="99" t="s">
         <v>112</v>
       </c>
-      <c r="I12" s="118"/>
-      <c r="J12" s="118"/>
-      <c r="K12" s="118"/>
-      <c r="L12" s="118"/>
-      <c r="M12" s="118"/>
-      <c r="N12" s="118"/>
-      <c r="O12" s="118"/>
-      <c r="P12" s="118"/>
-      <c r="Q12" s="118"/>
-      <c r="R12" s="118"/>
-      <c r="S12" s="118"/>
-      <c r="T12" s="118"/>
-      <c r="U12" s="119" t="s">
+      <c r="I12" s="100"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="100"/>
+      <c r="M12" s="100"/>
+      <c r="N12" s="100"/>
+      <c r="O12" s="101" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="125"/>
-      <c r="B13" s="58" t="s">
+    <row r="13" spans="1:16" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="107"/>
+      <c r="B13" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="58" t="s">
+      <c r="C13" s="67" t="s">
         <v>115</v>
       </c>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="E13" s="128"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="48" t="s">
+      <c r="E13" s="117"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="I13" s="48" t="s">
+      <c r="I13" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="J13" s="48" t="s">
+      <c r="J13" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="K13" s="48" t="s">
+      <c r="K13" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="L13" s="48" t="s">
-        <v>120</v>
-      </c>
-      <c r="M13" s="48" t="s">
-        <v>121</v>
-      </c>
-      <c r="N13" s="48" t="s">
+      <c r="L13" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="O13" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="P13" s="48" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q13" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="R13" s="48" t="s">
-        <v>125</v>
-      </c>
-      <c r="S13" s="48" t="s">
+      <c r="M13" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="T13" s="48" t="s">
+      <c r="N13" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="U13" s="120"/>
+      <c r="O13" s="102"/>
     </row>
-    <row r="14" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="63"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="64"/>
-      <c r="N14" s="64"/>
-      <c r="O14" s="64"/>
-      <c r="P14" s="66"/>
-      <c r="Q14" s="64"/>
-      <c r="R14" s="64"/>
-      <c r="S14" s="64"/>
-      <c r="T14" s="64"/>
-      <c r="U14" s="67"/>
+    <row r="14" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="55">
+        <v>1</v>
+      </c>
+      <c r="B14" s="131"/>
+      <c r="C14" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" s="131"/>
+      <c r="E14" s="132">
+        <v>6464</v>
+      </c>
+      <c r="F14" s="132" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="133">
+        <f>SUM(H14:N14)</f>
+        <v>4500</v>
+      </c>
+      <c r="H14" s="133"/>
+      <c r="I14" s="133"/>
+      <c r="J14" s="133"/>
+      <c r="K14" s="133"/>
+      <c r="L14" s="133"/>
+      <c r="M14" s="133"/>
+      <c r="N14" s="133">
+        <v>4500</v>
+      </c>
+      <c r="O14" s="134" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="15" spans="1:22" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="63">
+    <row r="15" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="55">
+        <v>2</v>
+      </c>
+      <c r="B15" s="56"/>
+      <c r="C15" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="56"/>
+      <c r="E15" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="59">
+        <f>SUM(H15:N15)</f>
+        <v>500</v>
+      </c>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59">
+        <v>500</v>
+      </c>
+      <c r="O15" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="55">
+        <v>3</v>
+      </c>
+      <c r="B16" s="56"/>
+      <c r="C16" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16" s="56"/>
+      <c r="E16" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="59">
+        <f>SUM(H16:N16)</f>
+        <v>509.4</v>
+      </c>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59">
+        <v>509.4</v>
+      </c>
+      <c r="N16" s="59"/>
+      <c r="O16" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="P16" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="55">
+        <v>4</v>
+      </c>
+      <c r="B17" s="56"/>
+      <c r="C17" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="56"/>
+      <c r="E17" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="59">
+        <f>SUM(H17:N17)</f>
+        <v>4491</v>
+      </c>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="59">
+        <v>4491</v>
+      </c>
+      <c r="O17" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="P17" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="55">
+        <v>5</v>
+      </c>
+      <c r="B18" s="56"/>
+      <c r="C18" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" s="56"/>
+      <c r="E18" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="59">
+        <f>SUM(H18:N18)</f>
+        <v>499</v>
+      </c>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59">
+        <v>499</v>
+      </c>
+      <c r="O18" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="P18" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="55">
         <v>1</v>
       </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="68" t="s">
-        <v>126</v>
-      </c>
-      <c r="D15" s="64"/>
-      <c r="E15" s="69">
-        <v>6464</v>
-      </c>
-      <c r="F15" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="70">
-        <f>SUM(H15:T15)</f>
-        <v>4500</v>
-      </c>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="70"/>
-      <c r="O15" s="70"/>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="70"/>
-      <c r="R15" s="70"/>
-      <c r="S15" s="70"/>
-      <c r="T15" s="70">
-        <v>4500</v>
-      </c>
-      <c r="U15" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="V15" s="14" t="s">
-        <v>33</v>
-      </c>
+      <c r="B19" s="56"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="62">
+        <v>3181</v>
+      </c>
+      <c r="G19" s="63">
+        <f>SUM(H19:M19)</f>
+        <v>215393</v>
+      </c>
+      <c r="H19" s="63">
+        <v>91820</v>
+      </c>
+      <c r="I19" s="63">
+        <v>50194</v>
+      </c>
+      <c r="J19" s="63">
+        <v>70379</v>
+      </c>
+      <c r="K19" s="63">
+        <v>1500</v>
+      </c>
+      <c r="L19" s="64">
+        <v>1500</v>
+      </c>
+      <c r="M19" s="56"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="P19" s="50"/>
     </row>
-    <row r="16" spans="1:22" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="63">
-        <v>2</v>
-      </c>
-      <c r="B16" s="64"/>
-      <c r="C16" s="68" t="s">
-        <v>126</v>
-      </c>
-      <c r="D16" s="64"/>
-      <c r="E16" s="69" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="70">
-        <f>SUM(H16:T16)</f>
-        <v>500</v>
-      </c>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="70"/>
-      <c r="O16" s="70"/>
-      <c r="P16" s="70"/>
-      <c r="Q16" s="70"/>
-      <c r="R16" s="70"/>
-      <c r="S16" s="70"/>
-      <c r="T16" s="70">
-        <v>500</v>
-      </c>
-      <c r="U16" s="71" t="s">
-        <v>57</v>
-      </c>
-      <c r="V16" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="63">
-        <v>3</v>
-      </c>
-      <c r="B17" s="64"/>
-      <c r="C17" s="68" t="s">
-        <v>128</v>
-      </c>
-      <c r="D17" s="64"/>
-      <c r="E17" s="69" t="s">
-        <v>80</v>
-      </c>
-      <c r="F17" s="69" t="s">
-        <v>71</v>
-      </c>
-      <c r="G17" s="70">
-        <f>SUM(H17:T17)</f>
-        <v>509.4</v>
-      </c>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="70"/>
-      <c r="P17" s="70"/>
-      <c r="Q17" s="70"/>
-      <c r="R17" s="70"/>
-      <c r="S17" s="70">
-        <v>509.4</v>
-      </c>
-      <c r="T17" s="70"/>
-      <c r="U17" s="71" t="s">
-        <v>83</v>
-      </c>
-      <c r="V17" s="14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="63">
-        <v>4</v>
-      </c>
-      <c r="B18" s="64"/>
-      <c r="C18" s="68" t="s">
-        <v>126</v>
-      </c>
-      <c r="D18" s="64"/>
-      <c r="E18" s="69" t="s">
-        <v>88</v>
-      </c>
-      <c r="F18" s="69" t="s">
-        <v>84</v>
-      </c>
-      <c r="G18" s="70">
-        <f>SUM(H18:T18)</f>
-        <v>4491</v>
-      </c>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="70"/>
-      <c r="N18" s="70"/>
-      <c r="O18" s="70"/>
-      <c r="P18" s="70"/>
-      <c r="Q18" s="70"/>
-      <c r="R18" s="70"/>
-      <c r="S18" s="70"/>
-      <c r="T18" s="70">
-        <v>4491</v>
-      </c>
-      <c r="U18" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="V18" s="14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="63">
-        <v>5</v>
-      </c>
-      <c r="B19" s="64"/>
-      <c r="C19" s="68" t="s">
-        <v>126</v>
-      </c>
-      <c r="D19" s="64"/>
-      <c r="E19" s="69" t="s">
-        <v>92</v>
-      </c>
-      <c r="F19" s="69" t="s">
-        <v>84</v>
-      </c>
-      <c r="G19" s="70">
-        <f>SUM(H19:T19)</f>
-        <v>499</v>
-      </c>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="70"/>
-      <c r="N19" s="70"/>
-      <c r="O19" s="70"/>
-      <c r="P19" s="70"/>
-      <c r="Q19" s="70"/>
-      <c r="R19" s="70"/>
-      <c r="S19" s="70"/>
-      <c r="T19" s="70">
-        <v>499</v>
-      </c>
-      <c r="U19" s="71" t="s">
-        <v>94</v>
-      </c>
-      <c r="V19" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="63">
-        <v>1</v>
-      </c>
-      <c r="B20" s="64"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" s="73" t="s">
-        <v>58</v>
-      </c>
-      <c r="G20" s="74">
-        <f>SUM(H20:S20)</f>
-        <v>215393</v>
-      </c>
-      <c r="H20" s="74">
+    <row r="20" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="103" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" s="104"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="65">
+        <f>SUM(G14:G19)</f>
+        <v>225892.4</v>
+      </c>
+      <c r="H20" s="65">
+        <f t="shared" ref="H20:N20" si="0">SUM(H14:H19)</f>
         <v>91820</v>
       </c>
-      <c r="I20" s="74">
-        <v>50194</v>
-      </c>
-      <c r="J20" s="74">
-        <v>70379</v>
-      </c>
-      <c r="K20" s="74">
-        <v>1500</v>
-      </c>
-      <c r="L20" s="74"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="75">
-        <v>1500</v>
-      </c>
-      <c r="O20" s="64"/>
-      <c r="P20" s="66"/>
-      <c r="Q20" s="64"/>
-      <c r="R20" s="64"/>
-      <c r="S20" s="64"/>
-      <c r="T20" s="71"/>
-      <c r="U20" s="71" t="s">
-        <v>130</v>
-      </c>
-      <c r="V20" s="57"/>
-    </row>
-    <row r="21" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="121" t="s">
-        <v>127</v>
-      </c>
-      <c r="B21" s="122"/>
-      <c r="C21" s="122"/>
-      <c r="D21" s="122"/>
-      <c r="E21" s="122"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="76">
-        <f>SUM(G15:G20)</f>
-        <v>225892.4</v>
-      </c>
-      <c r="H21" s="76">
-        <f t="shared" ref="H21:T21" si="0">SUM(H15:H20)</f>
-        <v>91820</v>
-      </c>
-      <c r="I21" s="76">
+      <c r="I20" s="65">
         <f t="shared" si="0"/>
         <v>50194</v>
       </c>
-      <c r="J21" s="76">
+      <c r="J20" s="65">
         <f t="shared" si="0"/>
         <v>70379</v>
       </c>
-      <c r="K21" s="76">
+      <c r="K20" s="65">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="L21" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M21" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N21" s="76">
+      <c r="L20" s="65">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="O21" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R21" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S21" s="76">
+      <c r="M20" s="65">
         <f t="shared" si="0"/>
         <v>509.4</v>
       </c>
-      <c r="T21" s="76">
+      <c r="N20" s="65">
         <f t="shared" si="0"/>
         <v>9990</v>
       </c>
-      <c r="U21" s="77"/>
+      <c r="O20" s="66"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="54"/>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="54"/>
-      <c r="R22" s="54"/>
-      <c r="S22" s="54"/>
-      <c r="T22" s="54"/>
-      <c r="U22" s="55"/>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="43"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="H12:T12"/>
-    <mergeCell ref="U12:U13"/>
-    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="D8:N8"/>
+    <mergeCell ref="D9:N9"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="H12:N12"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="A20:F20"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="G12:G13"/>
-    <mergeCell ref="D8:T8"/>
-    <mergeCell ref="D9:T9"/>
-    <mergeCell ref="A2:U2"/>
-    <mergeCell ref="A3:U3"/>
-    <mergeCell ref="A5:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="E16:F20 F15" numberStoredAsText="1"/>
+    <ignoredError sqref="E15:F18 F14 E19" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -6275,8 +6041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7114,413 +6880,413 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="50"/>
-      <c r="B1" s="51"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="55"/>
+      <c r="A1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="48"/>
     </row>
     <row r="2" spans="1:20" ht="27" x14ac:dyDescent="0.25">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="112" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="115"/>
-      <c r="Q2" s="115"/>
-      <c r="R2" s="115"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
+      <c r="R2" s="112"/>
     </row>
     <row r="3" spans="1:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
     </row>
     <row r="4" spans="1:20" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="113" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="116"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="113"/>
+      <c r="J4" s="113"/>
+      <c r="K4" s="113"/>
+      <c r="L4" s="113"/>
+      <c r="M4" s="113"/>
+      <c r="N4" s="113"/>
+      <c r="O4" s="113"/>
+      <c r="P4" s="113"/>
+      <c r="Q4" s="113"/>
+      <c r="R4" s="113"/>
     </row>
     <row r="5" spans="1:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="37"/>
-      <c r="S5" s="37"/>
-      <c r="T5" s="37"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
     </row>
     <row r="6" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="39" t="s">
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
     </row>
     <row r="7" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="113" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="110" t="s">
         <v>131</v>
       </c>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="113"/>
-      <c r="J7" s="113"/>
-      <c r="K7" s="113"/>
-      <c r="L7" s="113"/>
-      <c r="M7" s="113"/>
-      <c r="N7" s="113"/>
-      <c r="O7" s="113"/>
-      <c r="P7" s="113"/>
-      <c r="Q7" s="113"/>
-      <c r="R7" s="113"/>
-      <c r="S7" s="113"/>
-      <c r="T7" s="113"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="110"/>
+      <c r="L7" s="110"/>
+      <c r="M7" s="110"/>
+      <c r="N7" s="110"/>
+      <c r="O7" s="110"/>
+      <c r="P7" s="110"/>
+      <c r="Q7" s="110"/>
+      <c r="R7" s="110"/>
+      <c r="S7" s="110"/>
+      <c r="T7" s="110"/>
     </row>
     <row r="8" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="113" t="s">
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="110" t="s">
         <v>132</v>
       </c>
-      <c r="E8" s="113"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="113"/>
-      <c r="H8" s="113"/>
-      <c r="I8" s="113"/>
-      <c r="J8" s="113"/>
-      <c r="K8" s="113"/>
-      <c r="L8" s="113"/>
-      <c r="M8" s="113"/>
-      <c r="N8" s="113"/>
-      <c r="O8" s="113"/>
-      <c r="P8" s="113"/>
-      <c r="Q8" s="113"/>
-      <c r="R8" s="113"/>
-      <c r="S8" s="113"/>
-      <c r="T8" s="113"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="110"/>
+      <c r="L8" s="110"/>
+      <c r="M8" s="110"/>
+      <c r="N8" s="110"/>
+      <c r="O8" s="110"/>
+      <c r="P8" s="110"/>
+      <c r="Q8" s="110"/>
+      <c r="R8" s="110"/>
+      <c r="S8" s="110"/>
+      <c r="T8" s="110"/>
     </row>
     <row r="9" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45" t="s">
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="44"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="38"/>
     </row>
     <row r="10" spans="1:20" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="41"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="47">
+      <c r="A10" s="35"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="41">
         <v>2013</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="124" t="s">
+      <c r="A11" s="106" t="s">
         <v>107</v>
       </c>
-      <c r="B11" s="126" t="s">
+      <c r="B11" s="108" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="126"/>
-      <c r="D11" s="126"/>
-      <c r="E11" s="127" t="s">
+      <c r="C11" s="108"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="109" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="127" t="s">
+      <c r="F11" s="109" t="s">
         <v>110</v>
       </c>
-      <c r="G11" s="119" t="s">
+      <c r="G11" s="101" t="s">
         <v>111</v>
       </c>
-      <c r="H11" s="117" t="s">
+      <c r="H11" s="99" t="s">
         <v>112</v>
       </c>
-      <c r="I11" s="118"/>
-      <c r="J11" s="118"/>
-      <c r="K11" s="118"/>
-      <c r="L11" s="118"/>
-      <c r="M11" s="118"/>
-      <c r="N11" s="118"/>
-      <c r="O11" s="118"/>
-      <c r="P11" s="118"/>
-      <c r="Q11" s="118"/>
-      <c r="R11" s="119" t="s">
+      <c r="I11" s="100"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="100"/>
+      <c r="M11" s="100"/>
+      <c r="N11" s="100"/>
+      <c r="O11" s="100"/>
+      <c r="P11" s="100"/>
+      <c r="Q11" s="100"/>
+      <c r="R11" s="101" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="120"/>
-      <c r="B12" s="78" t="s">
+      <c r="A12" s="102"/>
+      <c r="B12" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="C12" s="78" t="s">
+      <c r="C12" s="67" t="s">
         <v>115</v>
       </c>
-      <c r="D12" s="78" t="s">
+      <c r="D12" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="E12" s="133"/>
-      <c r="F12" s="134"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="79" t="s">
+      <c r="E12" s="117"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="I12" s="79" t="s">
+      <c r="I12" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="J12" s="79" t="s">
+      <c r="J12" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="K12" s="79" t="s">
+      <c r="K12" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="L12" s="79" t="s">
+      <c r="L12" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="M12" s="79" t="s">
+      <c r="M12" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="N12" s="79" t="s">
+      <c r="N12" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="O12" s="79" t="s">
+      <c r="O12" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="P12" s="79" t="s">
+      <c r="P12" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="Q12" s="79" t="s">
+      <c r="Q12" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="R12" s="120"/>
+      <c r="R12" s="102"/>
     </row>
-    <row r="13" spans="1:20" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="80">
+    <row r="13" spans="1:20" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="69">
         <v>1</v>
       </c>
-      <c r="B13" s="81"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="83" t="s">
+      <c r="B13" s="70"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="F13" s="84" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" s="85">
+      <c r="F13" s="73">
+        <v>3181</v>
+      </c>
+      <c r="G13" s="74">
         <f>SUM(H13:K13)</f>
         <v>213892.35</v>
       </c>
-      <c r="H13" s="147">
+      <c r="H13" s="95">
         <v>91819.71</v>
       </c>
-      <c r="I13" s="147">
+      <c r="I13" s="95">
         <v>50193.64</v>
       </c>
-      <c r="J13" s="147">
+      <c r="J13" s="95">
         <v>70379</v>
       </c>
-      <c r="K13" s="85">
+      <c r="K13" s="74">
         <v>1500</v>
       </c>
-      <c r="L13" s="86"/>
-      <c r="M13" s="86"/>
-      <c r="N13" s="87"/>
-      <c r="O13" s="86"/>
-      <c r="P13" s="86"/>
-      <c r="Q13" s="86"/>
-      <c r="R13" s="88" t="s">
+      <c r="L13" s="75"/>
+      <c r="M13" s="75"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="75"/>
+      <c r="P13" s="75"/>
+      <c r="Q13" s="75"/>
+      <c r="R13" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="S13" s="14" t="s">
+      <c r="S13" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="130" t="s">
+    <row r="14" spans="1:20" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="114" t="s">
         <v>127</v>
       </c>
-      <c r="B14" s="131"/>
-      <c r="C14" s="131"/>
-      <c r="D14" s="131"/>
-      <c r="E14" s="131"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="90">
+      <c r="B14" s="115"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="116"/>
+      <c r="G14" s="79">
         <f>SUM(G13)</f>
         <v>213892.35</v>
       </c>
-      <c r="H14" s="90">
+      <c r="H14" s="79">
         <f>SUM(H13)</f>
         <v>91819.71</v>
       </c>
-      <c r="I14" s="90">
+      <c r="I14" s="79">
         <f t="shared" ref="I14:Q14" si="0">SUM(I13)</f>
         <v>50193.64</v>
       </c>
-      <c r="J14" s="90">
+      <c r="J14" s="79">
         <f>SUM(J13)</f>
         <v>70379</v>
       </c>
-      <c r="K14" s="90">
+      <c r="K14" s="79">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="L14" s="90">
+      <c r="L14" s="79">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M14" s="90">
+      <c r="M14" s="79">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N14" s="90">
+      <c r="N14" s="79">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O14" s="90">
+      <c r="O14" s="79">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P14" s="90">
+      <c r="P14" s="79">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="90">
+      <c r="Q14" s="79">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R14" s="91"/>
+      <c r="R14" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -7546,7 +7312,7 @@
   <dimension ref="A2:T16"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8377,291 +8143,296 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="114"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
     </row>
     <row r="3" spans="1:20" ht="27" x14ac:dyDescent="0.25">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="112" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
     </row>
     <row r="4" spans="1:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
     </row>
     <row r="5" spans="1:20" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="113" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
+      <c r="B5" s="113"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
     </row>
     <row r="6" spans="1:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="37"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
     </row>
     <row r="7" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="39" t="s">
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
     </row>
     <row r="8" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="113" t="s">
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="110" t="s">
         <v>131</v>
       </c>
-      <c r="E8" s="113"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="113"/>
-      <c r="H8" s="113"/>
-      <c r="I8" s="113"/>
-      <c r="J8" s="113"/>
-      <c r="K8" s="113"/>
-      <c r="L8" s="113"/>
-      <c r="M8" s="113"/>
-      <c r="N8" s="113"/>
-      <c r="O8" s="113"/>
-      <c r="P8" s="113"/>
-      <c r="Q8" s="113"/>
-      <c r="R8" s="113"/>
-      <c r="S8" s="113"/>
-      <c r="T8" s="113"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="110"/>
+      <c r="L8" s="110"/>
+      <c r="M8" s="110"/>
+      <c r="N8" s="110"/>
+      <c r="O8" s="110"/>
+      <c r="P8" s="110"/>
+      <c r="Q8" s="110"/>
+      <c r="R8" s="110"/>
+      <c r="S8" s="110"/>
+      <c r="T8" s="110"/>
     </row>
     <row r="9" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="113" t="s">
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="110" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="113"/>
-      <c r="F9" s="113"/>
-      <c r="G9" s="113"/>
-      <c r="H9" s="113"/>
-      <c r="I9" s="113"/>
-      <c r="J9" s="113"/>
-      <c r="K9" s="113"/>
-      <c r="L9" s="113"/>
-      <c r="M9" s="113"/>
-      <c r="N9" s="113"/>
-      <c r="O9" s="113"/>
-      <c r="P9" s="113"/>
-      <c r="Q9" s="113"/>
-      <c r="R9" s="113"/>
-      <c r="S9" s="113"/>
-      <c r="T9" s="113"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="110"/>
+      <c r="L9" s="110"/>
+      <c r="M9" s="110"/>
+      <c r="N9" s="110"/>
+      <c r="O9" s="110"/>
+      <c r="P9" s="110"/>
+      <c r="Q9" s="110"/>
+      <c r="R9" s="110"/>
+      <c r="S9" s="110"/>
+      <c r="T9" s="110"/>
     </row>
     <row r="10" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45" t="s">
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="44"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="38"/>
     </row>
     <row r="11" spans="1:20" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="41"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="47">
+      <c r="A11" s="35"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="41">
         <v>2013</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="124" t="s">
+      <c r="A12" s="106" t="s">
         <v>107</v>
       </c>
-      <c r="B12" s="126" t="s">
+      <c r="B12" s="108" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="126"/>
-      <c r="D12" s="126"/>
-      <c r="E12" s="127" t="s">
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="109" t="s">
         <v>109</v>
       </c>
-      <c r="F12" s="127" t="s">
+      <c r="F12" s="109" t="s">
         <v>110</v>
       </c>
-      <c r="G12" s="119" t="s">
+      <c r="G12" s="101" t="s">
         <v>111</v>
       </c>
-      <c r="H12" s="59"/>
-      <c r="I12" s="119" t="s">
+      <c r="H12" s="51"/>
+      <c r="I12" s="101" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="120"/>
-      <c r="B13" s="78" t="s">
+      <c r="A13" s="102"/>
+      <c r="B13" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="78" t="s">
+      <c r="C13" s="67" t="s">
         <v>115</v>
       </c>
-      <c r="D13" s="78" t="s">
+      <c r="D13" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="E13" s="133"/>
-      <c r="F13" s="134"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="79" t="s">
+      <c r="E13" s="117"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="I13" s="120"/>
+      <c r="I13" s="102"/>
     </row>
     <row r="14" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="92">
+      <c r="A14" s="81">
         <v>1</v>
       </c>
-      <c r="B14" s="86"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="83" t="s">
+      <c r="B14" s="75"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="F14" s="84" t="s">
+      <c r="F14" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="85">
+      <c r="G14" s="74">
         <f>SUM(H14:H14)</f>
         <v>1500</v>
       </c>
-      <c r="H14" s="93">
+      <c r="H14" s="82">
         <v>1500</v>
       </c>
-      <c r="I14" s="56" t="s">
+      <c r="I14" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="57"/>
+      <c r="J14" s="50"/>
     </row>
     <row r="15" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="135" t="s">
+      <c r="A15" s="119" t="s">
         <v>127</v>
       </c>
-      <c r="B15" s="136"/>
-      <c r="C15" s="136"/>
-      <c r="D15" s="136"/>
-      <c r="E15" s="136"/>
-      <c r="F15" s="137"/>
-      <c r="G15" s="90">
+      <c r="B15" s="120"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="79">
         <f>SUM(G14:G14)</f>
         <v>1500</v>
       </c>
-      <c r="H15" s="90">
+      <c r="H15" s="79">
         <f>H14</f>
         <v>1500</v>
       </c>
-      <c r="I15" s="94"/>
+      <c r="I15" s="83"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="55"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D8:T8"/>
+    <mergeCell ref="D9:T9"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A5:I5"/>
     <mergeCell ref="I12:I13"/>
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="A12:A13"/>
@@ -8669,11 +8440,6 @@
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="G12:G13"/>
-    <mergeCell ref="D8:T8"/>
-    <mergeCell ref="D9:T9"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -8684,10 +8450,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:U21"/>
+  <dimension ref="A2:U20"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8708,7 +8474,7 @@
     <col min="17" max="17" width="0" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="15.7109375" customWidth="1"/>
     <col min="19" max="19" width="16.42578125" customWidth="1"/>
-    <col min="20" max="20" width="83.85546875" customWidth="1"/>
+    <col min="20" max="20" width="83.85546875" style="135" customWidth="1"/>
     <col min="262" max="262" width="14.5703125" customWidth="1"/>
     <col min="263" max="263" width="15.7109375" customWidth="1"/>
     <col min="264" max="264" width="18.140625" customWidth="1"/>
@@ -9531,651 +9297,630 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="114"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="114"/>
-      <c r="Q2" s="114"/>
-      <c r="R2" s="114"/>
-      <c r="S2" s="114"/>
-      <c r="T2" s="114"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
     </row>
     <row r="3" spans="1:21" ht="27" x14ac:dyDescent="0.25">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="112" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="115"/>
-      <c r="O3" s="115"/>
-      <c r="P3" s="115"/>
-      <c r="Q3" s="115"/>
-      <c r="R3" s="115"/>
-      <c r="S3" s="115"/>
-      <c r="T3" s="115"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="112"/>
+      <c r="M3" s="112"/>
+      <c r="N3" s="112"/>
+      <c r="O3" s="112"/>
+      <c r="P3" s="112"/>
+      <c r="Q3" s="112"/>
+      <c r="R3" s="112"/>
+      <c r="S3" s="112"/>
+      <c r="T3" s="112"/>
     </row>
     <row r="4" spans="1:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="37"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="136"/>
     </row>
     <row r="5" spans="1:21" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="113" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="116"/>
-      <c r="K5" s="116"/>
-      <c r="L5" s="116"/>
-      <c r="M5" s="116"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="116"/>
-      <c r="P5" s="116"/>
-      <c r="Q5" s="116"/>
-      <c r="R5" s="116"/>
-      <c r="S5" s="116"/>
-      <c r="T5" s="116"/>
+      <c r="B5" s="113"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="113"/>
+      <c r="K5" s="113"/>
+      <c r="L5" s="113"/>
+      <c r="M5" s="113"/>
+      <c r="N5" s="113"/>
+      <c r="O5" s="113"/>
+      <c r="P5" s="113"/>
+      <c r="Q5" s="113"/>
+      <c r="R5" s="113"/>
+      <c r="S5" s="113"/>
+      <c r="T5" s="113"/>
     </row>
     <row r="6" spans="1:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="37"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="136"/>
     </row>
     <row r="7" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="39" t="s">
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="137"/>
     </row>
     <row r="8" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="113" t="s">
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="110" t="s">
         <v>131</v>
       </c>
-      <c r="E8" s="113"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="113"/>
-      <c r="H8" s="113"/>
-      <c r="I8" s="113"/>
-      <c r="J8" s="113"/>
-      <c r="K8" s="113"/>
-      <c r="L8" s="113"/>
-      <c r="M8" s="113"/>
-      <c r="N8" s="113"/>
-      <c r="O8" s="113"/>
-      <c r="P8" s="113"/>
-      <c r="Q8" s="113"/>
-      <c r="R8" s="113"/>
-      <c r="S8" s="113"/>
-      <c r="T8" s="113"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="110"/>
+      <c r="L8" s="110"/>
+      <c r="M8" s="110"/>
+      <c r="N8" s="110"/>
+      <c r="O8" s="110"/>
+      <c r="P8" s="110"/>
+      <c r="Q8" s="110"/>
+      <c r="R8" s="110"/>
+      <c r="S8" s="110"/>
+      <c r="T8" s="110"/>
     </row>
     <row r="9" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="113" t="s">
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="110" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="113"/>
-      <c r="F9" s="113"/>
-      <c r="G9" s="113"/>
-      <c r="H9" s="113"/>
-      <c r="I9" s="113"/>
-      <c r="J9" s="113"/>
-      <c r="K9" s="113"/>
-      <c r="L9" s="113"/>
-      <c r="M9" s="113"/>
-      <c r="N9" s="113"/>
-      <c r="O9" s="113"/>
-      <c r="P9" s="113"/>
-      <c r="Q9" s="113"/>
-      <c r="R9" s="113"/>
-      <c r="S9" s="113"/>
-      <c r="T9" s="113"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="110"/>
+      <c r="L9" s="110"/>
+      <c r="M9" s="110"/>
+      <c r="N9" s="110"/>
+      <c r="O9" s="110"/>
+      <c r="P9" s="110"/>
+      <c r="Q9" s="110"/>
+      <c r="R9" s="110"/>
+      <c r="S9" s="110"/>
+      <c r="T9" s="110"/>
     </row>
     <row r="10" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45" t="s">
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="44"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="138"/>
     </row>
     <row r="11" spans="1:21" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="41"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="41"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="47">
+      <c r="A11" s="35"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="139">
         <v>2013</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="138" t="s">
+      <c r="A12" s="122" t="s">
         <v>107</v>
       </c>
-      <c r="B12" s="140" t="s">
+      <c r="B12" s="124" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="140"/>
-      <c r="D12" s="140"/>
-      <c r="E12" s="141" t="s">
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="125" t="s">
         <v>109</v>
       </c>
-      <c r="F12" s="141" t="s">
+      <c r="F12" s="125" t="s">
         <v>110</v>
       </c>
-      <c r="G12" s="144" t="s">
+      <c r="G12" s="128" t="s">
         <v>111</v>
       </c>
-      <c r="H12" s="145" t="s">
+      <c r="H12" s="129" t="s">
         <v>112</v>
       </c>
-      <c r="I12" s="146"/>
-      <c r="J12" s="146"/>
-      <c r="K12" s="146"/>
-      <c r="L12" s="146"/>
-      <c r="M12" s="146"/>
-      <c r="N12" s="146"/>
-      <c r="O12" s="146"/>
-      <c r="P12" s="146"/>
-      <c r="Q12" s="146"/>
-      <c r="R12" s="146"/>
-      <c r="S12" s="146"/>
-      <c r="T12" s="144" t="s">
+      <c r="I12" s="130"/>
+      <c r="J12" s="130"/>
+      <c r="K12" s="130"/>
+      <c r="L12" s="130"/>
+      <c r="M12" s="130"/>
+      <c r="N12" s="130"/>
+      <c r="O12" s="130"/>
+      <c r="P12" s="130"/>
+      <c r="Q12" s="130"/>
+      <c r="R12" s="130"/>
+      <c r="S12" s="130"/>
+      <c r="T12" s="140" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="139"/>
-      <c r="B13" s="79" t="s">
+      <c r="A13" s="123"/>
+      <c r="B13" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="79" t="s">
+      <c r="C13" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="D13" s="79" t="s">
+      <c r="D13" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="E13" s="142"/>
-      <c r="F13" s="143"/>
-      <c r="G13" s="139"/>
-      <c r="H13" s="79" t="s">
+      <c r="E13" s="126"/>
+      <c r="F13" s="127"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="I13" s="79" t="s">
+      <c r="I13" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="J13" s="79" t="s">
+      <c r="J13" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="K13" s="79" t="s">
+      <c r="K13" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="L13" s="79" t="s">
+      <c r="L13" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="M13" s="79" t="s">
+      <c r="M13" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="N13" s="79" t="s">
+      <c r="N13" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="O13" s="79" t="s">
+      <c r="O13" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="P13" s="79" t="s">
+      <c r="P13" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="Q13" s="79" t="s">
+      <c r="Q13" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="R13" s="79" t="s">
+      <c r="R13" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="S13" s="79" t="s">
+      <c r="S13" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="T13" s="139"/>
+      <c r="T13" s="141"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="95"/>
-      <c r="B14" s="96"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="96"/>
-      <c r="J14" s="96"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="96"/>
-      <c r="M14" s="96"/>
-      <c r="N14" s="96"/>
-      <c r="O14" s="98"/>
-      <c r="P14" s="96"/>
-      <c r="Q14" s="96"/>
-      <c r="R14" s="96"/>
-      <c r="S14" s="96"/>
+    <row r="14" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="52">
+        <v>1</v>
+      </c>
+      <c r="B14" s="90">
+        <v>41446</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" s="91" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" s="91" t="s">
+        <v>135</v>
+      </c>
+      <c r="F14" s="93">
+        <v>2999</v>
+      </c>
+      <c r="G14" s="92">
+        <f>SUM(H14:S14)</f>
+        <v>4500</v>
+      </c>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="92"/>
+      <c r="O14" s="92"/>
+      <c r="P14" s="92"/>
+      <c r="Q14" s="92"/>
+      <c r="R14" s="92"/>
+      <c r="S14" s="92">
+        <v>4500</v>
+      </c>
+      <c r="T14" s="142" t="s">
+        <v>143</v>
+      </c>
+      <c r="U14" s="8" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="15" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="60">
-        <v>1</v>
-      </c>
-      <c r="B15" s="105">
+    <row r="15" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="52">
+        <v>2</v>
+      </c>
+      <c r="B15" s="90">
         <v>41446</v>
       </c>
-      <c r="C15" s="62" t="s">
+      <c r="C15" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="D15" s="106" t="s">
+      <c r="D15" s="91" t="s">
         <v>134</v>
       </c>
-      <c r="E15" s="106" t="s">
-        <v>135</v>
-      </c>
-      <c r="F15" s="108">
-        <v>2999</v>
-      </c>
-      <c r="G15" s="107">
+      <c r="E15" s="91" t="s">
+        <v>136</v>
+      </c>
+      <c r="F15" s="94" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="92">
         <f>SUM(H15:S15)</f>
-        <v>4500</v>
-      </c>
-      <c r="H15" s="107"/>
-      <c r="I15" s="107"/>
-      <c r="J15" s="107"/>
-      <c r="K15" s="107"/>
-      <c r="L15" s="107"/>
-      <c r="M15" s="107"/>
-      <c r="N15" s="107"/>
-      <c r="O15" s="107"/>
-      <c r="P15" s="107"/>
-      <c r="Q15" s="107"/>
-      <c r="R15" s="107"/>
-      <c r="S15" s="107">
-        <v>4500</v>
-      </c>
-      <c r="T15" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="U15" s="14" t="s">
-        <v>33</v>
+        <v>500</v>
+      </c>
+      <c r="H15" s="92"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="92"/>
+      <c r="K15" s="92"/>
+      <c r="L15" s="92"/>
+      <c r="M15" s="92"/>
+      <c r="N15" s="92"/>
+      <c r="O15" s="92"/>
+      <c r="P15" s="92"/>
+      <c r="Q15" s="92"/>
+      <c r="R15" s="92"/>
+      <c r="S15" s="92">
+        <v>500</v>
+      </c>
+      <c r="T15" s="142" t="s">
+        <v>144</v>
+      </c>
+      <c r="U15" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="60">
-        <v>2</v>
-      </c>
-      <c r="B16" s="105">
-        <v>41446</v>
-      </c>
-      <c r="C16" s="62" t="s">
+    <row r="16" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="52">
+        <v>3</v>
+      </c>
+      <c r="B16" s="53"/>
+      <c r="C16" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91" t="s">
+        <v>140</v>
+      </c>
+      <c r="F16" s="94" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="92">
+        <f>SUM(H16:S16)</f>
+        <v>509.4</v>
+      </c>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
+      <c r="L16" s="92"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="92"/>
+      <c r="O16" s="92"/>
+      <c r="P16" s="92"/>
+      <c r="Q16" s="92"/>
+      <c r="R16" s="92">
+        <v>509.4</v>
+      </c>
+      <c r="S16" s="92"/>
+      <c r="T16" s="142" t="s">
+        <v>142</v>
+      </c>
+      <c r="U16" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="52">
+        <v>4</v>
+      </c>
+      <c r="B17" s="90">
+        <v>41625</v>
+      </c>
+      <c r="C17" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="D16" s="106" t="s">
-        <v>134</v>
-      </c>
-      <c r="E16" s="106" t="s">
-        <v>136</v>
-      </c>
-      <c r="F16" s="109" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="107">
-        <f>SUM(H16:S16)</f>
-        <v>500</v>
-      </c>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="107"/>
-      <c r="L16" s="107"/>
-      <c r="M16" s="107"/>
-      <c r="N16" s="107"/>
-      <c r="O16" s="107"/>
-      <c r="P16" s="107"/>
-      <c r="Q16" s="107"/>
-      <c r="R16" s="107"/>
-      <c r="S16" s="107">
-        <v>500</v>
-      </c>
-      <c r="T16" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="U16" s="14" t="s">
-        <v>56</v>
+      <c r="D17" s="91" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" s="91" t="s">
+        <v>138</v>
+      </c>
+      <c r="F17" s="94" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="92">
+        <f>SUM(H17:S17)</f>
+        <v>4491</v>
+      </c>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="92"/>
+      <c r="O17" s="92"/>
+      <c r="P17" s="92"/>
+      <c r="Q17" s="92"/>
+      <c r="R17" s="92"/>
+      <c r="S17" s="92">
+        <v>4491</v>
+      </c>
+      <c r="T17" s="142" t="s">
+        <v>91</v>
+      </c>
+      <c r="U17" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="60">
-        <v>3</v>
-      </c>
-      <c r="B17" s="61"/>
-      <c r="C17" s="62" t="s">
-        <v>141</v>
-      </c>
-      <c r="D17" s="106"/>
-      <c r="E17" s="106" t="s">
-        <v>140</v>
-      </c>
-      <c r="F17" s="109" t="s">
-        <v>71</v>
-      </c>
-      <c r="G17" s="107">
-        <f>SUM(H17:S17)</f>
-        <v>509.4</v>
-      </c>
-      <c r="H17" s="107"/>
-      <c r="I17" s="107"/>
-      <c r="J17" s="107"/>
-      <c r="K17" s="107"/>
-      <c r="L17" s="107"/>
-      <c r="M17" s="107"/>
-      <c r="N17" s="107"/>
-      <c r="O17" s="107"/>
-      <c r="P17" s="107"/>
-      <c r="Q17" s="107"/>
-      <c r="R17" s="107">
-        <v>509.4</v>
-      </c>
-      <c r="S17" s="107"/>
-      <c r="T17" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="U17" s="14" t="s">
-        <v>75</v>
-      </c>
+    <row r="18" spans="1:21" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="52">
+        <v>5</v>
+      </c>
+      <c r="B18" s="90">
+        <v>41625</v>
+      </c>
+      <c r="C18" s="89" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" s="91" t="s">
+        <v>137</v>
+      </c>
+      <c r="E18" s="91" t="s">
+        <v>139</v>
+      </c>
+      <c r="F18" s="94" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="92"/>
+      <c r="M18" s="92"/>
+      <c r="N18" s="92"/>
+      <c r="O18" s="92"/>
+      <c r="P18" s="92"/>
+      <c r="Q18" s="92"/>
+      <c r="R18" s="92"/>
+      <c r="S18" s="92">
+        <v>499</v>
+      </c>
+      <c r="T18" s="142" t="s">
+        <v>94</v>
+      </c>
+      <c r="U18" s="50"/>
     </row>
-    <row r="18" spans="1:21" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="60">
-        <v>4</v>
-      </c>
-      <c r="B18" s="105">
-        <v>41625</v>
-      </c>
-      <c r="C18" s="62" t="s">
-        <v>126</v>
-      </c>
-      <c r="D18" s="106" t="s">
-        <v>137</v>
-      </c>
-      <c r="E18" s="106" t="s">
-        <v>138</v>
-      </c>
-      <c r="F18" s="109" t="s">
-        <v>84</v>
-      </c>
-      <c r="G18" s="107">
-        <f>SUM(H18:S18)</f>
-        <v>4491</v>
-      </c>
-      <c r="H18" s="107"/>
-      <c r="I18" s="107"/>
-      <c r="J18" s="107"/>
-      <c r="K18" s="107"/>
-      <c r="L18" s="107"/>
-      <c r="M18" s="107"/>
-      <c r="N18" s="107"/>
-      <c r="O18" s="107"/>
-      <c r="P18" s="107"/>
-      <c r="Q18" s="107"/>
-      <c r="R18" s="107"/>
-      <c r="S18" s="107">
-        <v>4491</v>
-      </c>
-      <c r="T18" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="U18" s="14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="60">
-        <v>5</v>
-      </c>
-      <c r="B19" s="105">
-        <v>41625</v>
-      </c>
-      <c r="C19" s="104" t="s">
-        <v>126</v>
-      </c>
-      <c r="D19" s="106" t="s">
-        <v>137</v>
-      </c>
-      <c r="E19" s="106" t="s">
-        <v>139</v>
-      </c>
-      <c r="F19" s="109" t="s">
-        <v>84</v>
-      </c>
-      <c r="G19" s="107"/>
-      <c r="H19" s="107"/>
-      <c r="I19" s="107"/>
-      <c r="J19" s="107"/>
-      <c r="K19" s="107"/>
-      <c r="L19" s="107"/>
-      <c r="M19" s="107"/>
-      <c r="N19" s="107"/>
-      <c r="O19" s="107"/>
-      <c r="P19" s="107"/>
-      <c r="Q19" s="107"/>
-      <c r="R19" s="107"/>
-      <c r="S19" s="107">
-        <v>499</v>
-      </c>
-      <c r="T19" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="U19" s="57"/>
-    </row>
-    <row r="20" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="99" t="s">
+    <row r="19" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="84" t="s">
         <v>127</v>
       </c>
-      <c r="B20" s="100"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="101">
-        <f>SUM(G15:Q18)</f>
+      <c r="B19" s="85"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="86">
+        <f>SUM(G14:Q17)</f>
         <v>10000.4</v>
       </c>
-      <c r="H20" s="102">
-        <f t="shared" ref="H20:Q20" si="0">SUM(H15:H16)</f>
+      <c r="H19" s="87">
+        <f t="shared" ref="H19:Q19" si="0">SUM(H14:H15)</f>
         <v>0</v>
       </c>
-      <c r="I20" s="102">
+      <c r="I19" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J20" s="102">
+      <c r="J19" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K20" s="102">
+      <c r="K19" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L20" s="102">
+      <c r="L19" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M20" s="102">
+      <c r="M19" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N20" s="102">
+      <c r="N19" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O20" s="102">
+      <c r="O19" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P20" s="102">
+      <c r="P19" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="102">
+      <c r="Q19" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R20" s="102">
-        <f>SUM(R15:R18)</f>
+      <c r="R19" s="87">
+        <f>SUM(R14:R17)</f>
         <v>509.4</v>
       </c>
-      <c r="S20" s="103">
-        <f>SUM(S15:S19)</f>
+      <c r="S19" s="88">
+        <f>SUM(S14:S18)</f>
         <v>9990</v>
       </c>
-      <c r="T20" s="94"/>
+      <c r="T19" s="143"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="50"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="54"/>
-      <c r="S21" s="54"/>
-      <c r="T21" s="55"/>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="43"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="47"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="144"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -10195,7 +9940,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="F17 F19 F16 F18" numberStoredAsText="1"/>
+    <ignoredError sqref="F16 F18 F15 F17" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/TARJETA PATAYPAMPA/TARJETA DE LIQUIDACION 2013.xlsx
+++ b/TARJETA PATAYPAMPA/TARJETA DE LIQUIDACION 2013.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUPERVISION2020\TARJETA PATAYPAMPA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SUPERVISION2020\TARJETA PATAYPAMPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050"/>
   </bookViews>
   <sheets>
-    <sheet name="PRINCIPAL 2013" sheetId="1" r:id="rId1"/>
+    <sheet name="PRINCIPAL 2013" sheetId="6" r:id="rId1"/>
     <sheet name="General" sheetId="4" r:id="rId2"/>
     <sheet name="CD Y GG" sheetId="3" r:id="rId3"/>
     <sheet name="capacitacion" sheetId="5" r:id="rId4"/>
     <sheet name="Supervisor" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'PRINCIPAL 2013'!$B$8:$AA$8</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">General!$A$1:$O$21</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -480,7 +480,7 @@
     <numFmt numFmtId="166" formatCode="00"/>
     <numFmt numFmtId="167" formatCode="0000000000"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -620,6 +620,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="63"/>
+      <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1065,7 +1071,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -1081,20 +1087,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1143,8 +1140,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1289,114 +1284,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="20" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1422,27 +1309,168 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="4" fontId="20" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1729,1387 +1757,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AA50"/>
+  <dimension ref="B2:AA26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="29" customWidth="1"/>
-    <col min="3" max="3" width="3.7109375" style="29" customWidth="1"/>
-    <col min="4" max="4" width="2.7109375" style="29" customWidth="1"/>
-    <col min="5" max="6" width="10.7109375" style="29" hidden="1" customWidth="1"/>
-    <col min="7" max="9" width="12.7109375" style="30" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" customWidth="1"/>
-    <col min="11" max="11" width="37.5703125" style="29" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="29" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="29" customWidth="1"/>
-    <col min="14" max="14" width="30.7109375" style="29" customWidth="1"/>
-    <col min="15" max="15" width="3.7109375" style="29" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" style="29" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" style="29" customWidth="1"/>
-    <col min="18" max="19" width="7.7109375" style="29" customWidth="1"/>
-    <col min="20" max="20" width="5.28515625" style="29" customWidth="1"/>
-    <col min="21" max="21" width="5.7109375" style="29" customWidth="1"/>
-    <col min="22" max="22" width="11.28515625" style="29" customWidth="1"/>
-    <col min="23" max="23" width="9.7109375" customWidth="1"/>
-    <col min="24" max="25" width="15.7109375" style="29" customWidth="1"/>
-    <col min="26" max="26" width="30.7109375" style="29" customWidth="1"/>
-    <col min="27" max="27" width="40.7109375" style="29" customWidth="1"/>
-    <col min="257" max="257" width="1.7109375" customWidth="1"/>
-    <col min="258" max="258" width="10.7109375" customWidth="1"/>
-    <col min="259" max="259" width="3.7109375" customWidth="1"/>
-    <col min="260" max="260" width="2.7109375" customWidth="1"/>
-    <col min="261" max="262" width="0" hidden="1" customWidth="1"/>
-    <col min="263" max="265" width="12.7109375" customWidth="1"/>
-    <col min="266" max="266" width="9.7109375" customWidth="1"/>
-    <col min="267" max="268" width="15.7109375" customWidth="1"/>
-    <col min="269" max="269" width="10.7109375" customWidth="1"/>
-    <col min="270" max="270" width="30.7109375" customWidth="1"/>
-    <col min="271" max="271" width="3.7109375" customWidth="1"/>
-    <col min="272" max="272" width="10.7109375" customWidth="1"/>
-    <col min="273" max="273" width="5.7109375" customWidth="1"/>
-    <col min="274" max="275" width="7.7109375" customWidth="1"/>
-    <col min="276" max="276" width="5.28515625" customWidth="1"/>
-    <col min="277" max="277" width="5.7109375" customWidth="1"/>
-    <col min="278" max="278" width="11.28515625" customWidth="1"/>
-    <col min="279" max="279" width="9.7109375" customWidth="1"/>
-    <col min="280" max="281" width="15.7109375" customWidth="1"/>
-    <col min="282" max="282" width="30.7109375" customWidth="1"/>
-    <col min="283" max="283" width="40.7109375" customWidth="1"/>
-    <col min="513" max="513" width="1.7109375" customWidth="1"/>
-    <col min="514" max="514" width="10.7109375" customWidth="1"/>
-    <col min="515" max="515" width="3.7109375" customWidth="1"/>
-    <col min="516" max="516" width="2.7109375" customWidth="1"/>
-    <col min="517" max="518" width="0" hidden="1" customWidth="1"/>
-    <col min="519" max="521" width="12.7109375" customWidth="1"/>
-    <col min="522" max="522" width="9.7109375" customWidth="1"/>
-    <col min="523" max="524" width="15.7109375" customWidth="1"/>
-    <col min="525" max="525" width="10.7109375" customWidth="1"/>
-    <col min="526" max="526" width="30.7109375" customWidth="1"/>
-    <col min="527" max="527" width="3.7109375" customWidth="1"/>
-    <col min="528" max="528" width="10.7109375" customWidth="1"/>
-    <col min="529" max="529" width="5.7109375" customWidth="1"/>
-    <col min="530" max="531" width="7.7109375" customWidth="1"/>
-    <col min="532" max="532" width="5.28515625" customWidth="1"/>
-    <col min="533" max="533" width="5.7109375" customWidth="1"/>
-    <col min="534" max="534" width="11.28515625" customWidth="1"/>
-    <col min="535" max="535" width="9.7109375" customWidth="1"/>
-    <col min="536" max="537" width="15.7109375" customWidth="1"/>
-    <col min="538" max="538" width="30.7109375" customWidth="1"/>
-    <col min="539" max="539" width="40.7109375" customWidth="1"/>
-    <col min="769" max="769" width="1.7109375" customWidth="1"/>
-    <col min="770" max="770" width="10.7109375" customWidth="1"/>
-    <col min="771" max="771" width="3.7109375" customWidth="1"/>
-    <col min="772" max="772" width="2.7109375" customWidth="1"/>
-    <col min="773" max="774" width="0" hidden="1" customWidth="1"/>
-    <col min="775" max="777" width="12.7109375" customWidth="1"/>
-    <col min="778" max="778" width="9.7109375" customWidth="1"/>
-    <col min="779" max="780" width="15.7109375" customWidth="1"/>
-    <col min="781" max="781" width="10.7109375" customWidth="1"/>
-    <col min="782" max="782" width="30.7109375" customWidth="1"/>
-    <col min="783" max="783" width="3.7109375" customWidth="1"/>
-    <col min="784" max="784" width="10.7109375" customWidth="1"/>
-    <col min="785" max="785" width="5.7109375" customWidth="1"/>
-    <col min="786" max="787" width="7.7109375" customWidth="1"/>
-    <col min="788" max="788" width="5.28515625" customWidth="1"/>
-    <col min="789" max="789" width="5.7109375" customWidth="1"/>
-    <col min="790" max="790" width="11.28515625" customWidth="1"/>
-    <col min="791" max="791" width="9.7109375" customWidth="1"/>
-    <col min="792" max="793" width="15.7109375" customWidth="1"/>
-    <col min="794" max="794" width="30.7109375" customWidth="1"/>
-    <col min="795" max="795" width="40.7109375" customWidth="1"/>
-    <col min="1025" max="1025" width="1.7109375" customWidth="1"/>
-    <col min="1026" max="1026" width="10.7109375" customWidth="1"/>
-    <col min="1027" max="1027" width="3.7109375" customWidth="1"/>
-    <col min="1028" max="1028" width="2.7109375" customWidth="1"/>
-    <col min="1029" max="1030" width="0" hidden="1" customWidth="1"/>
-    <col min="1031" max="1033" width="12.7109375" customWidth="1"/>
-    <col min="1034" max="1034" width="9.7109375" customWidth="1"/>
-    <col min="1035" max="1036" width="15.7109375" customWidth="1"/>
-    <col min="1037" max="1037" width="10.7109375" customWidth="1"/>
-    <col min="1038" max="1038" width="30.7109375" customWidth="1"/>
-    <col min="1039" max="1039" width="3.7109375" customWidth="1"/>
-    <col min="1040" max="1040" width="10.7109375" customWidth="1"/>
-    <col min="1041" max="1041" width="5.7109375" customWidth="1"/>
-    <col min="1042" max="1043" width="7.7109375" customWidth="1"/>
-    <col min="1044" max="1044" width="5.28515625" customWidth="1"/>
-    <col min="1045" max="1045" width="5.7109375" customWidth="1"/>
-    <col min="1046" max="1046" width="11.28515625" customWidth="1"/>
-    <col min="1047" max="1047" width="9.7109375" customWidth="1"/>
-    <col min="1048" max="1049" width="15.7109375" customWidth="1"/>
-    <col min="1050" max="1050" width="30.7109375" customWidth="1"/>
-    <col min="1051" max="1051" width="40.7109375" customWidth="1"/>
-    <col min="1281" max="1281" width="1.7109375" customWidth="1"/>
-    <col min="1282" max="1282" width="10.7109375" customWidth="1"/>
-    <col min="1283" max="1283" width="3.7109375" customWidth="1"/>
-    <col min="1284" max="1284" width="2.7109375" customWidth="1"/>
-    <col min="1285" max="1286" width="0" hidden="1" customWidth="1"/>
-    <col min="1287" max="1289" width="12.7109375" customWidth="1"/>
-    <col min="1290" max="1290" width="9.7109375" customWidth="1"/>
-    <col min="1291" max="1292" width="15.7109375" customWidth="1"/>
-    <col min="1293" max="1293" width="10.7109375" customWidth="1"/>
-    <col min="1294" max="1294" width="30.7109375" customWidth="1"/>
-    <col min="1295" max="1295" width="3.7109375" customWidth="1"/>
-    <col min="1296" max="1296" width="10.7109375" customWidth="1"/>
-    <col min="1297" max="1297" width="5.7109375" customWidth="1"/>
-    <col min="1298" max="1299" width="7.7109375" customWidth="1"/>
-    <col min="1300" max="1300" width="5.28515625" customWidth="1"/>
-    <col min="1301" max="1301" width="5.7109375" customWidth="1"/>
-    <col min="1302" max="1302" width="11.28515625" customWidth="1"/>
-    <col min="1303" max="1303" width="9.7109375" customWidth="1"/>
-    <col min="1304" max="1305" width="15.7109375" customWidth="1"/>
-    <col min="1306" max="1306" width="30.7109375" customWidth="1"/>
-    <col min="1307" max="1307" width="40.7109375" customWidth="1"/>
-    <col min="1537" max="1537" width="1.7109375" customWidth="1"/>
-    <col min="1538" max="1538" width="10.7109375" customWidth="1"/>
-    <col min="1539" max="1539" width="3.7109375" customWidth="1"/>
-    <col min="1540" max="1540" width="2.7109375" customWidth="1"/>
-    <col min="1541" max="1542" width="0" hidden="1" customWidth="1"/>
-    <col min="1543" max="1545" width="12.7109375" customWidth="1"/>
-    <col min="1546" max="1546" width="9.7109375" customWidth="1"/>
-    <col min="1547" max="1548" width="15.7109375" customWidth="1"/>
-    <col min="1549" max="1549" width="10.7109375" customWidth="1"/>
-    <col min="1550" max="1550" width="30.7109375" customWidth="1"/>
-    <col min="1551" max="1551" width="3.7109375" customWidth="1"/>
-    <col min="1552" max="1552" width="10.7109375" customWidth="1"/>
-    <col min="1553" max="1553" width="5.7109375" customWidth="1"/>
-    <col min="1554" max="1555" width="7.7109375" customWidth="1"/>
-    <col min="1556" max="1556" width="5.28515625" customWidth="1"/>
-    <col min="1557" max="1557" width="5.7109375" customWidth="1"/>
-    <col min="1558" max="1558" width="11.28515625" customWidth="1"/>
-    <col min="1559" max="1559" width="9.7109375" customWidth="1"/>
-    <col min="1560" max="1561" width="15.7109375" customWidth="1"/>
-    <col min="1562" max="1562" width="30.7109375" customWidth="1"/>
-    <col min="1563" max="1563" width="40.7109375" customWidth="1"/>
-    <col min="1793" max="1793" width="1.7109375" customWidth="1"/>
-    <col min="1794" max="1794" width="10.7109375" customWidth="1"/>
-    <col min="1795" max="1795" width="3.7109375" customWidth="1"/>
-    <col min="1796" max="1796" width="2.7109375" customWidth="1"/>
-    <col min="1797" max="1798" width="0" hidden="1" customWidth="1"/>
-    <col min="1799" max="1801" width="12.7109375" customWidth="1"/>
-    <col min="1802" max="1802" width="9.7109375" customWidth="1"/>
-    <col min="1803" max="1804" width="15.7109375" customWidth="1"/>
-    <col min="1805" max="1805" width="10.7109375" customWidth="1"/>
-    <col min="1806" max="1806" width="30.7109375" customWidth="1"/>
-    <col min="1807" max="1807" width="3.7109375" customWidth="1"/>
-    <col min="1808" max="1808" width="10.7109375" customWidth="1"/>
-    <col min="1809" max="1809" width="5.7109375" customWidth="1"/>
-    <col min="1810" max="1811" width="7.7109375" customWidth="1"/>
-    <col min="1812" max="1812" width="5.28515625" customWidth="1"/>
-    <col min="1813" max="1813" width="5.7109375" customWidth="1"/>
-    <col min="1814" max="1814" width="11.28515625" customWidth="1"/>
-    <col min="1815" max="1815" width="9.7109375" customWidth="1"/>
-    <col min="1816" max="1817" width="15.7109375" customWidth="1"/>
-    <col min="1818" max="1818" width="30.7109375" customWidth="1"/>
-    <col min="1819" max="1819" width="40.7109375" customWidth="1"/>
-    <col min="2049" max="2049" width="1.7109375" customWidth="1"/>
-    <col min="2050" max="2050" width="10.7109375" customWidth="1"/>
-    <col min="2051" max="2051" width="3.7109375" customWidth="1"/>
-    <col min="2052" max="2052" width="2.7109375" customWidth="1"/>
-    <col min="2053" max="2054" width="0" hidden="1" customWidth="1"/>
-    <col min="2055" max="2057" width="12.7109375" customWidth="1"/>
-    <col min="2058" max="2058" width="9.7109375" customWidth="1"/>
-    <col min="2059" max="2060" width="15.7109375" customWidth="1"/>
-    <col min="2061" max="2061" width="10.7109375" customWidth="1"/>
-    <col min="2062" max="2062" width="30.7109375" customWidth="1"/>
-    <col min="2063" max="2063" width="3.7109375" customWidth="1"/>
-    <col min="2064" max="2064" width="10.7109375" customWidth="1"/>
-    <col min="2065" max="2065" width="5.7109375" customWidth="1"/>
-    <col min="2066" max="2067" width="7.7109375" customWidth="1"/>
-    <col min="2068" max="2068" width="5.28515625" customWidth="1"/>
-    <col min="2069" max="2069" width="5.7109375" customWidth="1"/>
-    <col min="2070" max="2070" width="11.28515625" customWidth="1"/>
-    <col min="2071" max="2071" width="9.7109375" customWidth="1"/>
-    <col min="2072" max="2073" width="15.7109375" customWidth="1"/>
-    <col min="2074" max="2074" width="30.7109375" customWidth="1"/>
-    <col min="2075" max="2075" width="40.7109375" customWidth="1"/>
-    <col min="2305" max="2305" width="1.7109375" customWidth="1"/>
-    <col min="2306" max="2306" width="10.7109375" customWidth="1"/>
-    <col min="2307" max="2307" width="3.7109375" customWidth="1"/>
-    <col min="2308" max="2308" width="2.7109375" customWidth="1"/>
-    <col min="2309" max="2310" width="0" hidden="1" customWidth="1"/>
-    <col min="2311" max="2313" width="12.7109375" customWidth="1"/>
-    <col min="2314" max="2314" width="9.7109375" customWidth="1"/>
-    <col min="2315" max="2316" width="15.7109375" customWidth="1"/>
-    <col min="2317" max="2317" width="10.7109375" customWidth="1"/>
-    <col min="2318" max="2318" width="30.7109375" customWidth="1"/>
-    <col min="2319" max="2319" width="3.7109375" customWidth="1"/>
-    <col min="2320" max="2320" width="10.7109375" customWidth="1"/>
-    <col min="2321" max="2321" width="5.7109375" customWidth="1"/>
-    <col min="2322" max="2323" width="7.7109375" customWidth="1"/>
-    <col min="2324" max="2324" width="5.28515625" customWidth="1"/>
-    <col min="2325" max="2325" width="5.7109375" customWidth="1"/>
-    <col min="2326" max="2326" width="11.28515625" customWidth="1"/>
-    <col min="2327" max="2327" width="9.7109375" customWidth="1"/>
-    <col min="2328" max="2329" width="15.7109375" customWidth="1"/>
-    <col min="2330" max="2330" width="30.7109375" customWidth="1"/>
-    <col min="2331" max="2331" width="40.7109375" customWidth="1"/>
-    <col min="2561" max="2561" width="1.7109375" customWidth="1"/>
-    <col min="2562" max="2562" width="10.7109375" customWidth="1"/>
-    <col min="2563" max="2563" width="3.7109375" customWidth="1"/>
-    <col min="2564" max="2564" width="2.7109375" customWidth="1"/>
-    <col min="2565" max="2566" width="0" hidden="1" customWidth="1"/>
-    <col min="2567" max="2569" width="12.7109375" customWidth="1"/>
-    <col min="2570" max="2570" width="9.7109375" customWidth="1"/>
-    <col min="2571" max="2572" width="15.7109375" customWidth="1"/>
-    <col min="2573" max="2573" width="10.7109375" customWidth="1"/>
-    <col min="2574" max="2574" width="30.7109375" customWidth="1"/>
-    <col min="2575" max="2575" width="3.7109375" customWidth="1"/>
-    <col min="2576" max="2576" width="10.7109375" customWidth="1"/>
-    <col min="2577" max="2577" width="5.7109375" customWidth="1"/>
-    <col min="2578" max="2579" width="7.7109375" customWidth="1"/>
-    <col min="2580" max="2580" width="5.28515625" customWidth="1"/>
-    <col min="2581" max="2581" width="5.7109375" customWidth="1"/>
-    <col min="2582" max="2582" width="11.28515625" customWidth="1"/>
-    <col min="2583" max="2583" width="9.7109375" customWidth="1"/>
-    <col min="2584" max="2585" width="15.7109375" customWidth="1"/>
-    <col min="2586" max="2586" width="30.7109375" customWidth="1"/>
-    <col min="2587" max="2587" width="40.7109375" customWidth="1"/>
-    <col min="2817" max="2817" width="1.7109375" customWidth="1"/>
-    <col min="2818" max="2818" width="10.7109375" customWidth="1"/>
-    <col min="2819" max="2819" width="3.7109375" customWidth="1"/>
-    <col min="2820" max="2820" width="2.7109375" customWidth="1"/>
-    <col min="2821" max="2822" width="0" hidden="1" customWidth="1"/>
-    <col min="2823" max="2825" width="12.7109375" customWidth="1"/>
-    <col min="2826" max="2826" width="9.7109375" customWidth="1"/>
-    <col min="2827" max="2828" width="15.7109375" customWidth="1"/>
-    <col min="2829" max="2829" width="10.7109375" customWidth="1"/>
-    <col min="2830" max="2830" width="30.7109375" customWidth="1"/>
-    <col min="2831" max="2831" width="3.7109375" customWidth="1"/>
-    <col min="2832" max="2832" width="10.7109375" customWidth="1"/>
-    <col min="2833" max="2833" width="5.7109375" customWidth="1"/>
-    <col min="2834" max="2835" width="7.7109375" customWidth="1"/>
-    <col min="2836" max="2836" width="5.28515625" customWidth="1"/>
-    <col min="2837" max="2837" width="5.7109375" customWidth="1"/>
-    <col min="2838" max="2838" width="11.28515625" customWidth="1"/>
-    <col min="2839" max="2839" width="9.7109375" customWidth="1"/>
-    <col min="2840" max="2841" width="15.7109375" customWidth="1"/>
-    <col min="2842" max="2842" width="30.7109375" customWidth="1"/>
-    <col min="2843" max="2843" width="40.7109375" customWidth="1"/>
-    <col min="3073" max="3073" width="1.7109375" customWidth="1"/>
-    <col min="3074" max="3074" width="10.7109375" customWidth="1"/>
-    <col min="3075" max="3075" width="3.7109375" customWidth="1"/>
-    <col min="3076" max="3076" width="2.7109375" customWidth="1"/>
-    <col min="3077" max="3078" width="0" hidden="1" customWidth="1"/>
-    <col min="3079" max="3081" width="12.7109375" customWidth="1"/>
-    <col min="3082" max="3082" width="9.7109375" customWidth="1"/>
-    <col min="3083" max="3084" width="15.7109375" customWidth="1"/>
-    <col min="3085" max="3085" width="10.7109375" customWidth="1"/>
-    <col min="3086" max="3086" width="30.7109375" customWidth="1"/>
-    <col min="3087" max="3087" width="3.7109375" customWidth="1"/>
-    <col min="3088" max="3088" width="10.7109375" customWidth="1"/>
-    <col min="3089" max="3089" width="5.7109375" customWidth="1"/>
-    <col min="3090" max="3091" width="7.7109375" customWidth="1"/>
-    <col min="3092" max="3092" width="5.28515625" customWidth="1"/>
-    <col min="3093" max="3093" width="5.7109375" customWidth="1"/>
-    <col min="3094" max="3094" width="11.28515625" customWidth="1"/>
-    <col min="3095" max="3095" width="9.7109375" customWidth="1"/>
-    <col min="3096" max="3097" width="15.7109375" customWidth="1"/>
-    <col min="3098" max="3098" width="30.7109375" customWidth="1"/>
-    <col min="3099" max="3099" width="40.7109375" customWidth="1"/>
-    <col min="3329" max="3329" width="1.7109375" customWidth="1"/>
-    <col min="3330" max="3330" width="10.7109375" customWidth="1"/>
-    <col min="3331" max="3331" width="3.7109375" customWidth="1"/>
-    <col min="3332" max="3332" width="2.7109375" customWidth="1"/>
-    <col min="3333" max="3334" width="0" hidden="1" customWidth="1"/>
-    <col min="3335" max="3337" width="12.7109375" customWidth="1"/>
-    <col min="3338" max="3338" width="9.7109375" customWidth="1"/>
-    <col min="3339" max="3340" width="15.7109375" customWidth="1"/>
-    <col min="3341" max="3341" width="10.7109375" customWidth="1"/>
-    <col min="3342" max="3342" width="30.7109375" customWidth="1"/>
-    <col min="3343" max="3343" width="3.7109375" customWidth="1"/>
-    <col min="3344" max="3344" width="10.7109375" customWidth="1"/>
-    <col min="3345" max="3345" width="5.7109375" customWidth="1"/>
-    <col min="3346" max="3347" width="7.7109375" customWidth="1"/>
-    <col min="3348" max="3348" width="5.28515625" customWidth="1"/>
-    <col min="3349" max="3349" width="5.7109375" customWidth="1"/>
-    <col min="3350" max="3350" width="11.28515625" customWidth="1"/>
-    <col min="3351" max="3351" width="9.7109375" customWidth="1"/>
-    <col min="3352" max="3353" width="15.7109375" customWidth="1"/>
-    <col min="3354" max="3354" width="30.7109375" customWidth="1"/>
-    <col min="3355" max="3355" width="40.7109375" customWidth="1"/>
-    <col min="3585" max="3585" width="1.7109375" customWidth="1"/>
-    <col min="3586" max="3586" width="10.7109375" customWidth="1"/>
-    <col min="3587" max="3587" width="3.7109375" customWidth="1"/>
-    <col min="3588" max="3588" width="2.7109375" customWidth="1"/>
-    <col min="3589" max="3590" width="0" hidden="1" customWidth="1"/>
-    <col min="3591" max="3593" width="12.7109375" customWidth="1"/>
-    <col min="3594" max="3594" width="9.7109375" customWidth="1"/>
-    <col min="3595" max="3596" width="15.7109375" customWidth="1"/>
-    <col min="3597" max="3597" width="10.7109375" customWidth="1"/>
-    <col min="3598" max="3598" width="30.7109375" customWidth="1"/>
-    <col min="3599" max="3599" width="3.7109375" customWidth="1"/>
-    <col min="3600" max="3600" width="10.7109375" customWidth="1"/>
-    <col min="3601" max="3601" width="5.7109375" customWidth="1"/>
-    <col min="3602" max="3603" width="7.7109375" customWidth="1"/>
-    <col min="3604" max="3604" width="5.28515625" customWidth="1"/>
-    <col min="3605" max="3605" width="5.7109375" customWidth="1"/>
-    <col min="3606" max="3606" width="11.28515625" customWidth="1"/>
-    <col min="3607" max="3607" width="9.7109375" customWidth="1"/>
-    <col min="3608" max="3609" width="15.7109375" customWidth="1"/>
-    <col min="3610" max="3610" width="30.7109375" customWidth="1"/>
-    <col min="3611" max="3611" width="40.7109375" customWidth="1"/>
-    <col min="3841" max="3841" width="1.7109375" customWidth="1"/>
-    <col min="3842" max="3842" width="10.7109375" customWidth="1"/>
-    <col min="3843" max="3843" width="3.7109375" customWidth="1"/>
-    <col min="3844" max="3844" width="2.7109375" customWidth="1"/>
-    <col min="3845" max="3846" width="0" hidden="1" customWidth="1"/>
-    <col min="3847" max="3849" width="12.7109375" customWidth="1"/>
-    <col min="3850" max="3850" width="9.7109375" customWidth="1"/>
-    <col min="3851" max="3852" width="15.7109375" customWidth="1"/>
-    <col min="3853" max="3853" width="10.7109375" customWidth="1"/>
-    <col min="3854" max="3854" width="30.7109375" customWidth="1"/>
-    <col min="3855" max="3855" width="3.7109375" customWidth="1"/>
-    <col min="3856" max="3856" width="10.7109375" customWidth="1"/>
-    <col min="3857" max="3857" width="5.7109375" customWidth="1"/>
-    <col min="3858" max="3859" width="7.7109375" customWidth="1"/>
-    <col min="3860" max="3860" width="5.28515625" customWidth="1"/>
-    <col min="3861" max="3861" width="5.7109375" customWidth="1"/>
-    <col min="3862" max="3862" width="11.28515625" customWidth="1"/>
-    <col min="3863" max="3863" width="9.7109375" customWidth="1"/>
-    <col min="3864" max="3865" width="15.7109375" customWidth="1"/>
-    <col min="3866" max="3866" width="30.7109375" customWidth="1"/>
-    <col min="3867" max="3867" width="40.7109375" customWidth="1"/>
-    <col min="4097" max="4097" width="1.7109375" customWidth="1"/>
-    <col min="4098" max="4098" width="10.7109375" customWidth="1"/>
-    <col min="4099" max="4099" width="3.7109375" customWidth="1"/>
-    <col min="4100" max="4100" width="2.7109375" customWidth="1"/>
-    <col min="4101" max="4102" width="0" hidden="1" customWidth="1"/>
-    <col min="4103" max="4105" width="12.7109375" customWidth="1"/>
-    <col min="4106" max="4106" width="9.7109375" customWidth="1"/>
-    <col min="4107" max="4108" width="15.7109375" customWidth="1"/>
-    <col min="4109" max="4109" width="10.7109375" customWidth="1"/>
-    <col min="4110" max="4110" width="30.7109375" customWidth="1"/>
-    <col min="4111" max="4111" width="3.7109375" customWidth="1"/>
-    <col min="4112" max="4112" width="10.7109375" customWidth="1"/>
-    <col min="4113" max="4113" width="5.7109375" customWidth="1"/>
-    <col min="4114" max="4115" width="7.7109375" customWidth="1"/>
-    <col min="4116" max="4116" width="5.28515625" customWidth="1"/>
-    <col min="4117" max="4117" width="5.7109375" customWidth="1"/>
-    <col min="4118" max="4118" width="11.28515625" customWidth="1"/>
-    <col min="4119" max="4119" width="9.7109375" customWidth="1"/>
-    <col min="4120" max="4121" width="15.7109375" customWidth="1"/>
-    <col min="4122" max="4122" width="30.7109375" customWidth="1"/>
-    <col min="4123" max="4123" width="40.7109375" customWidth="1"/>
-    <col min="4353" max="4353" width="1.7109375" customWidth="1"/>
-    <col min="4354" max="4354" width="10.7109375" customWidth="1"/>
-    <col min="4355" max="4355" width="3.7109375" customWidth="1"/>
-    <col min="4356" max="4356" width="2.7109375" customWidth="1"/>
-    <col min="4357" max="4358" width="0" hidden="1" customWidth="1"/>
-    <col min="4359" max="4361" width="12.7109375" customWidth="1"/>
-    <col min="4362" max="4362" width="9.7109375" customWidth="1"/>
-    <col min="4363" max="4364" width="15.7109375" customWidth="1"/>
-    <col min="4365" max="4365" width="10.7109375" customWidth="1"/>
-    <col min="4366" max="4366" width="30.7109375" customWidth="1"/>
-    <col min="4367" max="4367" width="3.7109375" customWidth="1"/>
-    <col min="4368" max="4368" width="10.7109375" customWidth="1"/>
-    <col min="4369" max="4369" width="5.7109375" customWidth="1"/>
-    <col min="4370" max="4371" width="7.7109375" customWidth="1"/>
-    <col min="4372" max="4372" width="5.28515625" customWidth="1"/>
-    <col min="4373" max="4373" width="5.7109375" customWidth="1"/>
-    <col min="4374" max="4374" width="11.28515625" customWidth="1"/>
-    <col min="4375" max="4375" width="9.7109375" customWidth="1"/>
-    <col min="4376" max="4377" width="15.7109375" customWidth="1"/>
-    <col min="4378" max="4378" width="30.7109375" customWidth="1"/>
-    <col min="4379" max="4379" width="40.7109375" customWidth="1"/>
-    <col min="4609" max="4609" width="1.7109375" customWidth="1"/>
-    <col min="4610" max="4610" width="10.7109375" customWidth="1"/>
-    <col min="4611" max="4611" width="3.7109375" customWidth="1"/>
-    <col min="4612" max="4612" width="2.7109375" customWidth="1"/>
-    <col min="4613" max="4614" width="0" hidden="1" customWidth="1"/>
-    <col min="4615" max="4617" width="12.7109375" customWidth="1"/>
-    <col min="4618" max="4618" width="9.7109375" customWidth="1"/>
-    <col min="4619" max="4620" width="15.7109375" customWidth="1"/>
-    <col min="4621" max="4621" width="10.7109375" customWidth="1"/>
-    <col min="4622" max="4622" width="30.7109375" customWidth="1"/>
-    <col min="4623" max="4623" width="3.7109375" customWidth="1"/>
-    <col min="4624" max="4624" width="10.7109375" customWidth="1"/>
-    <col min="4625" max="4625" width="5.7109375" customWidth="1"/>
-    <col min="4626" max="4627" width="7.7109375" customWidth="1"/>
-    <col min="4628" max="4628" width="5.28515625" customWidth="1"/>
-    <col min="4629" max="4629" width="5.7109375" customWidth="1"/>
-    <col min="4630" max="4630" width="11.28515625" customWidth="1"/>
-    <col min="4631" max="4631" width="9.7109375" customWidth="1"/>
-    <col min="4632" max="4633" width="15.7109375" customWidth="1"/>
-    <col min="4634" max="4634" width="30.7109375" customWidth="1"/>
-    <col min="4635" max="4635" width="40.7109375" customWidth="1"/>
-    <col min="4865" max="4865" width="1.7109375" customWidth="1"/>
-    <col min="4866" max="4866" width="10.7109375" customWidth="1"/>
-    <col min="4867" max="4867" width="3.7109375" customWidth="1"/>
-    <col min="4868" max="4868" width="2.7109375" customWidth="1"/>
-    <col min="4869" max="4870" width="0" hidden="1" customWidth="1"/>
-    <col min="4871" max="4873" width="12.7109375" customWidth="1"/>
-    <col min="4874" max="4874" width="9.7109375" customWidth="1"/>
-    <col min="4875" max="4876" width="15.7109375" customWidth="1"/>
-    <col min="4877" max="4877" width="10.7109375" customWidth="1"/>
-    <col min="4878" max="4878" width="30.7109375" customWidth="1"/>
-    <col min="4879" max="4879" width="3.7109375" customWidth="1"/>
-    <col min="4880" max="4880" width="10.7109375" customWidth="1"/>
-    <col min="4881" max="4881" width="5.7109375" customWidth="1"/>
-    <col min="4882" max="4883" width="7.7109375" customWidth="1"/>
-    <col min="4884" max="4884" width="5.28515625" customWidth="1"/>
-    <col min="4885" max="4885" width="5.7109375" customWidth="1"/>
-    <col min="4886" max="4886" width="11.28515625" customWidth="1"/>
-    <col min="4887" max="4887" width="9.7109375" customWidth="1"/>
-    <col min="4888" max="4889" width="15.7109375" customWidth="1"/>
-    <col min="4890" max="4890" width="30.7109375" customWidth="1"/>
-    <col min="4891" max="4891" width="40.7109375" customWidth="1"/>
-    <col min="5121" max="5121" width="1.7109375" customWidth="1"/>
-    <col min="5122" max="5122" width="10.7109375" customWidth="1"/>
-    <col min="5123" max="5123" width="3.7109375" customWidth="1"/>
-    <col min="5124" max="5124" width="2.7109375" customWidth="1"/>
-    <col min="5125" max="5126" width="0" hidden="1" customWidth="1"/>
-    <col min="5127" max="5129" width="12.7109375" customWidth="1"/>
-    <col min="5130" max="5130" width="9.7109375" customWidth="1"/>
-    <col min="5131" max="5132" width="15.7109375" customWidth="1"/>
-    <col min="5133" max="5133" width="10.7109375" customWidth="1"/>
-    <col min="5134" max="5134" width="30.7109375" customWidth="1"/>
-    <col min="5135" max="5135" width="3.7109375" customWidth="1"/>
-    <col min="5136" max="5136" width="10.7109375" customWidth="1"/>
-    <col min="5137" max="5137" width="5.7109375" customWidth="1"/>
-    <col min="5138" max="5139" width="7.7109375" customWidth="1"/>
-    <col min="5140" max="5140" width="5.28515625" customWidth="1"/>
-    <col min="5141" max="5141" width="5.7109375" customWidth="1"/>
-    <col min="5142" max="5142" width="11.28515625" customWidth="1"/>
-    <col min="5143" max="5143" width="9.7109375" customWidth="1"/>
-    <col min="5144" max="5145" width="15.7109375" customWidth="1"/>
-    <col min="5146" max="5146" width="30.7109375" customWidth="1"/>
-    <col min="5147" max="5147" width="40.7109375" customWidth="1"/>
-    <col min="5377" max="5377" width="1.7109375" customWidth="1"/>
-    <col min="5378" max="5378" width="10.7109375" customWidth="1"/>
-    <col min="5379" max="5379" width="3.7109375" customWidth="1"/>
-    <col min="5380" max="5380" width="2.7109375" customWidth="1"/>
-    <col min="5381" max="5382" width="0" hidden="1" customWidth="1"/>
-    <col min="5383" max="5385" width="12.7109375" customWidth="1"/>
-    <col min="5386" max="5386" width="9.7109375" customWidth="1"/>
-    <col min="5387" max="5388" width="15.7109375" customWidth="1"/>
-    <col min="5389" max="5389" width="10.7109375" customWidth="1"/>
-    <col min="5390" max="5390" width="30.7109375" customWidth="1"/>
-    <col min="5391" max="5391" width="3.7109375" customWidth="1"/>
-    <col min="5392" max="5392" width="10.7109375" customWidth="1"/>
-    <col min="5393" max="5393" width="5.7109375" customWidth="1"/>
-    <col min="5394" max="5395" width="7.7109375" customWidth="1"/>
-    <col min="5396" max="5396" width="5.28515625" customWidth="1"/>
-    <col min="5397" max="5397" width="5.7109375" customWidth="1"/>
-    <col min="5398" max="5398" width="11.28515625" customWidth="1"/>
-    <col min="5399" max="5399" width="9.7109375" customWidth="1"/>
-    <col min="5400" max="5401" width="15.7109375" customWidth="1"/>
-    <col min="5402" max="5402" width="30.7109375" customWidth="1"/>
-    <col min="5403" max="5403" width="40.7109375" customWidth="1"/>
-    <col min="5633" max="5633" width="1.7109375" customWidth="1"/>
-    <col min="5634" max="5634" width="10.7109375" customWidth="1"/>
-    <col min="5635" max="5635" width="3.7109375" customWidth="1"/>
-    <col min="5636" max="5636" width="2.7109375" customWidth="1"/>
-    <col min="5637" max="5638" width="0" hidden="1" customWidth="1"/>
-    <col min="5639" max="5641" width="12.7109375" customWidth="1"/>
-    <col min="5642" max="5642" width="9.7109375" customWidth="1"/>
-    <col min="5643" max="5644" width="15.7109375" customWidth="1"/>
-    <col min="5645" max="5645" width="10.7109375" customWidth="1"/>
-    <col min="5646" max="5646" width="30.7109375" customWidth="1"/>
-    <col min="5647" max="5647" width="3.7109375" customWidth="1"/>
-    <col min="5648" max="5648" width="10.7109375" customWidth="1"/>
-    <col min="5649" max="5649" width="5.7109375" customWidth="1"/>
-    <col min="5650" max="5651" width="7.7109375" customWidth="1"/>
-    <col min="5652" max="5652" width="5.28515625" customWidth="1"/>
-    <col min="5653" max="5653" width="5.7109375" customWidth="1"/>
-    <col min="5654" max="5654" width="11.28515625" customWidth="1"/>
-    <col min="5655" max="5655" width="9.7109375" customWidth="1"/>
-    <col min="5656" max="5657" width="15.7109375" customWidth="1"/>
-    <col min="5658" max="5658" width="30.7109375" customWidth="1"/>
-    <col min="5659" max="5659" width="40.7109375" customWidth="1"/>
-    <col min="5889" max="5889" width="1.7109375" customWidth="1"/>
-    <col min="5890" max="5890" width="10.7109375" customWidth="1"/>
-    <col min="5891" max="5891" width="3.7109375" customWidth="1"/>
-    <col min="5892" max="5892" width="2.7109375" customWidth="1"/>
-    <col min="5893" max="5894" width="0" hidden="1" customWidth="1"/>
-    <col min="5895" max="5897" width="12.7109375" customWidth="1"/>
-    <col min="5898" max="5898" width="9.7109375" customWidth="1"/>
-    <col min="5899" max="5900" width="15.7109375" customWidth="1"/>
-    <col min="5901" max="5901" width="10.7109375" customWidth="1"/>
-    <col min="5902" max="5902" width="30.7109375" customWidth="1"/>
-    <col min="5903" max="5903" width="3.7109375" customWidth="1"/>
-    <col min="5904" max="5904" width="10.7109375" customWidth="1"/>
-    <col min="5905" max="5905" width="5.7109375" customWidth="1"/>
-    <col min="5906" max="5907" width="7.7109375" customWidth="1"/>
-    <col min="5908" max="5908" width="5.28515625" customWidth="1"/>
-    <col min="5909" max="5909" width="5.7109375" customWidth="1"/>
-    <col min="5910" max="5910" width="11.28515625" customWidth="1"/>
-    <col min="5911" max="5911" width="9.7109375" customWidth="1"/>
-    <col min="5912" max="5913" width="15.7109375" customWidth="1"/>
-    <col min="5914" max="5914" width="30.7109375" customWidth="1"/>
-    <col min="5915" max="5915" width="40.7109375" customWidth="1"/>
-    <col min="6145" max="6145" width="1.7109375" customWidth="1"/>
-    <col min="6146" max="6146" width="10.7109375" customWidth="1"/>
-    <col min="6147" max="6147" width="3.7109375" customWidth="1"/>
-    <col min="6148" max="6148" width="2.7109375" customWidth="1"/>
-    <col min="6149" max="6150" width="0" hidden="1" customWidth="1"/>
-    <col min="6151" max="6153" width="12.7109375" customWidth="1"/>
-    <col min="6154" max="6154" width="9.7109375" customWidth="1"/>
-    <col min="6155" max="6156" width="15.7109375" customWidth="1"/>
-    <col min="6157" max="6157" width="10.7109375" customWidth="1"/>
-    <col min="6158" max="6158" width="30.7109375" customWidth="1"/>
-    <col min="6159" max="6159" width="3.7109375" customWidth="1"/>
-    <col min="6160" max="6160" width="10.7109375" customWidth="1"/>
-    <col min="6161" max="6161" width="5.7109375" customWidth="1"/>
-    <col min="6162" max="6163" width="7.7109375" customWidth="1"/>
-    <col min="6164" max="6164" width="5.28515625" customWidth="1"/>
-    <col min="6165" max="6165" width="5.7109375" customWidth="1"/>
-    <col min="6166" max="6166" width="11.28515625" customWidth="1"/>
-    <col min="6167" max="6167" width="9.7109375" customWidth="1"/>
-    <col min="6168" max="6169" width="15.7109375" customWidth="1"/>
-    <col min="6170" max="6170" width="30.7109375" customWidth="1"/>
-    <col min="6171" max="6171" width="40.7109375" customWidth="1"/>
-    <col min="6401" max="6401" width="1.7109375" customWidth="1"/>
-    <col min="6402" max="6402" width="10.7109375" customWidth="1"/>
-    <col min="6403" max="6403" width="3.7109375" customWidth="1"/>
-    <col min="6404" max="6404" width="2.7109375" customWidth="1"/>
-    <col min="6405" max="6406" width="0" hidden="1" customWidth="1"/>
-    <col min="6407" max="6409" width="12.7109375" customWidth="1"/>
-    <col min="6410" max="6410" width="9.7109375" customWidth="1"/>
-    <col min="6411" max="6412" width="15.7109375" customWidth="1"/>
-    <col min="6413" max="6413" width="10.7109375" customWidth="1"/>
-    <col min="6414" max="6414" width="30.7109375" customWidth="1"/>
-    <col min="6415" max="6415" width="3.7109375" customWidth="1"/>
-    <col min="6416" max="6416" width="10.7109375" customWidth="1"/>
-    <col min="6417" max="6417" width="5.7109375" customWidth="1"/>
-    <col min="6418" max="6419" width="7.7109375" customWidth="1"/>
-    <col min="6420" max="6420" width="5.28515625" customWidth="1"/>
-    <col min="6421" max="6421" width="5.7109375" customWidth="1"/>
-    <col min="6422" max="6422" width="11.28515625" customWidth="1"/>
-    <col min="6423" max="6423" width="9.7109375" customWidth="1"/>
-    <col min="6424" max="6425" width="15.7109375" customWidth="1"/>
-    <col min="6426" max="6426" width="30.7109375" customWidth="1"/>
-    <col min="6427" max="6427" width="40.7109375" customWidth="1"/>
-    <col min="6657" max="6657" width="1.7109375" customWidth="1"/>
-    <col min="6658" max="6658" width="10.7109375" customWidth="1"/>
-    <col min="6659" max="6659" width="3.7109375" customWidth="1"/>
-    <col min="6660" max="6660" width="2.7109375" customWidth="1"/>
-    <col min="6661" max="6662" width="0" hidden="1" customWidth="1"/>
-    <col min="6663" max="6665" width="12.7109375" customWidth="1"/>
-    <col min="6666" max="6666" width="9.7109375" customWidth="1"/>
-    <col min="6667" max="6668" width="15.7109375" customWidth="1"/>
-    <col min="6669" max="6669" width="10.7109375" customWidth="1"/>
-    <col min="6670" max="6670" width="30.7109375" customWidth="1"/>
-    <col min="6671" max="6671" width="3.7109375" customWidth="1"/>
-    <col min="6672" max="6672" width="10.7109375" customWidth="1"/>
-    <col min="6673" max="6673" width="5.7109375" customWidth="1"/>
-    <col min="6674" max="6675" width="7.7109375" customWidth="1"/>
-    <col min="6676" max="6676" width="5.28515625" customWidth="1"/>
-    <col min="6677" max="6677" width="5.7109375" customWidth="1"/>
-    <col min="6678" max="6678" width="11.28515625" customWidth="1"/>
-    <col min="6679" max="6679" width="9.7109375" customWidth="1"/>
-    <col min="6680" max="6681" width="15.7109375" customWidth="1"/>
-    <col min="6682" max="6682" width="30.7109375" customWidth="1"/>
-    <col min="6683" max="6683" width="40.7109375" customWidth="1"/>
-    <col min="6913" max="6913" width="1.7109375" customWidth="1"/>
-    <col min="6914" max="6914" width="10.7109375" customWidth="1"/>
-    <col min="6915" max="6915" width="3.7109375" customWidth="1"/>
-    <col min="6916" max="6916" width="2.7109375" customWidth="1"/>
-    <col min="6917" max="6918" width="0" hidden="1" customWidth="1"/>
-    <col min="6919" max="6921" width="12.7109375" customWidth="1"/>
-    <col min="6922" max="6922" width="9.7109375" customWidth="1"/>
-    <col min="6923" max="6924" width="15.7109375" customWidth="1"/>
-    <col min="6925" max="6925" width="10.7109375" customWidth="1"/>
-    <col min="6926" max="6926" width="30.7109375" customWidth="1"/>
-    <col min="6927" max="6927" width="3.7109375" customWidth="1"/>
-    <col min="6928" max="6928" width="10.7109375" customWidth="1"/>
-    <col min="6929" max="6929" width="5.7109375" customWidth="1"/>
-    <col min="6930" max="6931" width="7.7109375" customWidth="1"/>
-    <col min="6932" max="6932" width="5.28515625" customWidth="1"/>
-    <col min="6933" max="6933" width="5.7109375" customWidth="1"/>
-    <col min="6934" max="6934" width="11.28515625" customWidth="1"/>
-    <col min="6935" max="6935" width="9.7109375" customWidth="1"/>
-    <col min="6936" max="6937" width="15.7109375" customWidth="1"/>
-    <col min="6938" max="6938" width="30.7109375" customWidth="1"/>
-    <col min="6939" max="6939" width="40.7109375" customWidth="1"/>
-    <col min="7169" max="7169" width="1.7109375" customWidth="1"/>
-    <col min="7170" max="7170" width="10.7109375" customWidth="1"/>
-    <col min="7171" max="7171" width="3.7109375" customWidth="1"/>
-    <col min="7172" max="7172" width="2.7109375" customWidth="1"/>
-    <col min="7173" max="7174" width="0" hidden="1" customWidth="1"/>
-    <col min="7175" max="7177" width="12.7109375" customWidth="1"/>
-    <col min="7178" max="7178" width="9.7109375" customWidth="1"/>
-    <col min="7179" max="7180" width="15.7109375" customWidth="1"/>
-    <col min="7181" max="7181" width="10.7109375" customWidth="1"/>
-    <col min="7182" max="7182" width="30.7109375" customWidth="1"/>
-    <col min="7183" max="7183" width="3.7109375" customWidth="1"/>
-    <col min="7184" max="7184" width="10.7109375" customWidth="1"/>
-    <col min="7185" max="7185" width="5.7109375" customWidth="1"/>
-    <col min="7186" max="7187" width="7.7109375" customWidth="1"/>
-    <col min="7188" max="7188" width="5.28515625" customWidth="1"/>
-    <col min="7189" max="7189" width="5.7109375" customWidth="1"/>
-    <col min="7190" max="7190" width="11.28515625" customWidth="1"/>
-    <col min="7191" max="7191" width="9.7109375" customWidth="1"/>
-    <col min="7192" max="7193" width="15.7109375" customWidth="1"/>
-    <col min="7194" max="7194" width="30.7109375" customWidth="1"/>
-    <col min="7195" max="7195" width="40.7109375" customWidth="1"/>
-    <col min="7425" max="7425" width="1.7109375" customWidth="1"/>
-    <col min="7426" max="7426" width="10.7109375" customWidth="1"/>
-    <col min="7427" max="7427" width="3.7109375" customWidth="1"/>
-    <col min="7428" max="7428" width="2.7109375" customWidth="1"/>
-    <col min="7429" max="7430" width="0" hidden="1" customWidth="1"/>
-    <col min="7431" max="7433" width="12.7109375" customWidth="1"/>
-    <col min="7434" max="7434" width="9.7109375" customWidth="1"/>
-    <col min="7435" max="7436" width="15.7109375" customWidth="1"/>
-    <col min="7437" max="7437" width="10.7109375" customWidth="1"/>
-    <col min="7438" max="7438" width="30.7109375" customWidth="1"/>
-    <col min="7439" max="7439" width="3.7109375" customWidth="1"/>
-    <col min="7440" max="7440" width="10.7109375" customWidth="1"/>
-    <col min="7441" max="7441" width="5.7109375" customWidth="1"/>
-    <col min="7442" max="7443" width="7.7109375" customWidth="1"/>
-    <col min="7444" max="7444" width="5.28515625" customWidth="1"/>
-    <col min="7445" max="7445" width="5.7109375" customWidth="1"/>
-    <col min="7446" max="7446" width="11.28515625" customWidth="1"/>
-    <col min="7447" max="7447" width="9.7109375" customWidth="1"/>
-    <col min="7448" max="7449" width="15.7109375" customWidth="1"/>
-    <col min="7450" max="7450" width="30.7109375" customWidth="1"/>
-    <col min="7451" max="7451" width="40.7109375" customWidth="1"/>
-    <col min="7681" max="7681" width="1.7109375" customWidth="1"/>
-    <col min="7682" max="7682" width="10.7109375" customWidth="1"/>
-    <col min="7683" max="7683" width="3.7109375" customWidth="1"/>
-    <col min="7684" max="7684" width="2.7109375" customWidth="1"/>
-    <col min="7685" max="7686" width="0" hidden="1" customWidth="1"/>
-    <col min="7687" max="7689" width="12.7109375" customWidth="1"/>
-    <col min="7690" max="7690" width="9.7109375" customWidth="1"/>
-    <col min="7691" max="7692" width="15.7109375" customWidth="1"/>
-    <col min="7693" max="7693" width="10.7109375" customWidth="1"/>
-    <col min="7694" max="7694" width="30.7109375" customWidth="1"/>
-    <col min="7695" max="7695" width="3.7109375" customWidth="1"/>
-    <col min="7696" max="7696" width="10.7109375" customWidth="1"/>
-    <col min="7697" max="7697" width="5.7109375" customWidth="1"/>
-    <col min="7698" max="7699" width="7.7109375" customWidth="1"/>
-    <col min="7700" max="7700" width="5.28515625" customWidth="1"/>
-    <col min="7701" max="7701" width="5.7109375" customWidth="1"/>
-    <col min="7702" max="7702" width="11.28515625" customWidth="1"/>
-    <col min="7703" max="7703" width="9.7109375" customWidth="1"/>
-    <col min="7704" max="7705" width="15.7109375" customWidth="1"/>
-    <col min="7706" max="7706" width="30.7109375" customWidth="1"/>
-    <col min="7707" max="7707" width="40.7109375" customWidth="1"/>
-    <col min="7937" max="7937" width="1.7109375" customWidth="1"/>
-    <col min="7938" max="7938" width="10.7109375" customWidth="1"/>
-    <col min="7939" max="7939" width="3.7109375" customWidth="1"/>
-    <col min="7940" max="7940" width="2.7109375" customWidth="1"/>
-    <col min="7941" max="7942" width="0" hidden="1" customWidth="1"/>
-    <col min="7943" max="7945" width="12.7109375" customWidth="1"/>
-    <col min="7946" max="7946" width="9.7109375" customWidth="1"/>
-    <col min="7947" max="7948" width="15.7109375" customWidth="1"/>
-    <col min="7949" max="7949" width="10.7109375" customWidth="1"/>
-    <col min="7950" max="7950" width="30.7109375" customWidth="1"/>
-    <col min="7951" max="7951" width="3.7109375" customWidth="1"/>
-    <col min="7952" max="7952" width="10.7109375" customWidth="1"/>
-    <col min="7953" max="7953" width="5.7109375" customWidth="1"/>
-    <col min="7954" max="7955" width="7.7109375" customWidth="1"/>
-    <col min="7956" max="7956" width="5.28515625" customWidth="1"/>
-    <col min="7957" max="7957" width="5.7109375" customWidth="1"/>
-    <col min="7958" max="7958" width="11.28515625" customWidth="1"/>
-    <col min="7959" max="7959" width="9.7109375" customWidth="1"/>
-    <col min="7960" max="7961" width="15.7109375" customWidth="1"/>
-    <col min="7962" max="7962" width="30.7109375" customWidth="1"/>
-    <col min="7963" max="7963" width="40.7109375" customWidth="1"/>
-    <col min="8193" max="8193" width="1.7109375" customWidth="1"/>
-    <col min="8194" max="8194" width="10.7109375" customWidth="1"/>
-    <col min="8195" max="8195" width="3.7109375" customWidth="1"/>
-    <col min="8196" max="8196" width="2.7109375" customWidth="1"/>
-    <col min="8197" max="8198" width="0" hidden="1" customWidth="1"/>
-    <col min="8199" max="8201" width="12.7109375" customWidth="1"/>
-    <col min="8202" max="8202" width="9.7109375" customWidth="1"/>
-    <col min="8203" max="8204" width="15.7109375" customWidth="1"/>
-    <col min="8205" max="8205" width="10.7109375" customWidth="1"/>
-    <col min="8206" max="8206" width="30.7109375" customWidth="1"/>
-    <col min="8207" max="8207" width="3.7109375" customWidth="1"/>
-    <col min="8208" max="8208" width="10.7109375" customWidth="1"/>
-    <col min="8209" max="8209" width="5.7109375" customWidth="1"/>
-    <col min="8210" max="8211" width="7.7109375" customWidth="1"/>
-    <col min="8212" max="8212" width="5.28515625" customWidth="1"/>
-    <col min="8213" max="8213" width="5.7109375" customWidth="1"/>
-    <col min="8214" max="8214" width="11.28515625" customWidth="1"/>
-    <col min="8215" max="8215" width="9.7109375" customWidth="1"/>
-    <col min="8216" max="8217" width="15.7109375" customWidth="1"/>
-    <col min="8218" max="8218" width="30.7109375" customWidth="1"/>
-    <col min="8219" max="8219" width="40.7109375" customWidth="1"/>
-    <col min="8449" max="8449" width="1.7109375" customWidth="1"/>
-    <col min="8450" max="8450" width="10.7109375" customWidth="1"/>
-    <col min="8451" max="8451" width="3.7109375" customWidth="1"/>
-    <col min="8452" max="8452" width="2.7109375" customWidth="1"/>
-    <col min="8453" max="8454" width="0" hidden="1" customWidth="1"/>
-    <col min="8455" max="8457" width="12.7109375" customWidth="1"/>
-    <col min="8458" max="8458" width="9.7109375" customWidth="1"/>
-    <col min="8459" max="8460" width="15.7109375" customWidth="1"/>
-    <col min="8461" max="8461" width="10.7109375" customWidth="1"/>
-    <col min="8462" max="8462" width="30.7109375" customWidth="1"/>
-    <col min="8463" max="8463" width="3.7109375" customWidth="1"/>
-    <col min="8464" max="8464" width="10.7109375" customWidth="1"/>
-    <col min="8465" max="8465" width="5.7109375" customWidth="1"/>
-    <col min="8466" max="8467" width="7.7109375" customWidth="1"/>
-    <col min="8468" max="8468" width="5.28515625" customWidth="1"/>
-    <col min="8469" max="8469" width="5.7109375" customWidth="1"/>
-    <col min="8470" max="8470" width="11.28515625" customWidth="1"/>
-    <col min="8471" max="8471" width="9.7109375" customWidth="1"/>
-    <col min="8472" max="8473" width="15.7109375" customWidth="1"/>
-    <col min="8474" max="8474" width="30.7109375" customWidth="1"/>
-    <col min="8475" max="8475" width="40.7109375" customWidth="1"/>
-    <col min="8705" max="8705" width="1.7109375" customWidth="1"/>
-    <col min="8706" max="8706" width="10.7109375" customWidth="1"/>
-    <col min="8707" max="8707" width="3.7109375" customWidth="1"/>
-    <col min="8708" max="8708" width="2.7109375" customWidth="1"/>
-    <col min="8709" max="8710" width="0" hidden="1" customWidth="1"/>
-    <col min="8711" max="8713" width="12.7109375" customWidth="1"/>
-    <col min="8714" max="8714" width="9.7109375" customWidth="1"/>
-    <col min="8715" max="8716" width="15.7109375" customWidth="1"/>
-    <col min="8717" max="8717" width="10.7109375" customWidth="1"/>
-    <col min="8718" max="8718" width="30.7109375" customWidth="1"/>
-    <col min="8719" max="8719" width="3.7109375" customWidth="1"/>
-    <col min="8720" max="8720" width="10.7109375" customWidth="1"/>
-    <col min="8721" max="8721" width="5.7109375" customWidth="1"/>
-    <col min="8722" max="8723" width="7.7109375" customWidth="1"/>
-    <col min="8724" max="8724" width="5.28515625" customWidth="1"/>
-    <col min="8725" max="8725" width="5.7109375" customWidth="1"/>
-    <col min="8726" max="8726" width="11.28515625" customWidth="1"/>
-    <col min="8727" max="8727" width="9.7109375" customWidth="1"/>
-    <col min="8728" max="8729" width="15.7109375" customWidth="1"/>
-    <col min="8730" max="8730" width="30.7109375" customWidth="1"/>
-    <col min="8731" max="8731" width="40.7109375" customWidth="1"/>
-    <col min="8961" max="8961" width="1.7109375" customWidth="1"/>
-    <col min="8962" max="8962" width="10.7109375" customWidth="1"/>
-    <col min="8963" max="8963" width="3.7109375" customWidth="1"/>
-    <col min="8964" max="8964" width="2.7109375" customWidth="1"/>
-    <col min="8965" max="8966" width="0" hidden="1" customWidth="1"/>
-    <col min="8967" max="8969" width="12.7109375" customWidth="1"/>
-    <col min="8970" max="8970" width="9.7109375" customWidth="1"/>
-    <col min="8971" max="8972" width="15.7109375" customWidth="1"/>
-    <col min="8973" max="8973" width="10.7109375" customWidth="1"/>
-    <col min="8974" max="8974" width="30.7109375" customWidth="1"/>
-    <col min="8975" max="8975" width="3.7109375" customWidth="1"/>
-    <col min="8976" max="8976" width="10.7109375" customWidth="1"/>
-    <col min="8977" max="8977" width="5.7109375" customWidth="1"/>
-    <col min="8978" max="8979" width="7.7109375" customWidth="1"/>
-    <col min="8980" max="8980" width="5.28515625" customWidth="1"/>
-    <col min="8981" max="8981" width="5.7109375" customWidth="1"/>
-    <col min="8982" max="8982" width="11.28515625" customWidth="1"/>
-    <col min="8983" max="8983" width="9.7109375" customWidth="1"/>
-    <col min="8984" max="8985" width="15.7109375" customWidth="1"/>
-    <col min="8986" max="8986" width="30.7109375" customWidth="1"/>
-    <col min="8987" max="8987" width="40.7109375" customWidth="1"/>
-    <col min="9217" max="9217" width="1.7109375" customWidth="1"/>
-    <col min="9218" max="9218" width="10.7109375" customWidth="1"/>
-    <col min="9219" max="9219" width="3.7109375" customWidth="1"/>
-    <col min="9220" max="9220" width="2.7109375" customWidth="1"/>
-    <col min="9221" max="9222" width="0" hidden="1" customWidth="1"/>
-    <col min="9223" max="9225" width="12.7109375" customWidth="1"/>
-    <col min="9226" max="9226" width="9.7109375" customWidth="1"/>
-    <col min="9227" max="9228" width="15.7109375" customWidth="1"/>
-    <col min="9229" max="9229" width="10.7109375" customWidth="1"/>
-    <col min="9230" max="9230" width="30.7109375" customWidth="1"/>
-    <col min="9231" max="9231" width="3.7109375" customWidth="1"/>
-    <col min="9232" max="9232" width="10.7109375" customWidth="1"/>
-    <col min="9233" max="9233" width="5.7109375" customWidth="1"/>
-    <col min="9234" max="9235" width="7.7109375" customWidth="1"/>
-    <col min="9236" max="9236" width="5.28515625" customWidth="1"/>
-    <col min="9237" max="9237" width="5.7109375" customWidth="1"/>
-    <col min="9238" max="9238" width="11.28515625" customWidth="1"/>
-    <col min="9239" max="9239" width="9.7109375" customWidth="1"/>
-    <col min="9240" max="9241" width="15.7109375" customWidth="1"/>
-    <col min="9242" max="9242" width="30.7109375" customWidth="1"/>
-    <col min="9243" max="9243" width="40.7109375" customWidth="1"/>
-    <col min="9473" max="9473" width="1.7109375" customWidth="1"/>
-    <col min="9474" max="9474" width="10.7109375" customWidth="1"/>
-    <col min="9475" max="9475" width="3.7109375" customWidth="1"/>
-    <col min="9476" max="9476" width="2.7109375" customWidth="1"/>
-    <col min="9477" max="9478" width="0" hidden="1" customWidth="1"/>
-    <col min="9479" max="9481" width="12.7109375" customWidth="1"/>
-    <col min="9482" max="9482" width="9.7109375" customWidth="1"/>
-    <col min="9483" max="9484" width="15.7109375" customWidth="1"/>
-    <col min="9485" max="9485" width="10.7109375" customWidth="1"/>
-    <col min="9486" max="9486" width="30.7109375" customWidth="1"/>
-    <col min="9487" max="9487" width="3.7109375" customWidth="1"/>
-    <col min="9488" max="9488" width="10.7109375" customWidth="1"/>
-    <col min="9489" max="9489" width="5.7109375" customWidth="1"/>
-    <col min="9490" max="9491" width="7.7109375" customWidth="1"/>
-    <col min="9492" max="9492" width="5.28515625" customWidth="1"/>
-    <col min="9493" max="9493" width="5.7109375" customWidth="1"/>
-    <col min="9494" max="9494" width="11.28515625" customWidth="1"/>
-    <col min="9495" max="9495" width="9.7109375" customWidth="1"/>
-    <col min="9496" max="9497" width="15.7109375" customWidth="1"/>
-    <col min="9498" max="9498" width="30.7109375" customWidth="1"/>
-    <col min="9499" max="9499" width="40.7109375" customWidth="1"/>
-    <col min="9729" max="9729" width="1.7109375" customWidth="1"/>
-    <col min="9730" max="9730" width="10.7109375" customWidth="1"/>
-    <col min="9731" max="9731" width="3.7109375" customWidth="1"/>
-    <col min="9732" max="9732" width="2.7109375" customWidth="1"/>
-    <col min="9733" max="9734" width="0" hidden="1" customWidth="1"/>
-    <col min="9735" max="9737" width="12.7109375" customWidth="1"/>
-    <col min="9738" max="9738" width="9.7109375" customWidth="1"/>
-    <col min="9739" max="9740" width="15.7109375" customWidth="1"/>
-    <col min="9741" max="9741" width="10.7109375" customWidth="1"/>
-    <col min="9742" max="9742" width="30.7109375" customWidth="1"/>
-    <col min="9743" max="9743" width="3.7109375" customWidth="1"/>
-    <col min="9744" max="9744" width="10.7109375" customWidth="1"/>
-    <col min="9745" max="9745" width="5.7109375" customWidth="1"/>
-    <col min="9746" max="9747" width="7.7109375" customWidth="1"/>
-    <col min="9748" max="9748" width="5.28515625" customWidth="1"/>
-    <col min="9749" max="9749" width="5.7109375" customWidth="1"/>
-    <col min="9750" max="9750" width="11.28515625" customWidth="1"/>
-    <col min="9751" max="9751" width="9.7109375" customWidth="1"/>
-    <col min="9752" max="9753" width="15.7109375" customWidth="1"/>
-    <col min="9754" max="9754" width="30.7109375" customWidth="1"/>
-    <col min="9755" max="9755" width="40.7109375" customWidth="1"/>
-    <col min="9985" max="9985" width="1.7109375" customWidth="1"/>
-    <col min="9986" max="9986" width="10.7109375" customWidth="1"/>
-    <col min="9987" max="9987" width="3.7109375" customWidth="1"/>
-    <col min="9988" max="9988" width="2.7109375" customWidth="1"/>
-    <col min="9989" max="9990" width="0" hidden="1" customWidth="1"/>
-    <col min="9991" max="9993" width="12.7109375" customWidth="1"/>
-    <col min="9994" max="9994" width="9.7109375" customWidth="1"/>
-    <col min="9995" max="9996" width="15.7109375" customWidth="1"/>
-    <col min="9997" max="9997" width="10.7109375" customWidth="1"/>
-    <col min="9998" max="9998" width="30.7109375" customWidth="1"/>
-    <col min="9999" max="9999" width="3.7109375" customWidth="1"/>
-    <col min="10000" max="10000" width="10.7109375" customWidth="1"/>
-    <col min="10001" max="10001" width="5.7109375" customWidth="1"/>
-    <col min="10002" max="10003" width="7.7109375" customWidth="1"/>
-    <col min="10004" max="10004" width="5.28515625" customWidth="1"/>
-    <col min="10005" max="10005" width="5.7109375" customWidth="1"/>
-    <col min="10006" max="10006" width="11.28515625" customWidth="1"/>
-    <col min="10007" max="10007" width="9.7109375" customWidth="1"/>
-    <col min="10008" max="10009" width="15.7109375" customWidth="1"/>
-    <col min="10010" max="10010" width="30.7109375" customWidth="1"/>
-    <col min="10011" max="10011" width="40.7109375" customWidth="1"/>
-    <col min="10241" max="10241" width="1.7109375" customWidth="1"/>
-    <col min="10242" max="10242" width="10.7109375" customWidth="1"/>
-    <col min="10243" max="10243" width="3.7109375" customWidth="1"/>
-    <col min="10244" max="10244" width="2.7109375" customWidth="1"/>
-    <col min="10245" max="10246" width="0" hidden="1" customWidth="1"/>
-    <col min="10247" max="10249" width="12.7109375" customWidth="1"/>
-    <col min="10250" max="10250" width="9.7109375" customWidth="1"/>
-    <col min="10251" max="10252" width="15.7109375" customWidth="1"/>
-    <col min="10253" max="10253" width="10.7109375" customWidth="1"/>
-    <col min="10254" max="10254" width="30.7109375" customWidth="1"/>
-    <col min="10255" max="10255" width="3.7109375" customWidth="1"/>
-    <col min="10256" max="10256" width="10.7109375" customWidth="1"/>
-    <col min="10257" max="10257" width="5.7109375" customWidth="1"/>
-    <col min="10258" max="10259" width="7.7109375" customWidth="1"/>
-    <col min="10260" max="10260" width="5.28515625" customWidth="1"/>
-    <col min="10261" max="10261" width="5.7109375" customWidth="1"/>
-    <col min="10262" max="10262" width="11.28515625" customWidth="1"/>
-    <col min="10263" max="10263" width="9.7109375" customWidth="1"/>
-    <col min="10264" max="10265" width="15.7109375" customWidth="1"/>
-    <col min="10266" max="10266" width="30.7109375" customWidth="1"/>
-    <col min="10267" max="10267" width="40.7109375" customWidth="1"/>
-    <col min="10497" max="10497" width="1.7109375" customWidth="1"/>
-    <col min="10498" max="10498" width="10.7109375" customWidth="1"/>
-    <col min="10499" max="10499" width="3.7109375" customWidth="1"/>
-    <col min="10500" max="10500" width="2.7109375" customWidth="1"/>
-    <col min="10501" max="10502" width="0" hidden="1" customWidth="1"/>
-    <col min="10503" max="10505" width="12.7109375" customWidth="1"/>
-    <col min="10506" max="10506" width="9.7109375" customWidth="1"/>
-    <col min="10507" max="10508" width="15.7109375" customWidth="1"/>
-    <col min="10509" max="10509" width="10.7109375" customWidth="1"/>
-    <col min="10510" max="10510" width="30.7109375" customWidth="1"/>
-    <col min="10511" max="10511" width="3.7109375" customWidth="1"/>
-    <col min="10512" max="10512" width="10.7109375" customWidth="1"/>
-    <col min="10513" max="10513" width="5.7109375" customWidth="1"/>
-    <col min="10514" max="10515" width="7.7109375" customWidth="1"/>
-    <col min="10516" max="10516" width="5.28515625" customWidth="1"/>
-    <col min="10517" max="10517" width="5.7109375" customWidth="1"/>
-    <col min="10518" max="10518" width="11.28515625" customWidth="1"/>
-    <col min="10519" max="10519" width="9.7109375" customWidth="1"/>
-    <col min="10520" max="10521" width="15.7109375" customWidth="1"/>
-    <col min="10522" max="10522" width="30.7109375" customWidth="1"/>
-    <col min="10523" max="10523" width="40.7109375" customWidth="1"/>
-    <col min="10753" max="10753" width="1.7109375" customWidth="1"/>
-    <col min="10754" max="10754" width="10.7109375" customWidth="1"/>
-    <col min="10755" max="10755" width="3.7109375" customWidth="1"/>
-    <col min="10756" max="10756" width="2.7109375" customWidth="1"/>
-    <col min="10757" max="10758" width="0" hidden="1" customWidth="1"/>
-    <col min="10759" max="10761" width="12.7109375" customWidth="1"/>
-    <col min="10762" max="10762" width="9.7109375" customWidth="1"/>
-    <col min="10763" max="10764" width="15.7109375" customWidth="1"/>
-    <col min="10765" max="10765" width="10.7109375" customWidth="1"/>
-    <col min="10766" max="10766" width="30.7109375" customWidth="1"/>
-    <col min="10767" max="10767" width="3.7109375" customWidth="1"/>
-    <col min="10768" max="10768" width="10.7109375" customWidth="1"/>
-    <col min="10769" max="10769" width="5.7109375" customWidth="1"/>
-    <col min="10770" max="10771" width="7.7109375" customWidth="1"/>
-    <col min="10772" max="10772" width="5.28515625" customWidth="1"/>
-    <col min="10773" max="10773" width="5.7109375" customWidth="1"/>
-    <col min="10774" max="10774" width="11.28515625" customWidth="1"/>
-    <col min="10775" max="10775" width="9.7109375" customWidth="1"/>
-    <col min="10776" max="10777" width="15.7109375" customWidth="1"/>
-    <col min="10778" max="10778" width="30.7109375" customWidth="1"/>
-    <col min="10779" max="10779" width="40.7109375" customWidth="1"/>
-    <col min="11009" max="11009" width="1.7109375" customWidth="1"/>
-    <col min="11010" max="11010" width="10.7109375" customWidth="1"/>
-    <col min="11011" max="11011" width="3.7109375" customWidth="1"/>
-    <col min="11012" max="11012" width="2.7109375" customWidth="1"/>
-    <col min="11013" max="11014" width="0" hidden="1" customWidth="1"/>
-    <col min="11015" max="11017" width="12.7109375" customWidth="1"/>
-    <col min="11018" max="11018" width="9.7109375" customWidth="1"/>
-    <col min="11019" max="11020" width="15.7109375" customWidth="1"/>
-    <col min="11021" max="11021" width="10.7109375" customWidth="1"/>
-    <col min="11022" max="11022" width="30.7109375" customWidth="1"/>
-    <col min="11023" max="11023" width="3.7109375" customWidth="1"/>
-    <col min="11024" max="11024" width="10.7109375" customWidth="1"/>
-    <col min="11025" max="11025" width="5.7109375" customWidth="1"/>
-    <col min="11026" max="11027" width="7.7109375" customWidth="1"/>
-    <col min="11028" max="11028" width="5.28515625" customWidth="1"/>
-    <col min="11029" max="11029" width="5.7109375" customWidth="1"/>
-    <col min="11030" max="11030" width="11.28515625" customWidth="1"/>
-    <col min="11031" max="11031" width="9.7109375" customWidth="1"/>
-    <col min="11032" max="11033" width="15.7109375" customWidth="1"/>
-    <col min="11034" max="11034" width="30.7109375" customWidth="1"/>
-    <col min="11035" max="11035" width="40.7109375" customWidth="1"/>
-    <col min="11265" max="11265" width="1.7109375" customWidth="1"/>
-    <col min="11266" max="11266" width="10.7109375" customWidth="1"/>
-    <col min="11267" max="11267" width="3.7109375" customWidth="1"/>
-    <col min="11268" max="11268" width="2.7109375" customWidth="1"/>
-    <col min="11269" max="11270" width="0" hidden="1" customWidth="1"/>
-    <col min="11271" max="11273" width="12.7109375" customWidth="1"/>
-    <col min="11274" max="11274" width="9.7109375" customWidth="1"/>
-    <col min="11275" max="11276" width="15.7109375" customWidth="1"/>
-    <col min="11277" max="11277" width="10.7109375" customWidth="1"/>
-    <col min="11278" max="11278" width="30.7109375" customWidth="1"/>
-    <col min="11279" max="11279" width="3.7109375" customWidth="1"/>
-    <col min="11280" max="11280" width="10.7109375" customWidth="1"/>
-    <col min="11281" max="11281" width="5.7109375" customWidth="1"/>
-    <col min="11282" max="11283" width="7.7109375" customWidth="1"/>
-    <col min="11284" max="11284" width="5.28515625" customWidth="1"/>
-    <col min="11285" max="11285" width="5.7109375" customWidth="1"/>
-    <col min="11286" max="11286" width="11.28515625" customWidth="1"/>
-    <col min="11287" max="11287" width="9.7109375" customWidth="1"/>
-    <col min="11288" max="11289" width="15.7109375" customWidth="1"/>
-    <col min="11290" max="11290" width="30.7109375" customWidth="1"/>
-    <col min="11291" max="11291" width="40.7109375" customWidth="1"/>
-    <col min="11521" max="11521" width="1.7109375" customWidth="1"/>
-    <col min="11522" max="11522" width="10.7109375" customWidth="1"/>
-    <col min="11523" max="11523" width="3.7109375" customWidth="1"/>
-    <col min="11524" max="11524" width="2.7109375" customWidth="1"/>
-    <col min="11525" max="11526" width="0" hidden="1" customWidth="1"/>
-    <col min="11527" max="11529" width="12.7109375" customWidth="1"/>
-    <col min="11530" max="11530" width="9.7109375" customWidth="1"/>
-    <col min="11531" max="11532" width="15.7109375" customWidth="1"/>
-    <col min="11533" max="11533" width="10.7109375" customWidth="1"/>
-    <col min="11534" max="11534" width="30.7109375" customWidth="1"/>
-    <col min="11535" max="11535" width="3.7109375" customWidth="1"/>
-    <col min="11536" max="11536" width="10.7109375" customWidth="1"/>
-    <col min="11537" max="11537" width="5.7109375" customWidth="1"/>
-    <col min="11538" max="11539" width="7.7109375" customWidth="1"/>
-    <col min="11540" max="11540" width="5.28515625" customWidth="1"/>
-    <col min="11541" max="11541" width="5.7109375" customWidth="1"/>
-    <col min="11542" max="11542" width="11.28515625" customWidth="1"/>
-    <col min="11543" max="11543" width="9.7109375" customWidth="1"/>
-    <col min="11544" max="11545" width="15.7109375" customWidth="1"/>
-    <col min="11546" max="11546" width="30.7109375" customWidth="1"/>
-    <col min="11547" max="11547" width="40.7109375" customWidth="1"/>
-    <col min="11777" max="11777" width="1.7109375" customWidth="1"/>
-    <col min="11778" max="11778" width="10.7109375" customWidth="1"/>
-    <col min="11779" max="11779" width="3.7109375" customWidth="1"/>
-    <col min="11780" max="11780" width="2.7109375" customWidth="1"/>
-    <col min="11781" max="11782" width="0" hidden="1" customWidth="1"/>
-    <col min="11783" max="11785" width="12.7109375" customWidth="1"/>
-    <col min="11786" max="11786" width="9.7109375" customWidth="1"/>
-    <col min="11787" max="11788" width="15.7109375" customWidth="1"/>
-    <col min="11789" max="11789" width="10.7109375" customWidth="1"/>
-    <col min="11790" max="11790" width="30.7109375" customWidth="1"/>
-    <col min="11791" max="11791" width="3.7109375" customWidth="1"/>
-    <col min="11792" max="11792" width="10.7109375" customWidth="1"/>
-    <col min="11793" max="11793" width="5.7109375" customWidth="1"/>
-    <col min="11794" max="11795" width="7.7109375" customWidth="1"/>
-    <col min="11796" max="11796" width="5.28515625" customWidth="1"/>
-    <col min="11797" max="11797" width="5.7109375" customWidth="1"/>
-    <col min="11798" max="11798" width="11.28515625" customWidth="1"/>
-    <col min="11799" max="11799" width="9.7109375" customWidth="1"/>
-    <col min="11800" max="11801" width="15.7109375" customWidth="1"/>
-    <col min="11802" max="11802" width="30.7109375" customWidth="1"/>
-    <col min="11803" max="11803" width="40.7109375" customWidth="1"/>
-    <col min="12033" max="12033" width="1.7109375" customWidth="1"/>
-    <col min="12034" max="12034" width="10.7109375" customWidth="1"/>
-    <col min="12035" max="12035" width="3.7109375" customWidth="1"/>
-    <col min="12036" max="12036" width="2.7109375" customWidth="1"/>
-    <col min="12037" max="12038" width="0" hidden="1" customWidth="1"/>
-    <col min="12039" max="12041" width="12.7109375" customWidth="1"/>
-    <col min="12042" max="12042" width="9.7109375" customWidth="1"/>
-    <col min="12043" max="12044" width="15.7109375" customWidth="1"/>
-    <col min="12045" max="12045" width="10.7109375" customWidth="1"/>
-    <col min="12046" max="12046" width="30.7109375" customWidth="1"/>
-    <col min="12047" max="12047" width="3.7109375" customWidth="1"/>
-    <col min="12048" max="12048" width="10.7109375" customWidth="1"/>
-    <col min="12049" max="12049" width="5.7109375" customWidth="1"/>
-    <col min="12050" max="12051" width="7.7109375" customWidth="1"/>
-    <col min="12052" max="12052" width="5.28515625" customWidth="1"/>
-    <col min="12053" max="12053" width="5.7109375" customWidth="1"/>
-    <col min="12054" max="12054" width="11.28515625" customWidth="1"/>
-    <col min="12055" max="12055" width="9.7109375" customWidth="1"/>
-    <col min="12056" max="12057" width="15.7109375" customWidth="1"/>
-    <col min="12058" max="12058" width="30.7109375" customWidth="1"/>
-    <col min="12059" max="12059" width="40.7109375" customWidth="1"/>
-    <col min="12289" max="12289" width="1.7109375" customWidth="1"/>
-    <col min="12290" max="12290" width="10.7109375" customWidth="1"/>
-    <col min="12291" max="12291" width="3.7109375" customWidth="1"/>
-    <col min="12292" max="12292" width="2.7109375" customWidth="1"/>
-    <col min="12293" max="12294" width="0" hidden="1" customWidth="1"/>
-    <col min="12295" max="12297" width="12.7109375" customWidth="1"/>
-    <col min="12298" max="12298" width="9.7109375" customWidth="1"/>
-    <col min="12299" max="12300" width="15.7109375" customWidth="1"/>
-    <col min="12301" max="12301" width="10.7109375" customWidth="1"/>
-    <col min="12302" max="12302" width="30.7109375" customWidth="1"/>
-    <col min="12303" max="12303" width="3.7109375" customWidth="1"/>
-    <col min="12304" max="12304" width="10.7109375" customWidth="1"/>
-    <col min="12305" max="12305" width="5.7109375" customWidth="1"/>
-    <col min="12306" max="12307" width="7.7109375" customWidth="1"/>
-    <col min="12308" max="12308" width="5.28515625" customWidth="1"/>
-    <col min="12309" max="12309" width="5.7109375" customWidth="1"/>
-    <col min="12310" max="12310" width="11.28515625" customWidth="1"/>
-    <col min="12311" max="12311" width="9.7109375" customWidth="1"/>
-    <col min="12312" max="12313" width="15.7109375" customWidth="1"/>
-    <col min="12314" max="12314" width="30.7109375" customWidth="1"/>
-    <col min="12315" max="12315" width="40.7109375" customWidth="1"/>
-    <col min="12545" max="12545" width="1.7109375" customWidth="1"/>
-    <col min="12546" max="12546" width="10.7109375" customWidth="1"/>
-    <col min="12547" max="12547" width="3.7109375" customWidth="1"/>
-    <col min="12548" max="12548" width="2.7109375" customWidth="1"/>
-    <col min="12549" max="12550" width="0" hidden="1" customWidth="1"/>
-    <col min="12551" max="12553" width="12.7109375" customWidth="1"/>
-    <col min="12554" max="12554" width="9.7109375" customWidth="1"/>
-    <col min="12555" max="12556" width="15.7109375" customWidth="1"/>
-    <col min="12557" max="12557" width="10.7109375" customWidth="1"/>
-    <col min="12558" max="12558" width="30.7109375" customWidth="1"/>
-    <col min="12559" max="12559" width="3.7109375" customWidth="1"/>
-    <col min="12560" max="12560" width="10.7109375" customWidth="1"/>
-    <col min="12561" max="12561" width="5.7109375" customWidth="1"/>
-    <col min="12562" max="12563" width="7.7109375" customWidth="1"/>
-    <col min="12564" max="12564" width="5.28515625" customWidth="1"/>
-    <col min="12565" max="12565" width="5.7109375" customWidth="1"/>
-    <col min="12566" max="12566" width="11.28515625" customWidth="1"/>
-    <col min="12567" max="12567" width="9.7109375" customWidth="1"/>
-    <col min="12568" max="12569" width="15.7109375" customWidth="1"/>
-    <col min="12570" max="12570" width="30.7109375" customWidth="1"/>
-    <col min="12571" max="12571" width="40.7109375" customWidth="1"/>
-    <col min="12801" max="12801" width="1.7109375" customWidth="1"/>
-    <col min="12802" max="12802" width="10.7109375" customWidth="1"/>
-    <col min="12803" max="12803" width="3.7109375" customWidth="1"/>
-    <col min="12804" max="12804" width="2.7109375" customWidth="1"/>
-    <col min="12805" max="12806" width="0" hidden="1" customWidth="1"/>
-    <col min="12807" max="12809" width="12.7109375" customWidth="1"/>
-    <col min="12810" max="12810" width="9.7109375" customWidth="1"/>
-    <col min="12811" max="12812" width="15.7109375" customWidth="1"/>
-    <col min="12813" max="12813" width="10.7109375" customWidth="1"/>
-    <col min="12814" max="12814" width="30.7109375" customWidth="1"/>
-    <col min="12815" max="12815" width="3.7109375" customWidth="1"/>
-    <col min="12816" max="12816" width="10.7109375" customWidth="1"/>
-    <col min="12817" max="12817" width="5.7109375" customWidth="1"/>
-    <col min="12818" max="12819" width="7.7109375" customWidth="1"/>
-    <col min="12820" max="12820" width="5.28515625" customWidth="1"/>
-    <col min="12821" max="12821" width="5.7109375" customWidth="1"/>
-    <col min="12822" max="12822" width="11.28515625" customWidth="1"/>
-    <col min="12823" max="12823" width="9.7109375" customWidth="1"/>
-    <col min="12824" max="12825" width="15.7109375" customWidth="1"/>
-    <col min="12826" max="12826" width="30.7109375" customWidth="1"/>
-    <col min="12827" max="12827" width="40.7109375" customWidth="1"/>
-    <col min="13057" max="13057" width="1.7109375" customWidth="1"/>
-    <col min="13058" max="13058" width="10.7109375" customWidth="1"/>
-    <col min="13059" max="13059" width="3.7109375" customWidth="1"/>
-    <col min="13060" max="13060" width="2.7109375" customWidth="1"/>
-    <col min="13061" max="13062" width="0" hidden="1" customWidth="1"/>
-    <col min="13063" max="13065" width="12.7109375" customWidth="1"/>
-    <col min="13066" max="13066" width="9.7109375" customWidth="1"/>
-    <col min="13067" max="13068" width="15.7109375" customWidth="1"/>
-    <col min="13069" max="13069" width="10.7109375" customWidth="1"/>
-    <col min="13070" max="13070" width="30.7109375" customWidth="1"/>
-    <col min="13071" max="13071" width="3.7109375" customWidth="1"/>
-    <col min="13072" max="13072" width="10.7109375" customWidth="1"/>
-    <col min="13073" max="13073" width="5.7109375" customWidth="1"/>
-    <col min="13074" max="13075" width="7.7109375" customWidth="1"/>
-    <col min="13076" max="13076" width="5.28515625" customWidth="1"/>
-    <col min="13077" max="13077" width="5.7109375" customWidth="1"/>
-    <col min="13078" max="13078" width="11.28515625" customWidth="1"/>
-    <col min="13079" max="13079" width="9.7109375" customWidth="1"/>
-    <col min="13080" max="13081" width="15.7109375" customWidth="1"/>
-    <col min="13082" max="13082" width="30.7109375" customWidth="1"/>
-    <col min="13083" max="13083" width="40.7109375" customWidth="1"/>
-    <col min="13313" max="13313" width="1.7109375" customWidth="1"/>
-    <col min="13314" max="13314" width="10.7109375" customWidth="1"/>
-    <col min="13315" max="13315" width="3.7109375" customWidth="1"/>
-    <col min="13316" max="13316" width="2.7109375" customWidth="1"/>
-    <col min="13317" max="13318" width="0" hidden="1" customWidth="1"/>
-    <col min="13319" max="13321" width="12.7109375" customWidth="1"/>
-    <col min="13322" max="13322" width="9.7109375" customWidth="1"/>
-    <col min="13323" max="13324" width="15.7109375" customWidth="1"/>
-    <col min="13325" max="13325" width="10.7109375" customWidth="1"/>
-    <col min="13326" max="13326" width="30.7109375" customWidth="1"/>
-    <col min="13327" max="13327" width="3.7109375" customWidth="1"/>
-    <col min="13328" max="13328" width="10.7109375" customWidth="1"/>
-    <col min="13329" max="13329" width="5.7109375" customWidth="1"/>
-    <col min="13330" max="13331" width="7.7109375" customWidth="1"/>
-    <col min="13332" max="13332" width="5.28515625" customWidth="1"/>
-    <col min="13333" max="13333" width="5.7109375" customWidth="1"/>
-    <col min="13334" max="13334" width="11.28515625" customWidth="1"/>
-    <col min="13335" max="13335" width="9.7109375" customWidth="1"/>
-    <col min="13336" max="13337" width="15.7109375" customWidth="1"/>
-    <col min="13338" max="13338" width="30.7109375" customWidth="1"/>
-    <col min="13339" max="13339" width="40.7109375" customWidth="1"/>
-    <col min="13569" max="13569" width="1.7109375" customWidth="1"/>
-    <col min="13570" max="13570" width="10.7109375" customWidth="1"/>
-    <col min="13571" max="13571" width="3.7109375" customWidth="1"/>
-    <col min="13572" max="13572" width="2.7109375" customWidth="1"/>
-    <col min="13573" max="13574" width="0" hidden="1" customWidth="1"/>
-    <col min="13575" max="13577" width="12.7109375" customWidth="1"/>
-    <col min="13578" max="13578" width="9.7109375" customWidth="1"/>
-    <col min="13579" max="13580" width="15.7109375" customWidth="1"/>
-    <col min="13581" max="13581" width="10.7109375" customWidth="1"/>
-    <col min="13582" max="13582" width="30.7109375" customWidth="1"/>
-    <col min="13583" max="13583" width="3.7109375" customWidth="1"/>
-    <col min="13584" max="13584" width="10.7109375" customWidth="1"/>
-    <col min="13585" max="13585" width="5.7109375" customWidth="1"/>
-    <col min="13586" max="13587" width="7.7109375" customWidth="1"/>
-    <col min="13588" max="13588" width="5.28515625" customWidth="1"/>
-    <col min="13589" max="13589" width="5.7109375" customWidth="1"/>
-    <col min="13590" max="13590" width="11.28515625" customWidth="1"/>
-    <col min="13591" max="13591" width="9.7109375" customWidth="1"/>
-    <col min="13592" max="13593" width="15.7109375" customWidth="1"/>
-    <col min="13594" max="13594" width="30.7109375" customWidth="1"/>
-    <col min="13595" max="13595" width="40.7109375" customWidth="1"/>
-    <col min="13825" max="13825" width="1.7109375" customWidth="1"/>
-    <col min="13826" max="13826" width="10.7109375" customWidth="1"/>
-    <col min="13827" max="13827" width="3.7109375" customWidth="1"/>
-    <col min="13828" max="13828" width="2.7109375" customWidth="1"/>
-    <col min="13829" max="13830" width="0" hidden="1" customWidth="1"/>
-    <col min="13831" max="13833" width="12.7109375" customWidth="1"/>
-    <col min="13834" max="13834" width="9.7109375" customWidth="1"/>
-    <col min="13835" max="13836" width="15.7109375" customWidth="1"/>
-    <col min="13837" max="13837" width="10.7109375" customWidth="1"/>
-    <col min="13838" max="13838" width="30.7109375" customWidth="1"/>
-    <col min="13839" max="13839" width="3.7109375" customWidth="1"/>
-    <col min="13840" max="13840" width="10.7109375" customWidth="1"/>
-    <col min="13841" max="13841" width="5.7109375" customWidth="1"/>
-    <col min="13842" max="13843" width="7.7109375" customWidth="1"/>
-    <col min="13844" max="13844" width="5.28515625" customWidth="1"/>
-    <col min="13845" max="13845" width="5.7109375" customWidth="1"/>
-    <col min="13846" max="13846" width="11.28515625" customWidth="1"/>
-    <col min="13847" max="13847" width="9.7109375" customWidth="1"/>
-    <col min="13848" max="13849" width="15.7109375" customWidth="1"/>
-    <col min="13850" max="13850" width="30.7109375" customWidth="1"/>
-    <col min="13851" max="13851" width="40.7109375" customWidth="1"/>
-    <col min="14081" max="14081" width="1.7109375" customWidth="1"/>
-    <col min="14082" max="14082" width="10.7109375" customWidth="1"/>
-    <col min="14083" max="14083" width="3.7109375" customWidth="1"/>
-    <col min="14084" max="14084" width="2.7109375" customWidth="1"/>
-    <col min="14085" max="14086" width="0" hidden="1" customWidth="1"/>
-    <col min="14087" max="14089" width="12.7109375" customWidth="1"/>
-    <col min="14090" max="14090" width="9.7109375" customWidth="1"/>
-    <col min="14091" max="14092" width="15.7109375" customWidth="1"/>
-    <col min="14093" max="14093" width="10.7109375" customWidth="1"/>
-    <col min="14094" max="14094" width="30.7109375" customWidth="1"/>
-    <col min="14095" max="14095" width="3.7109375" customWidth="1"/>
-    <col min="14096" max="14096" width="10.7109375" customWidth="1"/>
-    <col min="14097" max="14097" width="5.7109375" customWidth="1"/>
-    <col min="14098" max="14099" width="7.7109375" customWidth="1"/>
-    <col min="14100" max="14100" width="5.28515625" customWidth="1"/>
-    <col min="14101" max="14101" width="5.7109375" customWidth="1"/>
-    <col min="14102" max="14102" width="11.28515625" customWidth="1"/>
-    <col min="14103" max="14103" width="9.7109375" customWidth="1"/>
-    <col min="14104" max="14105" width="15.7109375" customWidth="1"/>
-    <col min="14106" max="14106" width="30.7109375" customWidth="1"/>
-    <col min="14107" max="14107" width="40.7109375" customWidth="1"/>
-    <col min="14337" max="14337" width="1.7109375" customWidth="1"/>
-    <col min="14338" max="14338" width="10.7109375" customWidth="1"/>
-    <col min="14339" max="14339" width="3.7109375" customWidth="1"/>
-    <col min="14340" max="14340" width="2.7109375" customWidth="1"/>
-    <col min="14341" max="14342" width="0" hidden="1" customWidth="1"/>
-    <col min="14343" max="14345" width="12.7109375" customWidth="1"/>
-    <col min="14346" max="14346" width="9.7109375" customWidth="1"/>
-    <col min="14347" max="14348" width="15.7109375" customWidth="1"/>
-    <col min="14349" max="14349" width="10.7109375" customWidth="1"/>
-    <col min="14350" max="14350" width="30.7109375" customWidth="1"/>
-    <col min="14351" max="14351" width="3.7109375" customWidth="1"/>
-    <col min="14352" max="14352" width="10.7109375" customWidth="1"/>
-    <col min="14353" max="14353" width="5.7109375" customWidth="1"/>
-    <col min="14354" max="14355" width="7.7109375" customWidth="1"/>
-    <col min="14356" max="14356" width="5.28515625" customWidth="1"/>
-    <col min="14357" max="14357" width="5.7109375" customWidth="1"/>
-    <col min="14358" max="14358" width="11.28515625" customWidth="1"/>
-    <col min="14359" max="14359" width="9.7109375" customWidth="1"/>
-    <col min="14360" max="14361" width="15.7109375" customWidth="1"/>
-    <col min="14362" max="14362" width="30.7109375" customWidth="1"/>
-    <col min="14363" max="14363" width="40.7109375" customWidth="1"/>
-    <col min="14593" max="14593" width="1.7109375" customWidth="1"/>
-    <col min="14594" max="14594" width="10.7109375" customWidth="1"/>
-    <col min="14595" max="14595" width="3.7109375" customWidth="1"/>
-    <col min="14596" max="14596" width="2.7109375" customWidth="1"/>
-    <col min="14597" max="14598" width="0" hidden="1" customWidth="1"/>
-    <col min="14599" max="14601" width="12.7109375" customWidth="1"/>
-    <col min="14602" max="14602" width="9.7109375" customWidth="1"/>
-    <col min="14603" max="14604" width="15.7109375" customWidth="1"/>
-    <col min="14605" max="14605" width="10.7109375" customWidth="1"/>
-    <col min="14606" max="14606" width="30.7109375" customWidth="1"/>
-    <col min="14607" max="14607" width="3.7109375" customWidth="1"/>
-    <col min="14608" max="14608" width="10.7109375" customWidth="1"/>
-    <col min="14609" max="14609" width="5.7109375" customWidth="1"/>
-    <col min="14610" max="14611" width="7.7109375" customWidth="1"/>
-    <col min="14612" max="14612" width="5.28515625" customWidth="1"/>
-    <col min="14613" max="14613" width="5.7109375" customWidth="1"/>
-    <col min="14614" max="14614" width="11.28515625" customWidth="1"/>
-    <col min="14615" max="14615" width="9.7109375" customWidth="1"/>
-    <col min="14616" max="14617" width="15.7109375" customWidth="1"/>
-    <col min="14618" max="14618" width="30.7109375" customWidth="1"/>
-    <col min="14619" max="14619" width="40.7109375" customWidth="1"/>
-    <col min="14849" max="14849" width="1.7109375" customWidth="1"/>
-    <col min="14850" max="14850" width="10.7109375" customWidth="1"/>
-    <col min="14851" max="14851" width="3.7109375" customWidth="1"/>
-    <col min="14852" max="14852" width="2.7109375" customWidth="1"/>
-    <col min="14853" max="14854" width="0" hidden="1" customWidth="1"/>
-    <col min="14855" max="14857" width="12.7109375" customWidth="1"/>
-    <col min="14858" max="14858" width="9.7109375" customWidth="1"/>
-    <col min="14859" max="14860" width="15.7109375" customWidth="1"/>
-    <col min="14861" max="14861" width="10.7109375" customWidth="1"/>
-    <col min="14862" max="14862" width="30.7109375" customWidth="1"/>
-    <col min="14863" max="14863" width="3.7109375" customWidth="1"/>
-    <col min="14864" max="14864" width="10.7109375" customWidth="1"/>
-    <col min="14865" max="14865" width="5.7109375" customWidth="1"/>
-    <col min="14866" max="14867" width="7.7109375" customWidth="1"/>
-    <col min="14868" max="14868" width="5.28515625" customWidth="1"/>
-    <col min="14869" max="14869" width="5.7109375" customWidth="1"/>
-    <col min="14870" max="14870" width="11.28515625" customWidth="1"/>
-    <col min="14871" max="14871" width="9.7109375" customWidth="1"/>
-    <col min="14872" max="14873" width="15.7109375" customWidth="1"/>
-    <col min="14874" max="14874" width="30.7109375" customWidth="1"/>
-    <col min="14875" max="14875" width="40.7109375" customWidth="1"/>
-    <col min="15105" max="15105" width="1.7109375" customWidth="1"/>
-    <col min="15106" max="15106" width="10.7109375" customWidth="1"/>
-    <col min="15107" max="15107" width="3.7109375" customWidth="1"/>
-    <col min="15108" max="15108" width="2.7109375" customWidth="1"/>
-    <col min="15109" max="15110" width="0" hidden="1" customWidth="1"/>
-    <col min="15111" max="15113" width="12.7109375" customWidth="1"/>
-    <col min="15114" max="15114" width="9.7109375" customWidth="1"/>
-    <col min="15115" max="15116" width="15.7109375" customWidth="1"/>
-    <col min="15117" max="15117" width="10.7109375" customWidth="1"/>
-    <col min="15118" max="15118" width="30.7109375" customWidth="1"/>
-    <col min="15119" max="15119" width="3.7109375" customWidth="1"/>
-    <col min="15120" max="15120" width="10.7109375" customWidth="1"/>
-    <col min="15121" max="15121" width="5.7109375" customWidth="1"/>
-    <col min="15122" max="15123" width="7.7109375" customWidth="1"/>
-    <col min="15124" max="15124" width="5.28515625" customWidth="1"/>
-    <col min="15125" max="15125" width="5.7109375" customWidth="1"/>
-    <col min="15126" max="15126" width="11.28515625" customWidth="1"/>
-    <col min="15127" max="15127" width="9.7109375" customWidth="1"/>
-    <col min="15128" max="15129" width="15.7109375" customWidth="1"/>
-    <col min="15130" max="15130" width="30.7109375" customWidth="1"/>
-    <col min="15131" max="15131" width="40.7109375" customWidth="1"/>
-    <col min="15361" max="15361" width="1.7109375" customWidth="1"/>
-    <col min="15362" max="15362" width="10.7109375" customWidth="1"/>
-    <col min="15363" max="15363" width="3.7109375" customWidth="1"/>
-    <col min="15364" max="15364" width="2.7109375" customWidth="1"/>
-    <col min="15365" max="15366" width="0" hidden="1" customWidth="1"/>
-    <col min="15367" max="15369" width="12.7109375" customWidth="1"/>
-    <col min="15370" max="15370" width="9.7109375" customWidth="1"/>
-    <col min="15371" max="15372" width="15.7109375" customWidth="1"/>
-    <col min="15373" max="15373" width="10.7109375" customWidth="1"/>
-    <col min="15374" max="15374" width="30.7109375" customWidth="1"/>
-    <col min="15375" max="15375" width="3.7109375" customWidth="1"/>
-    <col min="15376" max="15376" width="10.7109375" customWidth="1"/>
-    <col min="15377" max="15377" width="5.7109375" customWidth="1"/>
-    <col min="15378" max="15379" width="7.7109375" customWidth="1"/>
-    <col min="15380" max="15380" width="5.28515625" customWidth="1"/>
-    <col min="15381" max="15381" width="5.7109375" customWidth="1"/>
-    <col min="15382" max="15382" width="11.28515625" customWidth="1"/>
-    <col min="15383" max="15383" width="9.7109375" customWidth="1"/>
-    <col min="15384" max="15385" width="15.7109375" customWidth="1"/>
-    <col min="15386" max="15386" width="30.7109375" customWidth="1"/>
-    <col min="15387" max="15387" width="40.7109375" customWidth="1"/>
-    <col min="15617" max="15617" width="1.7109375" customWidth="1"/>
-    <col min="15618" max="15618" width="10.7109375" customWidth="1"/>
-    <col min="15619" max="15619" width="3.7109375" customWidth="1"/>
-    <col min="15620" max="15620" width="2.7109375" customWidth="1"/>
-    <col min="15621" max="15622" width="0" hidden="1" customWidth="1"/>
-    <col min="15623" max="15625" width="12.7109375" customWidth="1"/>
-    <col min="15626" max="15626" width="9.7109375" customWidth="1"/>
-    <col min="15627" max="15628" width="15.7109375" customWidth="1"/>
-    <col min="15629" max="15629" width="10.7109375" customWidth="1"/>
-    <col min="15630" max="15630" width="30.7109375" customWidth="1"/>
-    <col min="15631" max="15631" width="3.7109375" customWidth="1"/>
-    <col min="15632" max="15632" width="10.7109375" customWidth="1"/>
-    <col min="15633" max="15633" width="5.7109375" customWidth="1"/>
-    <col min="15634" max="15635" width="7.7109375" customWidth="1"/>
-    <col min="15636" max="15636" width="5.28515625" customWidth="1"/>
-    <col min="15637" max="15637" width="5.7109375" customWidth="1"/>
-    <col min="15638" max="15638" width="11.28515625" customWidth="1"/>
-    <col min="15639" max="15639" width="9.7109375" customWidth="1"/>
-    <col min="15640" max="15641" width="15.7109375" customWidth="1"/>
-    <col min="15642" max="15642" width="30.7109375" customWidth="1"/>
-    <col min="15643" max="15643" width="40.7109375" customWidth="1"/>
-    <col min="15873" max="15873" width="1.7109375" customWidth="1"/>
-    <col min="15874" max="15874" width="10.7109375" customWidth="1"/>
-    <col min="15875" max="15875" width="3.7109375" customWidth="1"/>
-    <col min="15876" max="15876" width="2.7109375" customWidth="1"/>
-    <col min="15877" max="15878" width="0" hidden="1" customWidth="1"/>
-    <col min="15879" max="15881" width="12.7109375" customWidth="1"/>
-    <col min="15882" max="15882" width="9.7109375" customWidth="1"/>
-    <col min="15883" max="15884" width="15.7109375" customWidth="1"/>
-    <col min="15885" max="15885" width="10.7109375" customWidth="1"/>
-    <col min="15886" max="15886" width="30.7109375" customWidth="1"/>
-    <col min="15887" max="15887" width="3.7109375" customWidth="1"/>
-    <col min="15888" max="15888" width="10.7109375" customWidth="1"/>
-    <col min="15889" max="15889" width="5.7109375" customWidth="1"/>
-    <col min="15890" max="15891" width="7.7109375" customWidth="1"/>
-    <col min="15892" max="15892" width="5.28515625" customWidth="1"/>
-    <col min="15893" max="15893" width="5.7109375" customWidth="1"/>
-    <col min="15894" max="15894" width="11.28515625" customWidth="1"/>
-    <col min="15895" max="15895" width="9.7109375" customWidth="1"/>
-    <col min="15896" max="15897" width="15.7109375" customWidth="1"/>
-    <col min="15898" max="15898" width="30.7109375" customWidth="1"/>
-    <col min="15899" max="15899" width="40.7109375" customWidth="1"/>
-    <col min="16129" max="16129" width="1.7109375" customWidth="1"/>
-    <col min="16130" max="16130" width="10.7109375" customWidth="1"/>
-    <col min="16131" max="16131" width="3.7109375" customWidth="1"/>
-    <col min="16132" max="16132" width="2.7109375" customWidth="1"/>
-    <col min="16133" max="16134" width="0" hidden="1" customWidth="1"/>
-    <col min="16135" max="16137" width="12.7109375" customWidth="1"/>
-    <col min="16138" max="16138" width="9.7109375" customWidth="1"/>
-    <col min="16139" max="16140" width="15.7109375" customWidth="1"/>
-    <col min="16141" max="16141" width="10.7109375" customWidth="1"/>
-    <col min="16142" max="16142" width="30.7109375" customWidth="1"/>
-    <col min="16143" max="16143" width="3.7109375" customWidth="1"/>
-    <col min="16144" max="16144" width="10.7109375" customWidth="1"/>
-    <col min="16145" max="16145" width="5.7109375" customWidth="1"/>
-    <col min="16146" max="16147" width="7.7109375" customWidth="1"/>
-    <col min="16148" max="16148" width="5.28515625" customWidth="1"/>
-    <col min="16149" max="16149" width="5.7109375" customWidth="1"/>
-    <col min="16150" max="16150" width="11.28515625" customWidth="1"/>
-    <col min="16151" max="16151" width="9.7109375" customWidth="1"/>
-    <col min="16152" max="16153" width="15.7109375" customWidth="1"/>
-    <col min="16154" max="16154" width="30.7109375" customWidth="1"/>
-    <col min="16155" max="16155" width="40.7109375" customWidth="1"/>
+    <col min="27" max="27" width="62" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B1"/>
-      <c r="C1"/>
-      <c r="D1"/>
-      <c r="E1"/>
-      <c r="F1"/>
-      <c r="G1"/>
-      <c r="H1"/>
-      <c r="I1"/>
-      <c r="K1"/>
-      <c r="L1"/>
-      <c r="M1"/>
-      <c r="N1"/>
-      <c r="O1"/>
-      <c r="P1"/>
-      <c r="Q1"/>
-      <c r="R1"/>
-      <c r="S1"/>
-      <c r="T1"/>
-      <c r="U1"/>
-      <c r="V1"/>
-      <c r="X1"/>
-      <c r="Y1"/>
-      <c r="Z1"/>
-      <c r="AA1"/>
-    </row>
     <row r="2" spans="2:27" ht="18" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -3287,13 +1945,13 @@
       <c r="AA7" s="3"/>
     </row>
     <row r="8" spans="2:27" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="96" t="s">
+      <c r="B8" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="98"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="104"/>
       <c r="G8" s="5" t="s">
         <v>5</v>
       </c>
@@ -3358,1106 +2016,1106 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
+    <row r="9" spans="2:27" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="141" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="140" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="140" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="140" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="143">
         <v>5000</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="143">
         <v>0</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="143">
         <v>0</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="144">
         <v>41446</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="L9" s="140" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="8" t="s">
+      <c r="M9" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="N9" s="8" t="s">
+      <c r="N9" s="140" t="s">
         <v>33</v>
       </c>
-      <c r="O9" s="11" t="s">
+      <c r="O9" s="145" t="s">
         <v>34</v>
       </c>
-      <c r="P9" s="8" t="s">
+      <c r="P9" s="140" t="s">
         <v>35</v>
       </c>
-      <c r="Q9" s="11" t="s">
+      <c r="Q9" s="145" t="s">
         <v>36</v>
       </c>
-      <c r="R9" s="11" t="s">
+      <c r="R9" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="S9" s="11" t="s">
+      <c r="S9" s="145" t="s">
         <v>38</v>
       </c>
-      <c r="T9" s="11" t="s">
+      <c r="T9" s="145" t="s">
         <v>39</v>
       </c>
-      <c r="U9" s="11" t="s">
+      <c r="U9" s="145" t="s">
         <v>40</v>
       </c>
-      <c r="V9" s="11" t="s">
+      <c r="V9" s="145" t="s">
         <v>41</v>
       </c>
-      <c r="W9" s="10"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="12"/>
-    </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
+      <c r="W9" s="8"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="9"/>
+    </row>
+    <row r="10" spans="2:27" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="141" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="140" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="140" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="140" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="143">
         <v>0</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="143">
         <v>5000</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="143">
         <v>0</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="144">
         <v>41446</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="140" t="s">
         <v>44</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="L10" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="M10" s="8" t="s">
+      <c r="M10" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="N10" s="8" t="s">
+      <c r="N10" s="140" t="s">
         <v>33</v>
       </c>
-      <c r="O10" s="11" t="s">
+      <c r="O10" s="145" t="s">
         <v>34</v>
       </c>
-      <c r="P10" s="8" t="s">
+      <c r="P10" s="140" t="s">
         <v>35</v>
       </c>
-      <c r="Q10" s="11" t="s">
+      <c r="Q10" s="145" t="s">
         <v>36</v>
       </c>
-      <c r="R10" s="11" t="s">
+      <c r="R10" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="S10" s="11" t="s">
+      <c r="S10" s="145" t="s">
         <v>38</v>
       </c>
-      <c r="T10" s="11" t="s">
+      <c r="T10" s="145" t="s">
         <v>39</v>
       </c>
-      <c r="U10" s="11" t="s">
+      <c r="U10" s="145" t="s">
         <v>40</v>
       </c>
-      <c r="V10" s="11" t="s">
+      <c r="V10" s="145" t="s">
         <v>41</v>
       </c>
-      <c r="W10" s="10"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
-      <c r="AA10" s="12"/>
-    </row>
-    <row r="11" spans="2:27" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
+      <c r="W10" s="8"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="9"/>
+    </row>
+    <row r="11" spans="2:27" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="141" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="140" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="140" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="140" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="143">
         <v>0</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="143">
         <v>0</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="143">
         <v>4500</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="144">
         <v>41449</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="140" t="s">
         <v>48</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="L11" s="140" t="s">
         <v>49</v>
       </c>
-      <c r="M11" s="8" t="s">
+      <c r="M11" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="N11" s="8" t="s">
+      <c r="N11" s="140" t="s">
         <v>33</v>
       </c>
-      <c r="O11" s="11" t="s">
+      <c r="O11" s="145" t="s">
         <v>34</v>
       </c>
-      <c r="P11" s="8" t="s">
+      <c r="P11" s="140" t="s">
         <v>35</v>
       </c>
-      <c r="Q11" s="11" t="s">
+      <c r="Q11" s="145" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="11" t="s">
+      <c r="R11" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="S11" s="11" t="s">
+      <c r="S11" s="145" t="s">
         <v>38</v>
       </c>
-      <c r="T11" s="11" t="s">
+      <c r="T11" s="145" t="s">
         <v>39</v>
       </c>
-      <c r="U11" s="11" t="s">
+      <c r="U11" s="145" t="s">
         <v>40</v>
       </c>
-      <c r="V11" s="11" t="s">
+      <c r="V11" s="145" t="s">
         <v>41</v>
       </c>
-      <c r="W11" s="10">
+      <c r="W11" s="8">
         <v>41449</v>
       </c>
-      <c r="X11" s="8" t="s">
+      <c r="X11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="Y11" s="8" t="s">
+      <c r="Y11" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Z11" s="8" t="s">
+      <c r="Z11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AA11" s="12" t="s">
+      <c r="AA11" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="2:27" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
+    <row r="12" spans="2:27" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="141" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="140" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="140" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="140" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="143">
         <v>0</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="143">
         <v>0</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="143">
         <v>500</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="144">
         <v>41449</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="140" t="s">
         <v>48</v>
       </c>
-      <c r="L12" s="8" t="s">
+      <c r="L12" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="M12" s="8" t="s">
+      <c r="M12" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="N12" s="8" t="s">
+      <c r="N12" s="140" t="s">
         <v>33</v>
       </c>
-      <c r="O12" s="11" t="s">
+      <c r="O12" s="145" t="s">
         <v>34</v>
       </c>
-      <c r="P12" s="8" t="s">
+      <c r="P12" s="140" t="s">
         <v>35</v>
       </c>
-      <c r="Q12" s="11" t="s">
+      <c r="Q12" s="145" t="s">
         <v>36</v>
       </c>
-      <c r="R12" s="11" t="s">
+      <c r="R12" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="S12" s="11" t="s">
+      <c r="S12" s="145" t="s">
         <v>38</v>
       </c>
-      <c r="T12" s="11" t="s">
+      <c r="T12" s="145" t="s">
         <v>39</v>
       </c>
-      <c r="U12" s="11" t="s">
+      <c r="U12" s="145" t="s">
         <v>40</v>
       </c>
-      <c r="V12" s="11" t="s">
+      <c r="V12" s="145" t="s">
         <v>41</v>
       </c>
-      <c r="W12" s="10">
+      <c r="W12" s="8">
         <v>41449</v>
       </c>
-      <c r="X12" s="8" t="s">
+      <c r="X12" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="Y12" s="8" t="s">
+      <c r="Y12" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="Z12" s="8" t="s">
+      <c r="Z12" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="AA12" s="12" t="s">
+      <c r="AA12" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
+    <row r="13" spans="2:27" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="142" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="141" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="140" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="140" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="140" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="143">
         <v>215393</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="143">
         <v>0</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="143">
         <v>0</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="144">
         <v>41460</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="140" t="s">
         <v>59</v>
       </c>
-      <c r="L13" s="8" t="s">
+      <c r="L13" s="140" t="s">
         <v>60</v>
       </c>
-      <c r="M13" s="8" t="s">
+      <c r="M13" s="140" t="s">
         <v>61</v>
       </c>
-      <c r="N13" s="8"/>
-      <c r="O13" s="11" t="s">
+      <c r="N13" s="140"/>
+      <c r="O13" s="145" t="s">
         <v>62</v>
       </c>
-      <c r="P13" s="8" t="s">
+      <c r="P13" s="140" t="s">
         <v>63</v>
       </c>
-      <c r="Q13" s="11" t="s">
+      <c r="Q13" s="145" t="s">
         <v>36</v>
       </c>
-      <c r="R13" s="11" t="s">
+      <c r="R13" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="S13" s="11" t="s">
+      <c r="S13" s="145" t="s">
         <v>38</v>
       </c>
-      <c r="T13" s="11" t="s">
+      <c r="T13" s="145" t="s">
         <v>39</v>
       </c>
-      <c r="U13" s="11" t="s">
+      <c r="U13" s="145" t="s">
         <v>40</v>
       </c>
-      <c r="V13" s="11" t="s">
+      <c r="V13" s="145" t="s">
         <v>64</v>
       </c>
-      <c r="W13" s="10"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="8"/>
-      <c r="Z13" s="8"/>
-      <c r="AA13" s="12"/>
-    </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
+      <c r="W13" s="8"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="9"/>
+    </row>
+    <row r="14" spans="2:27" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="142" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="141" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="140" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="140" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="140" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="143">
         <v>0</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="143">
         <v>215393</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="143">
         <v>0</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="144">
         <v>41460</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="140" t="s">
         <v>65</v>
       </c>
-      <c r="L14" s="8" t="s">
+      <c r="L14" s="140" t="s">
         <v>60</v>
       </c>
-      <c r="M14" s="8" t="s">
+      <c r="M14" s="140" t="s">
         <v>61</v>
       </c>
-      <c r="N14" s="8"/>
-      <c r="O14" s="11" t="s">
+      <c r="N14" s="140"/>
+      <c r="O14" s="145" t="s">
         <v>62</v>
       </c>
-      <c r="P14" s="8" t="s">
+      <c r="P14" s="140" t="s">
         <v>63</v>
       </c>
-      <c r="Q14" s="11" t="s">
+      <c r="Q14" s="145" t="s">
         <v>36</v>
       </c>
-      <c r="R14" s="11" t="s">
+      <c r="R14" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="S14" s="11" t="s">
+      <c r="S14" s="145" t="s">
         <v>38</v>
       </c>
-      <c r="T14" s="11" t="s">
+      <c r="T14" s="145" t="s">
         <v>39</v>
       </c>
-      <c r="U14" s="11" t="s">
+      <c r="U14" s="145" t="s">
         <v>40</v>
       </c>
-      <c r="V14" s="11" t="s">
+      <c r="V14" s="145" t="s">
         <v>64</v>
       </c>
-      <c r="W14" s="10"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="8"/>
-      <c r="AA14" s="12"/>
-    </row>
-    <row r="15" spans="2:27" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="7">
+      <c r="W14" s="8"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="9"/>
+    </row>
+    <row r="15" spans="2:27" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="142">
         <v>3181</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="141" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="140" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="140" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="140" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="143">
         <v>0</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="143">
         <v>0</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="143">
         <v>215393</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="144">
         <v>41463</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="140" t="s">
         <v>48</v>
       </c>
-      <c r="L15" s="8" t="s">
+      <c r="L15" s="140" t="s">
         <v>66</v>
       </c>
-      <c r="M15" s="8" t="s">
+      <c r="M15" s="140" t="s">
         <v>61</v>
       </c>
-      <c r="N15" s="8"/>
-      <c r="O15" s="11" t="s">
+      <c r="N15" s="140"/>
+      <c r="O15" s="145" t="s">
         <v>62</v>
       </c>
-      <c r="P15" s="8" t="s">
+      <c r="P15" s="140" t="s">
         <v>63</v>
       </c>
-      <c r="Q15" s="11" t="s">
+      <c r="Q15" s="145" t="s">
         <v>36</v>
       </c>
-      <c r="R15" s="11" t="s">
+      <c r="R15" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="S15" s="11" t="s">
+      <c r="S15" s="145" t="s">
         <v>38</v>
       </c>
-      <c r="T15" s="11" t="s">
+      <c r="T15" s="145" t="s">
         <v>39</v>
       </c>
-      <c r="U15" s="11" t="s">
+      <c r="U15" s="145" t="s">
         <v>40</v>
       </c>
-      <c r="V15" s="11" t="s">
+      <c r="V15" s="145" t="s">
         <v>64</v>
       </c>
-      <c r="W15" s="10">
+      <c r="W15" s="8">
         <v>41463</v>
       </c>
-      <c r="X15" s="8" t="s">
+      <c r="X15" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="Y15" s="8" t="s">
+      <c r="Y15" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="Z15" s="8" t="s">
+      <c r="Z15" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="AA15" s="12" t="s">
+      <c r="AA15" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
+    <row r="16" spans="2:27" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="142" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="141" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="140" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="140" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="140" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="143">
         <v>509.4</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="143">
         <v>0</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="143">
         <v>0</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J16" s="144">
         <v>41533</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="140" t="s">
         <v>72</v>
       </c>
-      <c r="L16" s="8" t="s">
+      <c r="L16" s="140" t="s">
         <v>73</v>
       </c>
-      <c r="M16" s="8" t="s">
+      <c r="M16" s="140" t="s">
         <v>74</v>
       </c>
-      <c r="N16" s="8" t="s">
+      <c r="N16" s="140" t="s">
         <v>75</v>
       </c>
-      <c r="O16" s="11" t="s">
+      <c r="O16" s="145" t="s">
         <v>34</v>
       </c>
-      <c r="P16" s="8" t="s">
+      <c r="P16" s="140" t="s">
         <v>76</v>
       </c>
-      <c r="Q16" s="11" t="s">
+      <c r="Q16" s="145" t="s">
         <v>36</v>
       </c>
-      <c r="R16" s="11" t="s">
+      <c r="R16" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="S16" s="11" t="s">
+      <c r="S16" s="145" t="s">
         <v>38</v>
       </c>
-      <c r="T16" s="11" t="s">
+      <c r="T16" s="145" t="s">
         <v>39</v>
       </c>
-      <c r="U16" s="11" t="s">
+      <c r="U16" s="145" t="s">
         <v>40</v>
       </c>
-      <c r="V16" s="11" t="s">
+      <c r="V16" s="145" t="s">
         <v>77</v>
       </c>
-      <c r="W16" s="10"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
-      <c r="AA16" s="12"/>
-    </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
+      <c r="W16" s="8"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="9"/>
+    </row>
+    <row r="17" spans="2:27" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="142" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="141" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="140" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="140" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="140" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="143">
         <v>0</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="143">
         <v>509.4</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="143">
         <v>0</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J17" s="144">
         <v>41597</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="K17" s="140" t="s">
         <v>78</v>
       </c>
-      <c r="L17" s="8" t="s">
+      <c r="L17" s="140" t="s">
         <v>79</v>
       </c>
-      <c r="M17" s="8" t="s">
+      <c r="M17" s="140" t="s">
         <v>74</v>
       </c>
-      <c r="N17" s="8" t="s">
+      <c r="N17" s="140" t="s">
         <v>75</v>
       </c>
-      <c r="O17" s="11" t="s">
+      <c r="O17" s="145" t="s">
         <v>34</v>
       </c>
-      <c r="P17" s="8" t="s">
+      <c r="P17" s="140" t="s">
         <v>76</v>
       </c>
-      <c r="Q17" s="11" t="s">
+      <c r="Q17" s="145" t="s">
         <v>36</v>
       </c>
-      <c r="R17" s="11" t="s">
+      <c r="R17" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="S17" s="11" t="s">
+      <c r="S17" s="145" t="s">
         <v>38</v>
       </c>
-      <c r="T17" s="11" t="s">
+      <c r="T17" s="145" t="s">
         <v>39</v>
       </c>
-      <c r="U17" s="11" t="s">
+      <c r="U17" s="145" t="s">
         <v>40</v>
       </c>
-      <c r="V17" s="11" t="s">
+      <c r="V17" s="145" t="s">
         <v>77</v>
       </c>
-      <c r="W17" s="10"/>
-      <c r="X17" s="8"/>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="8"/>
-      <c r="AA17" s="12"/>
-    </row>
-    <row r="18" spans="2:27" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="B18" s="7" t="s">
+      <c r="W17" s="8"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="9"/>
+    </row>
+    <row r="18" spans="2:27" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="142" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="141" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="140" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="140" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="140" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="143">
         <v>0</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="143">
         <v>0</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="143">
         <v>509.4</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J18" s="144">
         <v>41603</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="K18" s="140" t="s">
         <v>48</v>
       </c>
-      <c r="L18" s="8" t="s">
+      <c r="L18" s="140" t="s">
         <v>80</v>
       </c>
-      <c r="M18" s="8" t="s">
+      <c r="M18" s="140" t="s">
         <v>74</v>
       </c>
-      <c r="N18" s="8" t="s">
+      <c r="N18" s="140" t="s">
         <v>75</v>
       </c>
-      <c r="O18" s="11" t="s">
+      <c r="O18" s="145" t="s">
         <v>34</v>
       </c>
-      <c r="P18" s="8" t="s">
+      <c r="P18" s="140" t="s">
         <v>76</v>
       </c>
-      <c r="Q18" s="11" t="s">
+      <c r="Q18" s="145" t="s">
         <v>36</v>
       </c>
-      <c r="R18" s="11" t="s">
+      <c r="R18" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="S18" s="11" t="s">
+      <c r="S18" s="145" t="s">
         <v>38</v>
       </c>
-      <c r="T18" s="11" t="s">
+      <c r="T18" s="145" t="s">
         <v>39</v>
       </c>
-      <c r="U18" s="11" t="s">
+      <c r="U18" s="145" t="s">
         <v>40</v>
       </c>
-      <c r="V18" s="11" t="s">
+      <c r="V18" s="145" t="s">
         <v>77</v>
       </c>
-      <c r="W18" s="10">
+      <c r="W18" s="8">
         <v>41603</v>
       </c>
-      <c r="X18" s="8" t="s">
+      <c r="X18" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="Y18" s="8" t="s">
+      <c r="Y18" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="Z18" s="8" t="s">
+      <c r="Z18" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="AA18" s="12" t="s">
+      <c r="AA18" s="9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="s">
+    <row r="19" spans="2:27" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="142" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="141" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="140" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="140" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="140" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="143">
         <v>4990</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="143">
         <v>0</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="143">
         <v>0</v>
       </c>
-      <c r="J19" s="10">
+      <c r="J19" s="144">
         <v>41620</v>
       </c>
-      <c r="K19" s="8" t="s">
+      <c r="K19" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="L19" s="8" t="s">
+      <c r="L19" s="140" t="s">
         <v>85</v>
       </c>
-      <c r="M19" s="8" t="s">
+      <c r="M19" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="N19" s="8" t="s">
+      <c r="N19" s="140" t="s">
         <v>33</v>
       </c>
-      <c r="O19" s="11" t="s">
+      <c r="O19" s="145" t="s">
         <v>34</v>
       </c>
-      <c r="P19" s="8" t="s">
+      <c r="P19" s="140" t="s">
         <v>86</v>
       </c>
-      <c r="Q19" s="11" t="s">
+      <c r="Q19" s="145" t="s">
         <v>36</v>
       </c>
-      <c r="R19" s="11" t="s">
+      <c r="R19" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="S19" s="11" t="s">
+      <c r="S19" s="145" t="s">
         <v>38</v>
       </c>
-      <c r="T19" s="11" t="s">
+      <c r="T19" s="145" t="s">
         <v>39</v>
       </c>
-      <c r="U19" s="11" t="s">
+      <c r="U19" s="145" t="s">
         <v>40</v>
       </c>
-      <c r="V19" s="11" t="s">
+      <c r="V19" s="145" t="s">
         <v>41</v>
       </c>
-      <c r="W19" s="10"/>
-      <c r="X19" s="8"/>
-      <c r="Y19" s="8"/>
-      <c r="Z19" s="8"/>
-      <c r="AA19" s="12"/>
-    </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B20" s="7" t="s">
+      <c r="W19" s="8"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="9"/>
+    </row>
+    <row r="20" spans="2:27" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="142" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="141" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="140" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="140" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="140" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="143">
         <v>0</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="143">
         <v>4990</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="143">
         <v>0</v>
       </c>
-      <c r="J20" s="10">
+      <c r="J20" s="144">
         <v>41625</v>
       </c>
-      <c r="K20" s="8" t="s">
+      <c r="K20" s="140" t="s">
         <v>44</v>
       </c>
-      <c r="L20" s="8" t="s">
+      <c r="L20" s="140" t="s">
         <v>87</v>
       </c>
-      <c r="M20" s="8" t="s">
+      <c r="M20" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="N20" s="8" t="s">
+      <c r="N20" s="140" t="s">
         <v>33</v>
       </c>
-      <c r="O20" s="11" t="s">
+      <c r="O20" s="145" t="s">
         <v>34</v>
       </c>
-      <c r="P20" s="8" t="s">
+      <c r="P20" s="140" t="s">
         <v>86</v>
       </c>
-      <c r="Q20" s="11" t="s">
+      <c r="Q20" s="145" t="s">
         <v>36</v>
       </c>
-      <c r="R20" s="11" t="s">
+      <c r="R20" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="S20" s="11" t="s">
+      <c r="S20" s="145" t="s">
         <v>38</v>
       </c>
-      <c r="T20" s="11" t="s">
+      <c r="T20" s="145" t="s">
         <v>39</v>
       </c>
-      <c r="U20" s="11" t="s">
+      <c r="U20" s="145" t="s">
         <v>40</v>
       </c>
-      <c r="V20" s="11" t="s">
+      <c r="V20" s="145" t="s">
         <v>41</v>
       </c>
-      <c r="W20" s="10"/>
-      <c r="X20" s="8"/>
-      <c r="Y20" s="8"/>
-      <c r="Z20" s="8"/>
-      <c r="AA20" s="12"/>
-    </row>
-    <row r="21" spans="2:27" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="B21" s="7" t="s">
+      <c r="W20" s="8"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="9"/>
+    </row>
+    <row r="21" spans="2:27" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="142" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="141" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="140" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="140" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="140" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="143">
         <v>0</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="143">
         <v>0</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="143">
         <v>4491</v>
       </c>
-      <c r="J21" s="10">
+      <c r="J21" s="144">
         <v>41628</v>
       </c>
-      <c r="K21" s="8" t="s">
+      <c r="K21" s="140" t="s">
         <v>48</v>
       </c>
-      <c r="L21" s="8" t="s">
+      <c r="L21" s="140" t="s">
         <v>88</v>
       </c>
-      <c r="M21" s="8" t="s">
+      <c r="M21" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="N21" s="8" t="s">
+      <c r="N21" s="140" t="s">
         <v>33</v>
       </c>
-      <c r="O21" s="11" t="s">
+      <c r="O21" s="145" t="s">
         <v>34</v>
       </c>
-      <c r="P21" s="8" t="s">
+      <c r="P21" s="140" t="s">
         <v>86</v>
       </c>
-      <c r="Q21" s="11" t="s">
+      <c r="Q21" s="145" t="s">
         <v>36</v>
       </c>
-      <c r="R21" s="11" t="s">
+      <c r="R21" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="S21" s="11" t="s">
+      <c r="S21" s="145" t="s">
         <v>38</v>
       </c>
-      <c r="T21" s="11" t="s">
+      <c r="T21" s="145" t="s">
         <v>39</v>
       </c>
-      <c r="U21" s="11" t="s">
+      <c r="U21" s="145" t="s">
         <v>40</v>
       </c>
-      <c r="V21" s="11" t="s">
+      <c r="V21" s="145" t="s">
         <v>41</v>
       </c>
-      <c r="W21" s="10">
+      <c r="W21" s="8">
         <v>41628</v>
       </c>
-      <c r="X21" s="8" t="s">
+      <c r="X21" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="Y21" s="8" t="s">
+      <c r="Y21" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="Z21" s="8" t="s">
+      <c r="Z21" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="AA21" s="12" t="s">
+      <c r="AA21" s="9" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="2:27" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="B22" s="7" t="s">
+    <row r="22" spans="2:27" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="142" t="s">
         <v>84</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="141" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="140" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="140" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="140" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="143">
         <v>0</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="143">
         <v>0</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="143">
         <v>499</v>
       </c>
-      <c r="J22" s="10">
+      <c r="J22" s="144">
         <v>41628</v>
       </c>
-      <c r="K22" s="8" t="s">
+      <c r="K22" s="140" t="s">
         <v>48</v>
       </c>
-      <c r="L22" s="8" t="s">
+      <c r="L22" s="140" t="s">
         <v>92</v>
       </c>
-      <c r="M22" s="8" t="s">
+      <c r="M22" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="N22" s="8" t="s">
+      <c r="N22" s="140" t="s">
         <v>33</v>
       </c>
-      <c r="O22" s="11" t="s">
+      <c r="O22" s="145" t="s">
         <v>34</v>
       </c>
-      <c r="P22" s="8" t="s">
+      <c r="P22" s="140" t="s">
         <v>86</v>
       </c>
-      <c r="Q22" s="11" t="s">
+      <c r="Q22" s="145" t="s">
         <v>36</v>
       </c>
-      <c r="R22" s="11" t="s">
+      <c r="R22" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="S22" s="11" t="s">
+      <c r="S22" s="145" t="s">
         <v>38</v>
       </c>
-      <c r="T22" s="11" t="s">
+      <c r="T22" s="145" t="s">
         <v>39</v>
       </c>
-      <c r="U22" s="11" t="s">
+      <c r="U22" s="145" t="s">
         <v>40</v>
       </c>
-      <c r="V22" s="11" t="s">
+      <c r="V22" s="145" t="s">
         <v>41</v>
       </c>
-      <c r="W22" s="10">
+      <c r="W22" s="8">
         <v>41628</v>
       </c>
-      <c r="X22" s="8" t="s">
+      <c r="X22" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="Y22" s="8" t="s">
+      <c r="Y22" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="Z22" s="8" t="s">
+      <c r="Z22" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="AA22" s="12" t="s">
+      <c r="AA22" s="9" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="17"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="17"/>
-      <c r="W23" s="16"/>
-      <c r="X23" s="14"/>
-      <c r="Y23" s="14"/>
-      <c r="Z23" s="14"/>
-      <c r="AA23" s="18"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="13"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="15"/>
     </row>
     <row r="24" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="21">
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="18">
         <f>SUM(G9:G23)</f>
         <v>225892.4</v>
       </c>
-      <c r="H24" s="21">
+      <c r="H24" s="18">
         <f>SUM(H9:H23)</f>
         <v>225892.4</v>
       </c>
-      <c r="I24" s="21">
+      <c r="I24" s="18">
         <f>SUM(I9:I23)</f>
         <v>225892.4</v>
       </c>
-      <c r="J24" s="22"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="24"/>
-      <c r="U24" s="24"/>
-      <c r="V24" s="24"/>
-      <c r="W24" s="22"/>
-      <c r="X24" s="23"/>
-      <c r="Y24" s="23"/>
-      <c r="Z24" s="23"/>
-      <c r="AA24" s="25"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="19"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="20"/>
+      <c r="Z24" s="20"/>
+      <c r="AA24" s="22"/>
     </row>
     <row r="25" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
@@ -4485,13 +3143,13 @@
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
-      <c r="Y25" s="26" t="s">
+      <c r="Y25" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="Z25" s="26" t="s">
+      <c r="Z25" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="AA25" s="27">
+      <c r="AA25" s="24">
         <v>0.50255787037037036</v>
       </c>
     </row>
@@ -4521,126 +3179,24 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
-      <c r="AA26" s="28" t="s">
+      <c r="AA26" s="25" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="3"/>
-      <c r="AA27" s="3"/>
-    </row>
-    <row r="47" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G47" s="30">
-        <f>SUM(H47:S47)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G48" s="30">
-        <f>SUM(H48:S48)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G49" s="30">
-        <f>SUM(H49:S49)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G50" s="30">
-        <f>SUM(G46:G49)</f>
-        <v>0</v>
-      </c>
-      <c r="H50" s="30">
-        <f>SUM(H46:H49)</f>
-        <v>0</v>
-      </c>
-      <c r="I50" s="30">
-        <f t="shared" ref="I50:S50" si="0">SUM(I46:I49)</f>
-        <v>0</v>
-      </c>
-      <c r="J50" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K50" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L50" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M50" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N50" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O50" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P50" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q50" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R50" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S50" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="B8:AA8">
-    <filterColumn colId="0" showButton="0"/>
-    <filterColumn colId="1" showButton="0"/>
-    <filterColumn colId="2" showButton="0"/>
-    <filterColumn colId="3" showButton="0"/>
-  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="B8:F8"/>
   </mergeCells>
   <conditionalFormatting sqref="C9:C22">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="GC">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="GC">
+      <formula>NOT(ISERROR(SEARCH("GC",C9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="GC">
       <formula>NOT(ISERROR(SEARCH("GC",C9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4648,8 +3204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P21"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5480,546 +4036,541 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="111"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
+      <c r="A2" s="106"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
     </row>
     <row r="3" spans="1:16" ht="27" x14ac:dyDescent="0.25">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="107" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="112"/>
-      <c r="O3" s="112"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
     </row>
     <row r="4" spans="1:16" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
     </row>
     <row r="5" spans="1:16" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="108" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="113"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="113"/>
-      <c r="K5" s="113"/>
-      <c r="L5" s="113"/>
-      <c r="M5" s="113"/>
-      <c r="N5" s="113"/>
-      <c r="O5" s="113"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
+      <c r="K5" s="108"/>
+      <c r="L5" s="108"/>
+      <c r="M5" s="108"/>
+      <c r="N5" s="108"/>
+      <c r="O5" s="108"/>
     </row>
     <row r="6" spans="1:16" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
     </row>
     <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="33" t="s">
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
     </row>
     <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="110" t="s">
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="105" t="s">
         <v>131</v>
       </c>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
-      <c r="L8" s="110"/>
-      <c r="M8" s="110"/>
-      <c r="N8" s="110"/>
-      <c r="O8" s="38"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
+      <c r="N8" s="105"/>
+      <c r="O8" s="33"/>
     </row>
     <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="110" t="s">
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="105" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="110"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="110"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="110"/>
-      <c r="L9" s="110"/>
-      <c r="M9" s="110"/>
-      <c r="N9" s="110"/>
-      <c r="O9" s="38"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="105"/>
+      <c r="N9" s="105"/>
+      <c r="O9" s="33"/>
     </row>
     <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39" t="s">
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
     </row>
     <row r="11" spans="1:16" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="35"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="41">
+      <c r="A11" s="30"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="36">
         <v>2013</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="106" t="s">
+      <c r="A12" s="116" t="s">
         <v>107</v>
       </c>
-      <c r="B12" s="108" t="s">
+      <c r="B12" s="118" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="108"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="109" t="s">
+      <c r="C12" s="118"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="119" t="s">
         <v>109</v>
       </c>
-      <c r="F12" s="109" t="s">
+      <c r="F12" s="119" t="s">
         <v>110</v>
       </c>
-      <c r="G12" s="101" t="s">
+      <c r="G12" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="H12" s="99" t="s">
+      <c r="H12" s="109" t="s">
         <v>112</v>
       </c>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="100"/>
-      <c r="M12" s="100"/>
-      <c r="N12" s="100"/>
-      <c r="O12" s="101" t="s">
+      <c r="I12" s="110"/>
+      <c r="J12" s="110"/>
+      <c r="K12" s="110"/>
+      <c r="L12" s="110"/>
+      <c r="M12" s="110"/>
+      <c r="N12" s="110"/>
+      <c r="O12" s="111" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="107"/>
-      <c r="B13" s="67" t="s">
+      <c r="A13" s="117"/>
+      <c r="B13" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="67" t="s">
+      <c r="C13" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="D13" s="67" t="s">
+      <c r="D13" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="E13" s="117"/>
-      <c r="F13" s="118"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="68" t="s">
+      <c r="E13" s="120"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="I13" s="68" t="s">
+      <c r="I13" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="J13" s="68" t="s">
+      <c r="J13" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="K13" s="68" t="s">
+      <c r="K13" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="L13" s="68" t="s">
+      <c r="L13" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="M13" s="68" t="s">
+      <c r="M13" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="N13" s="68" t="s">
+      <c r="N13" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="O13" s="102"/>
+      <c r="O13" s="112"/>
     </row>
     <row r="14" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="55">
+      <c r="A14" s="50">
         <v>1</v>
       </c>
-      <c r="B14" s="131"/>
-      <c r="C14" s="57" t="s">
+      <c r="B14" s="90"/>
+      <c r="C14" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="D14" s="131"/>
-      <c r="E14" s="132">
+      <c r="D14" s="90"/>
+      <c r="E14" s="91">
         <v>6464</v>
       </c>
-      <c r="F14" s="132" t="s">
+      <c r="F14" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="133">
+      <c r="G14" s="92">
         <f>SUM(H14:N14)</f>
         <v>4500</v>
       </c>
-      <c r="H14" s="133"/>
-      <c r="I14" s="133"/>
-      <c r="J14" s="133"/>
-      <c r="K14" s="133"/>
-      <c r="L14" s="133"/>
-      <c r="M14" s="133"/>
-      <c r="N14" s="133">
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="92">
         <v>4500</v>
       </c>
-      <c r="O14" s="134" t="s">
+      <c r="O14" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="P14" s="8" t="s">
+      <c r="P14" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="55">
+      <c r="A15" s="50">
         <v>2</v>
       </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="57" t="s">
+      <c r="B15" s="51"/>
+      <c r="C15" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="D15" s="56"/>
-      <c r="E15" s="58" t="s">
+      <c r="D15" s="51"/>
+      <c r="E15" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="58" t="s">
+      <c r="F15" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="59">
+      <c r="G15" s="54">
         <f>SUM(H15:N15)</f>
         <v>500</v>
       </c>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59">
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54">
         <v>500</v>
       </c>
-      <c r="O15" s="60" t="s">
+      <c r="O15" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="P15" s="8" t="s">
+      <c r="P15" s="7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="55">
+      <c r="A16" s="50">
         <v>3</v>
       </c>
-      <c r="B16" s="56"/>
-      <c r="C16" s="57" t="s">
+      <c r="B16" s="51"/>
+      <c r="C16" s="52" t="s">
         <v>128</v>
       </c>
-      <c r="D16" s="56"/>
-      <c r="E16" s="58" t="s">
+      <c r="D16" s="51"/>
+      <c r="E16" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="58" t="s">
+      <c r="F16" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="59">
+      <c r="G16" s="54">
         <f>SUM(H16:N16)</f>
         <v>509.4</v>
       </c>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59">
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54">
         <v>509.4</v>
       </c>
-      <c r="N16" s="59"/>
-      <c r="O16" s="60" t="s">
+      <c r="N16" s="54"/>
+      <c r="O16" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="P16" s="8" t="s">
+      <c r="P16" s="7" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="55">
+      <c r="A17" s="50">
         <v>4</v>
       </c>
-      <c r="B17" s="56"/>
-      <c r="C17" s="57" t="s">
+      <c r="B17" s="51"/>
+      <c r="C17" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="D17" s="56"/>
-      <c r="E17" s="58" t="s">
+      <c r="D17" s="51"/>
+      <c r="E17" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="58" t="s">
+      <c r="F17" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="G17" s="59">
+      <c r="G17" s="54">
         <f>SUM(H17:N17)</f>
         <v>4491</v>
       </c>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59">
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54">
         <v>4491</v>
       </c>
-      <c r="O17" s="60" t="s">
+      <c r="O17" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="P17" s="8" t="s">
+      <c r="P17" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="55">
+      <c r="A18" s="50">
         <v>5</v>
       </c>
-      <c r="B18" s="56"/>
-      <c r="C18" s="57" t="s">
+      <c r="B18" s="51"/>
+      <c r="C18" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="D18" s="56"/>
-      <c r="E18" s="58" t="s">
+      <c r="D18" s="51"/>
+      <c r="E18" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="F18" s="58" t="s">
+      <c r="F18" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="G18" s="59">
+      <c r="G18" s="54">
         <f>SUM(H18:N18)</f>
         <v>499</v>
       </c>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59">
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54">
         <v>499</v>
       </c>
-      <c r="O18" s="60" t="s">
+      <c r="O18" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="P18" s="8" t="s">
+      <c r="P18" s="7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="55">
+      <c r="A19" s="50">
         <v>1</v>
       </c>
-      <c r="B19" s="56"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="61" t="s">
+      <c r="B19" s="51"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="F19" s="62">
+      <c r="F19" s="57">
         <v>3181</v>
       </c>
-      <c r="G19" s="63">
+      <c r="G19" s="58">
         <f>SUM(H19:M19)</f>
         <v>215393</v>
       </c>
-      <c r="H19" s="63">
+      <c r="H19" s="58">
         <v>91820</v>
       </c>
-      <c r="I19" s="63">
+      <c r="I19" s="58">
         <v>50194</v>
       </c>
-      <c r="J19" s="63">
+      <c r="J19" s="58">
         <v>70379</v>
       </c>
-      <c r="K19" s="63">
+      <c r="K19" s="58">
         <v>1500</v>
       </c>
-      <c r="L19" s="64">
+      <c r="L19" s="59">
         <v>1500</v>
       </c>
-      <c r="M19" s="56"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="60" t="s">
+      <c r="M19" s="51"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="P19" s="50"/>
+      <c r="P19" s="45"/>
     </row>
     <row r="20" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="103" t="s">
+      <c r="A20" s="113" t="s">
         <v>127</v>
       </c>
-      <c r="B20" s="104"/>
-      <c r="C20" s="104"/>
-      <c r="D20" s="104"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="65">
+      <c r="B20" s="114"/>
+      <c r="C20" s="114"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="60">
         <f>SUM(G14:G19)</f>
         <v>225892.4</v>
       </c>
-      <c r="H20" s="65">
+      <c r="H20" s="60">
         <f t="shared" ref="H20:N20" si="0">SUM(H14:H19)</f>
         <v>91820</v>
       </c>
-      <c r="I20" s="65">
+      <c r="I20" s="60">
         <f t="shared" si="0"/>
         <v>50194</v>
       </c>
-      <c r="J20" s="65">
+      <c r="J20" s="60">
         <f t="shared" si="0"/>
         <v>70379</v>
       </c>
-      <c r="K20" s="65">
+      <c r="K20" s="60">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="L20" s="65">
+      <c r="L20" s="60">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="M20" s="65">
+      <c r="M20" s="60">
         <f t="shared" si="0"/>
         <v>509.4</v>
       </c>
-      <c r="N20" s="65">
+      <c r="N20" s="60">
         <f t="shared" si="0"/>
         <v>9990</v>
       </c>
-      <c r="O20" s="66"/>
+      <c r="O20" s="61"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="48"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="D8:N8"/>
-    <mergeCell ref="D9:N9"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="A5:O5"/>
     <mergeCell ref="H12:N12"/>
     <mergeCell ref="O12:O13"/>
     <mergeCell ref="A20:F20"/>
@@ -6028,9 +4579,17 @@
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="G12:G13"/>
+    <mergeCell ref="D8:N8"/>
+    <mergeCell ref="D9:N9"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="A5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="41" orientation="landscape" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="15" max="1048575" man="1"/>
+  </colBreaks>
   <ignoredErrors>
     <ignoredError sqref="E15:F18 F14 E19" numberStoredAsText="1"/>
   </ignoredErrors>
@@ -6042,7 +4601,7 @@
   <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6880,413 +5439,413 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="43"/>
-      <c r="B1" s="44"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="48"/>
+      <c r="A1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="43"/>
     </row>
     <row r="2" spans="1:20" ht="27" x14ac:dyDescent="0.25">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="107" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="112"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="107"/>
+      <c r="O2" s="107"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="107"/>
     </row>
     <row r="3" spans="1:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
     </row>
     <row r="4" spans="1:20" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="108" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="113"/>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="113"/>
-      <c r="J4" s="113"/>
-      <c r="K4" s="113"/>
-      <c r="L4" s="113"/>
-      <c r="M4" s="113"/>
-      <c r="N4" s="113"/>
-      <c r="O4" s="113"/>
-      <c r="P4" s="113"/>
-      <c r="Q4" s="113"/>
-      <c r="R4" s="113"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="108"/>
+      <c r="K4" s="108"/>
+      <c r="L4" s="108"/>
+      <c r="M4" s="108"/>
+      <c r="N4" s="108"/>
+      <c r="O4" s="108"/>
+      <c r="P4" s="108"/>
+      <c r="Q4" s="108"/>
+      <c r="R4" s="108"/>
     </row>
     <row r="5" spans="1:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
     </row>
     <row r="6" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="33" t="s">
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
     </row>
     <row r="7" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="110" t="s">
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="105" t="s">
         <v>131</v>
       </c>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
-      <c r="L7" s="110"/>
-      <c r="M7" s="110"/>
-      <c r="N7" s="110"/>
-      <c r="O7" s="110"/>
-      <c r="P7" s="110"/>
-      <c r="Q7" s="110"/>
-      <c r="R7" s="110"/>
-      <c r="S7" s="110"/>
-      <c r="T7" s="110"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="105"/>
+      <c r="N7" s="105"/>
+      <c r="O7" s="105"/>
+      <c r="P7" s="105"/>
+      <c r="Q7" s="105"/>
+      <c r="R7" s="105"/>
+      <c r="S7" s="105"/>
+      <c r="T7" s="105"/>
     </row>
     <row r="8" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="110" t="s">
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="105" t="s">
         <v>132</v>
       </c>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
-      <c r="L8" s="110"/>
-      <c r="M8" s="110"/>
-      <c r="N8" s="110"/>
-      <c r="O8" s="110"/>
-      <c r="P8" s="110"/>
-      <c r="Q8" s="110"/>
-      <c r="R8" s="110"/>
-      <c r="S8" s="110"/>
-      <c r="T8" s="110"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
+      <c r="N8" s="105"/>
+      <c r="O8" s="105"/>
+      <c r="P8" s="105"/>
+      <c r="Q8" s="105"/>
+      <c r="R8" s="105"/>
+      <c r="S8" s="105"/>
+      <c r="T8" s="105"/>
     </row>
     <row r="9" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39" t="s">
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="38"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="33"/>
     </row>
     <row r="10" spans="1:20" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="35"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="41">
+      <c r="A10" s="30"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="36">
         <v>2013</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="106" t="s">
+      <c r="A11" s="116" t="s">
         <v>107</v>
       </c>
-      <c r="B11" s="108" t="s">
+      <c r="B11" s="118" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="108"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="109" t="s">
+      <c r="C11" s="118"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="119" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="109" t="s">
+      <c r="F11" s="119" t="s">
         <v>110</v>
       </c>
-      <c r="G11" s="101" t="s">
+      <c r="G11" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="H11" s="99" t="s">
+      <c r="H11" s="109" t="s">
         <v>112</v>
       </c>
-      <c r="I11" s="100"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="100"/>
-      <c r="L11" s="100"/>
-      <c r="M11" s="100"/>
-      <c r="N11" s="100"/>
-      <c r="O11" s="100"/>
-      <c r="P11" s="100"/>
-      <c r="Q11" s="100"/>
-      <c r="R11" s="101" t="s">
+      <c r="I11" s="110"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="110"/>
+      <c r="L11" s="110"/>
+      <c r="M11" s="110"/>
+      <c r="N11" s="110"/>
+      <c r="O11" s="110"/>
+      <c r="P11" s="110"/>
+      <c r="Q11" s="110"/>
+      <c r="R11" s="111" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="102"/>
-      <c r="B12" s="67" t="s">
+      <c r="A12" s="112"/>
+      <c r="B12" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="D12" s="67" t="s">
+      <c r="D12" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="E12" s="117"/>
-      <c r="F12" s="118"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="68" t="s">
+      <c r="E12" s="120"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="112"/>
+      <c r="H12" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="I12" s="68" t="s">
+      <c r="I12" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="J12" s="68" t="s">
+      <c r="J12" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="K12" s="68" t="s">
+      <c r="K12" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="L12" s="68" t="s">
+      <c r="L12" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="M12" s="68" t="s">
+      <c r="M12" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="N12" s="68" t="s">
+      <c r="N12" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="O12" s="68" t="s">
+      <c r="O12" s="63" t="s">
         <v>125</v>
       </c>
-      <c r="P12" s="68" t="s">
+      <c r="P12" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="Q12" s="68" t="s">
+      <c r="Q12" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="R12" s="102"/>
+      <c r="R12" s="112"/>
     </row>
     <row r="13" spans="1:20" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="69">
+      <c r="A13" s="64">
         <v>1</v>
       </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="72" t="s">
+      <c r="B13" s="65"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="F13" s="73">
+      <c r="F13" s="68">
         <v>3181</v>
       </c>
-      <c r="G13" s="74">
+      <c r="G13" s="69">
         <f>SUM(H13:K13)</f>
         <v>213892.35</v>
       </c>
-      <c r="H13" s="95">
+      <c r="H13" s="139">
         <v>91819.71</v>
       </c>
-      <c r="I13" s="95">
+      <c r="I13" s="139">
         <v>50193.64</v>
       </c>
-      <c r="J13" s="95">
+      <c r="J13" s="139">
         <v>70379</v>
       </c>
-      <c r="K13" s="74">
+      <c r="K13" s="139">
         <v>1500</v>
       </c>
-      <c r="L13" s="75"/>
-      <c r="M13" s="75"/>
-      <c r="N13" s="76"/>
-      <c r="O13" s="75"/>
-      <c r="P13" s="75"/>
-      <c r="Q13" s="75"/>
-      <c r="R13" s="77" t="s">
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="S13" s="8" t="s">
+      <c r="S13" s="7" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="114" t="s">
+      <c r="A14" s="122" t="s">
         <v>127</v>
       </c>
-      <c r="B14" s="115"/>
-      <c r="C14" s="115"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="79">
+      <c r="B14" s="123"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="74">
         <f>SUM(G13)</f>
         <v>213892.35</v>
       </c>
-      <c r="H14" s="79">
+      <c r="H14" s="74">
         <f>SUM(H13)</f>
         <v>91819.71</v>
       </c>
-      <c r="I14" s="79">
+      <c r="I14" s="74">
         <f t="shared" ref="I14:Q14" si="0">SUM(I13)</f>
         <v>50193.64</v>
       </c>
-      <c r="J14" s="79">
+      <c r="J14" s="74">
         <f>SUM(J13)</f>
         <v>70379</v>
       </c>
-      <c r="K14" s="79">
+      <c r="K14" s="74">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="L14" s="79">
+      <c r="L14" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M14" s="79">
+      <c r="M14" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N14" s="79">
+      <c r="N14" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O14" s="79">
+      <c r="O14" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P14" s="79">
+      <c r="P14" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="79">
+      <c r="Q14" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R14" s="80"/>
+      <c r="R14" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -7312,7 +5871,7 @@
   <dimension ref="A2:T16"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8143,296 +6702,291 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="111"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
+      <c r="A2" s="106"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
     </row>
     <row r="3" spans="1:20" ht="27" x14ac:dyDescent="0.25">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="107" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
     </row>
     <row r="4" spans="1:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
     </row>
     <row r="5" spans="1:20" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="108" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="113"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="108"/>
     </row>
     <row r="6" spans="1:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
     </row>
     <row r="7" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="33" t="s">
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="34"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
     </row>
     <row r="8" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="110" t="s">
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="105" t="s">
         <v>131</v>
       </c>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
-      <c r="L8" s="110"/>
-      <c r="M8" s="110"/>
-      <c r="N8" s="110"/>
-      <c r="O8" s="110"/>
-      <c r="P8" s="110"/>
-      <c r="Q8" s="110"/>
-      <c r="R8" s="110"/>
-      <c r="S8" s="110"/>
-      <c r="T8" s="110"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
+      <c r="N8" s="105"/>
+      <c r="O8" s="105"/>
+      <c r="P8" s="105"/>
+      <c r="Q8" s="105"/>
+      <c r="R8" s="105"/>
+      <c r="S8" s="105"/>
+      <c r="T8" s="105"/>
     </row>
     <row r="9" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="110" t="s">
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="105" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="110"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="110"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="110"/>
-      <c r="L9" s="110"/>
-      <c r="M9" s="110"/>
-      <c r="N9" s="110"/>
-      <c r="O9" s="110"/>
-      <c r="P9" s="110"/>
-      <c r="Q9" s="110"/>
-      <c r="R9" s="110"/>
-      <c r="S9" s="110"/>
-      <c r="T9" s="110"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="105"/>
+      <c r="N9" s="105"/>
+      <c r="O9" s="105"/>
+      <c r="P9" s="105"/>
+      <c r="Q9" s="105"/>
+      <c r="R9" s="105"/>
+      <c r="S9" s="105"/>
+      <c r="T9" s="105"/>
     </row>
     <row r="10" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39" t="s">
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="38"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="33"/>
     </row>
     <row r="11" spans="1:20" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="35"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="41">
+      <c r="A11" s="30"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="36">
         <v>2013</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="106" t="s">
+      <c r="A12" s="116" t="s">
         <v>107</v>
       </c>
-      <c r="B12" s="108" t="s">
+      <c r="B12" s="118" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="108"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="109" t="s">
+      <c r="C12" s="118"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="119" t="s">
         <v>109</v>
       </c>
-      <c r="F12" s="109" t="s">
+      <c r="F12" s="119" t="s">
         <v>110</v>
       </c>
-      <c r="G12" s="101" t="s">
+      <c r="G12" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="H12" s="51"/>
-      <c r="I12" s="101" t="s">
+      <c r="H12" s="46"/>
+      <c r="I12" s="111" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="102"/>
-      <c r="B13" s="67" t="s">
+      <c r="A13" s="112"/>
+      <c r="B13" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="67" t="s">
+      <c r="C13" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="D13" s="67" t="s">
+      <c r="D13" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="E13" s="117"/>
-      <c r="F13" s="118"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="68" t="s">
+      <c r="E13" s="120"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="I13" s="102"/>
+      <c r="I13" s="112"/>
     </row>
     <row r="14" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="81">
+      <c r="A14" s="76">
         <v>1</v>
       </c>
-      <c r="B14" s="75"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="72" t="s">
+      <c r="B14" s="70"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="F14" s="73" t="s">
+      <c r="F14" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="74">
+      <c r="G14" s="69">
         <f>SUM(H14:H14)</f>
         <v>1500</v>
       </c>
-      <c r="H14" s="82">
+      <c r="H14" s="77">
         <v>1500</v>
       </c>
-      <c r="I14" s="49" t="s">
+      <c r="I14" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="50"/>
+      <c r="J14" s="45"/>
     </row>
     <row r="15" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="119" t="s">
+      <c r="A15" s="125" t="s">
         <v>127</v>
       </c>
-      <c r="B15" s="120"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="121"/>
-      <c r="G15" s="79">
+      <c r="B15" s="126"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="127"/>
+      <c r="G15" s="74">
         <f>SUM(G14:G14)</f>
         <v>1500</v>
       </c>
-      <c r="H15" s="79">
+      <c r="H15" s="74">
         <f>H14</f>
         <v>1500</v>
       </c>
-      <c r="I15" s="83"/>
+      <c r="I15" s="78"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="48"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="D8:T8"/>
-    <mergeCell ref="D9:T9"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A5:I5"/>
     <mergeCell ref="I12:I13"/>
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="A12:A13"/>
@@ -8440,6 +6994,11 @@
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="G12:G13"/>
+    <mergeCell ref="D8:T8"/>
+    <mergeCell ref="D9:T9"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -8452,7 +7011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
@@ -8474,7 +7033,7 @@
     <col min="17" max="17" width="0" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="15.7109375" customWidth="1"/>
     <col min="19" max="19" width="16.42578125" customWidth="1"/>
-    <col min="20" max="20" width="83.85546875" style="135" customWidth="1"/>
+    <col min="20" max="20" width="83.85546875" style="94" customWidth="1"/>
     <col min="262" max="262" width="14.5703125" customWidth="1"/>
     <col min="263" max="263" width="15.7109375" customWidth="1"/>
     <col min="264" max="264" width="18.140625" customWidth="1"/>
@@ -9297,630 +7856,630 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="111"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
-      <c r="R2" s="111"/>
-      <c r="S2" s="111"/>
-      <c r="T2" s="111"/>
+      <c r="A2" s="106"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="106"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="106"/>
+      <c r="T2" s="106"/>
     </row>
     <row r="3" spans="1:21" ht="27" x14ac:dyDescent="0.25">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="107" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="112"/>
-      <c r="O3" s="112"/>
-      <c r="P3" s="112"/>
-      <c r="Q3" s="112"/>
-      <c r="R3" s="112"/>
-      <c r="S3" s="112"/>
-      <c r="T3" s="112"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="107"/>
     </row>
     <row r="4" spans="1:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="136"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="95"/>
     </row>
     <row r="5" spans="1:21" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="108" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="113"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="113"/>
-      <c r="K5" s="113"/>
-      <c r="L5" s="113"/>
-      <c r="M5" s="113"/>
-      <c r="N5" s="113"/>
-      <c r="O5" s="113"/>
-      <c r="P5" s="113"/>
-      <c r="Q5" s="113"/>
-      <c r="R5" s="113"/>
-      <c r="S5" s="113"/>
-      <c r="T5" s="113"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
+      <c r="K5" s="108"/>
+      <c r="L5" s="108"/>
+      <c r="M5" s="108"/>
+      <c r="N5" s="108"/>
+      <c r="O5" s="108"/>
+      <c r="P5" s="108"/>
+      <c r="Q5" s="108"/>
+      <c r="R5" s="108"/>
+      <c r="S5" s="108"/>
+      <c r="T5" s="108"/>
     </row>
     <row r="6" spans="1:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="136"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="95"/>
     </row>
     <row r="7" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="33" t="s">
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="137"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="96"/>
     </row>
     <row r="8" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="110" t="s">
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="105" t="s">
         <v>131</v>
       </c>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
-      <c r="L8" s="110"/>
-      <c r="M8" s="110"/>
-      <c r="N8" s="110"/>
-      <c r="O8" s="110"/>
-      <c r="P8" s="110"/>
-      <c r="Q8" s="110"/>
-      <c r="R8" s="110"/>
-      <c r="S8" s="110"/>
-      <c r="T8" s="110"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
+      <c r="N8" s="105"/>
+      <c r="O8" s="105"/>
+      <c r="P8" s="105"/>
+      <c r="Q8" s="105"/>
+      <c r="R8" s="105"/>
+      <c r="S8" s="105"/>
+      <c r="T8" s="105"/>
     </row>
     <row r="9" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="110" t="s">
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="105" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="110"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="110"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="110"/>
-      <c r="L9" s="110"/>
-      <c r="M9" s="110"/>
-      <c r="N9" s="110"/>
-      <c r="O9" s="110"/>
-      <c r="P9" s="110"/>
-      <c r="Q9" s="110"/>
-      <c r="R9" s="110"/>
-      <c r="S9" s="110"/>
-      <c r="T9" s="110"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="105"/>
+      <c r="N9" s="105"/>
+      <c r="O9" s="105"/>
+      <c r="P9" s="105"/>
+      <c r="Q9" s="105"/>
+      <c r="R9" s="105"/>
+      <c r="S9" s="105"/>
+      <c r="T9" s="105"/>
     </row>
     <row r="10" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39" t="s">
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="138"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="97"/>
     </row>
     <row r="11" spans="1:21" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="35"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="139">
+      <c r="A11" s="30"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="98">
         <v>2013</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="122" t="s">
+      <c r="A12" s="128" t="s">
         <v>107</v>
       </c>
-      <c r="B12" s="124" t="s">
+      <c r="B12" s="130" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="125" t="s">
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="131" t="s">
         <v>109</v>
       </c>
-      <c r="F12" s="125" t="s">
+      <c r="F12" s="131" t="s">
         <v>110</v>
       </c>
-      <c r="G12" s="128" t="s">
+      <c r="G12" s="134" t="s">
         <v>111</v>
       </c>
-      <c r="H12" s="129" t="s">
+      <c r="H12" s="135" t="s">
         <v>112</v>
       </c>
-      <c r="I12" s="130"/>
-      <c r="J12" s="130"/>
-      <c r="K12" s="130"/>
-      <c r="L12" s="130"/>
-      <c r="M12" s="130"/>
-      <c r="N12" s="130"/>
-      <c r="O12" s="130"/>
-      <c r="P12" s="130"/>
-      <c r="Q12" s="130"/>
-      <c r="R12" s="130"/>
-      <c r="S12" s="130"/>
-      <c r="T12" s="140" t="s">
+      <c r="I12" s="136"/>
+      <c r="J12" s="136"/>
+      <c r="K12" s="136"/>
+      <c r="L12" s="136"/>
+      <c r="M12" s="136"/>
+      <c r="N12" s="136"/>
+      <c r="O12" s="136"/>
+      <c r="P12" s="136"/>
+      <c r="Q12" s="136"/>
+      <c r="R12" s="136"/>
+      <c r="S12" s="136"/>
+      <c r="T12" s="137" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="123"/>
-      <c r="B13" s="68" t="s">
+      <c r="A13" s="129"/>
+      <c r="B13" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="68" t="s">
+      <c r="C13" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="D13" s="68" t="s">
+      <c r="D13" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="E13" s="126"/>
-      <c r="F13" s="127"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="68" t="s">
+      <c r="E13" s="132"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="129"/>
+      <c r="H13" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="I13" s="68" t="s">
+      <c r="I13" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="J13" s="68" t="s">
+      <c r="J13" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="K13" s="68" t="s">
+      <c r="K13" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="L13" s="68" t="s">
+      <c r="L13" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="M13" s="68" t="s">
+      <c r="M13" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="N13" s="68" t="s">
+      <c r="N13" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="O13" s="68" t="s">
+      <c r="O13" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="P13" s="68" t="s">
+      <c r="P13" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="Q13" s="68" t="s">
+      <c r="Q13" s="63" t="s">
         <v>125</v>
       </c>
-      <c r="R13" s="68" t="s">
+      <c r="R13" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="S13" s="68" t="s">
+      <c r="S13" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="T13" s="141"/>
+      <c r="T13" s="138"/>
     </row>
     <row r="14" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="52">
+      <c r="A14" s="47">
         <v>1</v>
       </c>
-      <c r="B14" s="90">
+      <c r="B14" s="85">
         <v>41446</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="D14" s="91" t="s">
+      <c r="D14" s="86" t="s">
         <v>134</v>
       </c>
-      <c r="E14" s="91" t="s">
+      <c r="E14" s="86" t="s">
         <v>135</v>
       </c>
-      <c r="F14" s="93">
+      <c r="F14" s="88">
         <v>2999</v>
       </c>
-      <c r="G14" s="92">
+      <c r="G14" s="87">
         <f>SUM(H14:S14)</f>
         <v>4500</v>
       </c>
-      <c r="H14" s="92"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="92"/>
-      <c r="L14" s="92"/>
-      <c r="M14" s="92"/>
-      <c r="N14" s="92"/>
-      <c r="O14" s="92"/>
-      <c r="P14" s="92"/>
-      <c r="Q14" s="92"/>
-      <c r="R14" s="92"/>
-      <c r="S14" s="92">
+      <c r="H14" s="87"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="87"/>
+      <c r="M14" s="87"/>
+      <c r="N14" s="87"/>
+      <c r="O14" s="87"/>
+      <c r="P14" s="87"/>
+      <c r="Q14" s="87"/>
+      <c r="R14" s="87"/>
+      <c r="S14" s="87">
         <v>4500</v>
       </c>
-      <c r="T14" s="142" t="s">
+      <c r="T14" s="99" t="s">
         <v>143</v>
       </c>
-      <c r="U14" s="8" t="s">
+      <c r="U14" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="52">
+      <c r="A15" s="47">
         <v>2</v>
       </c>
-      <c r="B15" s="90">
+      <c r="B15" s="85">
         <v>41446</v>
       </c>
-      <c r="C15" s="54" t="s">
+      <c r="C15" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="D15" s="91" t="s">
+      <c r="D15" s="86" t="s">
         <v>134</v>
       </c>
-      <c r="E15" s="91" t="s">
+      <c r="E15" s="86" t="s">
         <v>136</v>
       </c>
-      <c r="F15" s="94" t="s">
+      <c r="F15" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="92">
+      <c r="G15" s="87">
         <f>SUM(H15:S15)</f>
         <v>500</v>
       </c>
-      <c r="H15" s="92"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="92"/>
-      <c r="K15" s="92"/>
-      <c r="L15" s="92"/>
-      <c r="M15" s="92"/>
-      <c r="N15" s="92"/>
-      <c r="O15" s="92"/>
-      <c r="P15" s="92"/>
-      <c r="Q15" s="92"/>
-      <c r="R15" s="92"/>
-      <c r="S15" s="92">
+      <c r="H15" s="87"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="87"/>
+      <c r="M15" s="87"/>
+      <c r="N15" s="87"/>
+      <c r="O15" s="87"/>
+      <c r="P15" s="87"/>
+      <c r="Q15" s="87"/>
+      <c r="R15" s="87"/>
+      <c r="S15" s="87">
         <v>500</v>
       </c>
-      <c r="T15" s="142" t="s">
+      <c r="T15" s="99" t="s">
         <v>144</v>
       </c>
-      <c r="U15" s="8" t="s">
+      <c r="U15" s="7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="52">
+      <c r="A16" s="47">
         <v>3</v>
       </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="54" t="s">
+      <c r="B16" s="48"/>
+      <c r="C16" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91" t="s">
+      <c r="D16" s="86"/>
+      <c r="E16" s="86" t="s">
         <v>140</v>
       </c>
-      <c r="F16" s="94" t="s">
+      <c r="F16" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="92">
+      <c r="G16" s="87">
         <f>SUM(H16:S16)</f>
         <v>509.4</v>
       </c>
-      <c r="H16" s="92"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="92"/>
-      <c r="L16" s="92"/>
-      <c r="M16" s="92"/>
-      <c r="N16" s="92"/>
-      <c r="O16" s="92"/>
-      <c r="P16" s="92"/>
-      <c r="Q16" s="92"/>
-      <c r="R16" s="92">
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="87"/>
+      <c r="L16" s="87"/>
+      <c r="M16" s="87"/>
+      <c r="N16" s="87"/>
+      <c r="O16" s="87"/>
+      <c r="P16" s="87"/>
+      <c r="Q16" s="87"/>
+      <c r="R16" s="87">
         <v>509.4</v>
       </c>
-      <c r="S16" s="92"/>
-      <c r="T16" s="142" t="s">
+      <c r="S16" s="87"/>
+      <c r="T16" s="99" t="s">
         <v>142</v>
       </c>
-      <c r="U16" s="8" t="s">
+      <c r="U16" s="7" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="52">
+      <c r="A17" s="47">
         <v>4</v>
       </c>
-      <c r="B17" s="90">
+      <c r="B17" s="85">
         <v>41625</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="D17" s="91" t="s">
+      <c r="D17" s="86" t="s">
         <v>137</v>
       </c>
-      <c r="E17" s="91" t="s">
+      <c r="E17" s="86" t="s">
         <v>138</v>
       </c>
-      <c r="F17" s="94" t="s">
+      <c r="F17" s="89" t="s">
         <v>84</v>
       </c>
-      <c r="G17" s="92">
+      <c r="G17" s="87">
         <f>SUM(H17:S17)</f>
         <v>4491</v>
       </c>
-      <c r="H17" s="92"/>
-      <c r="I17" s="92"/>
-      <c r="J17" s="92"/>
-      <c r="K17" s="92"/>
-      <c r="L17" s="92"/>
-      <c r="M17" s="92"/>
-      <c r="N17" s="92"/>
-      <c r="O17" s="92"/>
-      <c r="P17" s="92"/>
-      <c r="Q17" s="92"/>
-      <c r="R17" s="92"/>
-      <c r="S17" s="92">
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="87"/>
+      <c r="R17" s="87"/>
+      <c r="S17" s="87">
         <v>4491</v>
       </c>
-      <c r="T17" s="142" t="s">
+      <c r="T17" s="99" t="s">
         <v>91</v>
       </c>
-      <c r="U17" s="8" t="s">
+      <c r="U17" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="52">
+      <c r="A18" s="47">
         <v>5</v>
       </c>
-      <c r="B18" s="90">
+      <c r="B18" s="85">
         <v>41625</v>
       </c>
-      <c r="C18" s="89" t="s">
+      <c r="C18" s="84" t="s">
         <v>126</v>
       </c>
-      <c r="D18" s="91" t="s">
+      <c r="D18" s="86" t="s">
         <v>137</v>
       </c>
-      <c r="E18" s="91" t="s">
+      <c r="E18" s="86" t="s">
         <v>139</v>
       </c>
-      <c r="F18" s="94" t="s">
+      <c r="F18" s="89" t="s">
         <v>84</v>
       </c>
-      <c r="G18" s="92"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="92"/>
-      <c r="J18" s="92"/>
-      <c r="K18" s="92"/>
-      <c r="L18" s="92"/>
-      <c r="M18" s="92"/>
-      <c r="N18" s="92"/>
-      <c r="O18" s="92"/>
-      <c r="P18" s="92"/>
-      <c r="Q18" s="92"/>
-      <c r="R18" s="92"/>
-      <c r="S18" s="92">
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="87"/>
+      <c r="O18" s="87"/>
+      <c r="P18" s="87"/>
+      <c r="Q18" s="87"/>
+      <c r="R18" s="87"/>
+      <c r="S18" s="87">
         <v>499</v>
       </c>
-      <c r="T18" s="142" t="s">
+      <c r="T18" s="99" t="s">
         <v>94</v>
       </c>
-      <c r="U18" s="50"/>
+      <c r="U18" s="45"/>
     </row>
     <row r="19" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="84" t="s">
+      <c r="A19" s="79" t="s">
         <v>127</v>
       </c>
-      <c r="B19" s="85"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="86">
+      <c r="B19" s="80"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="81">
         <f>SUM(G14:Q17)</f>
         <v>10000.4</v>
       </c>
-      <c r="H19" s="87">
+      <c r="H19" s="82">
         <f t="shared" ref="H19:Q19" si="0">SUM(H14:H15)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="87">
+      <c r="I19" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J19" s="87">
+      <c r="J19" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K19" s="87">
+      <c r="K19" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L19" s="87">
+      <c r="L19" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M19" s="87">
+      <c r="M19" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N19" s="87">
+      <c r="N19" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O19" s="87">
+      <c r="O19" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P19" s="87">
+      <c r="P19" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="87">
+      <c r="Q19" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R19" s="87">
+      <c r="R19" s="82">
         <f>SUM(R14:R17)</f>
         <v>509.4</v>
       </c>
-      <c r="S19" s="88">
+      <c r="S19" s="83">
         <f>SUM(S14:S18)</f>
         <v>9990</v>
       </c>
-      <c r="T19" s="143"/>
+      <c r="T19" s="100"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="43"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="47"/>
-      <c r="T20" s="144"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="12">
